--- a/ASD-Data-EEG.xlsx
+++ b/ASD-Data-EEG.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="69">
   <si>
     <t>Author</t>
   </si>
@@ -151,6 +151,9 @@
     <t>NB</t>
   </si>
   <si>
+    <t>Ghoreishi 2021</t>
+  </si>
+  <si>
     <t>Gui 2021</t>
   </si>
   <si>
@@ -187,6 +190,12 @@
     <t>PNN</t>
   </si>
   <si>
+    <t>Radhakrishnan 2021</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
     <t>Satheesh Kumar 2018</t>
   </si>
   <si>
@@ -215,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -238,9 +247,6 @@
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <name val="Calibri"/>
     </font>
     <font>
@@ -293,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -319,22 +325,19 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -557,13 +560,17 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="16.57"/>
     <col customWidth="1" min="2" max="2" width="31.29"/>
+    <col customWidth="1" min="14" max="14" width="13.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -630,8 +637,6 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
@@ -661,16 +666,16 @@
       <c r="I2" s="7">
         <v>94.4</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="3">
         <v>60.01</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="3">
         <v>7.22</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="3">
         <v>0.5</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="3">
         <v>54.27</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -697,14 +702,12 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="7">
@@ -713,10 +716,10 @@
       <c r="D3" s="7">
         <v>10.0</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="7">
@@ -764,14 +767,12 @@
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="6">
@@ -831,14 +832,12 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="7">
@@ -859,7 +858,7 @@
       <c r="H5" s="7">
         <v>95.9</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>99.7</v>
       </c>
       <c r="J5" s="3">
@@ -898,8 +897,6 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
@@ -929,16 +926,16 @@
       <c r="I6" s="7">
         <v>97.0</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="3">
         <v>21.0</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="3">
         <v>1.73</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="3">
         <v>0.5</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="3">
         <v>19.77</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -965,14 +962,12 @@
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="7">
@@ -981,10 +976,10 @@
       <c r="D7" s="7">
         <v>102.0</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="7">
@@ -996,16 +991,16 @@
       <c r="I7" s="7">
         <v>90.24</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="3">
         <v>24.15</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="3">
         <v>10.734</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="3">
         <v>1.271</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="3">
         <v>86.85</v>
       </c>
       <c r="N7" s="3" t="s">
@@ -1032,8 +1027,6 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
@@ -1063,16 +1056,16 @@
       <c r="I8" s="7">
         <v>79.0</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="3">
         <v>14.03</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="3">
         <v>3.69</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="3">
         <v>6.6</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="3">
         <v>24.68</v>
       </c>
       <c r="N8" s="3" t="s">
@@ -1099,57 +1092,53 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="6">
-        <v>19.0</v>
+        <v>34.0</v>
       </c>
       <c r="D9" s="6">
-        <v>112.0</v>
+        <v>27.0</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="6">
-        <v>40.0</v>
+        <v>94.1</v>
       </c>
       <c r="H9" s="6">
-        <v>100.0</v>
+        <v>66.7</v>
       </c>
       <c r="I9" s="7">
-        <v>70.0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>26.7</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="8">
-        <v>39.8</v>
-      </c>
-      <c r="M9" s="8">
-        <v>66.0</v>
+        <v>82.0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>18.0</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>26</v>
@@ -1161,53 +1150,51 @@
         <v>26</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="C10" s="6">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="D10" s="6">
-        <v>7.0</v>
+        <v>112.0</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="6">
+        <v>40.0</v>
+      </c>
+      <c r="H10" s="6">
         <v>100.0</v>
       </c>
-      <c r="H10" s="6">
-        <v>85.7</v>
-      </c>
       <c r="I10" s="7">
-        <v>92.9</v>
-      </c>
-      <c r="J10" s="8">
-        <v>7.65</v>
-      </c>
-      <c r="K10" s="8">
-        <v>1.48</v>
-      </c>
-      <c r="L10" s="8">
+        <v>70.0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>26.7</v>
+      </c>
+      <c r="K10" s="3">
         <v>0.5</v>
       </c>
-      <c r="M10" s="8">
-        <v>5.37</v>
+      <c r="L10" s="3">
+        <v>39.8</v>
+      </c>
+      <c r="M10" s="3">
+        <v>66.0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>26</v>
@@ -1228,68 +1215,66 @@
         <v>26</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="C11" s="6">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="D11" s="6">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="H11" s="6">
         <v>85.7</v>
       </c>
-      <c r="H11" s="6">
-        <v>100.0</v>
-      </c>
       <c r="I11" s="7">
-        <v>94.7</v>
-      </c>
-      <c r="J11" s="8">
-        <v>8.12</v>
-      </c>
-      <c r="K11" s="8">
+        <v>92.9</v>
+      </c>
+      <c r="J11" s="3">
+        <v>7.65</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="L11" s="3">
         <v>0.5</v>
       </c>
-      <c r="L11" s="8">
-        <v>1.77</v>
-      </c>
-      <c r="M11" s="8">
-        <v>15.6</v>
+      <c r="M11" s="3">
+        <v>5.37</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>26</v>
@@ -1300,48 +1285,46 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="C12" s="6">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D12" s="6">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="15">
-        <v>98.0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>98.0</v>
+        <v>35</v>
+      </c>
+      <c r="G12" s="6">
+        <v>85.7</v>
+      </c>
+      <c r="H12" s="6">
+        <v>100.0</v>
       </c>
       <c r="I12" s="7">
-        <v>98.27</v>
-      </c>
-      <c r="J12" s="8">
-        <v>7.66</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0.138</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0.156</v>
-      </c>
-      <c r="M12" s="8">
-        <v>9.04</v>
+        <v>94.7</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8.12</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.77</v>
+      </c>
+      <c r="M12" s="3">
+        <v>15.6</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>24</v>
@@ -1350,13 +1333,13 @@
         <v>26</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>26</v>
@@ -1367,48 +1350,46 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>56</v>
+      <c r="A13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C13" s="6">
-        <v>40.0</v>
+        <v>8.0</v>
       </c>
       <c r="D13" s="6">
-        <v>37.0</v>
+        <v>9.0</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>97.3</v>
+        <v>55</v>
+      </c>
+      <c r="G13" s="14">
+        <v>98.0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>98.0</v>
       </c>
       <c r="I13" s="7">
-        <v>98.7</v>
-      </c>
-      <c r="J13" s="8">
-        <v>40.43</v>
-      </c>
-      <c r="K13" s="8">
-        <v>1.501</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="M13" s="8">
-        <v>36.57</v>
+        <v>98.27</v>
+      </c>
+      <c r="J13" s="3">
+        <v>7.66</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.138</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.156</v>
+      </c>
+      <c r="M13" s="3">
+        <v>9.04</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>24</v>
@@ -1434,48 +1415,46 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="6">
+        <v>40.0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>37.0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="6">
-        <v>24.0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>25.0</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="G14" s="6">
-        <v>96.0</v>
+        <v>100.0</v>
       </c>
       <c r="H14" s="6">
-        <v>95.8333</v>
+        <v>97.3</v>
       </c>
       <c r="I14" s="7">
-        <v>97.9592</v>
-      </c>
-      <c r="J14" s="8">
-        <v>16.01</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1.643</v>
-      </c>
-      <c r="L14" s="8">
+        <v>98.7</v>
+      </c>
+      <c r="J14" s="3">
+        <v>40.43</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.501</v>
+      </c>
+      <c r="L14" s="3">
         <v>0.5</v>
       </c>
-      <c r="M14" s="8">
-        <v>32.02</v>
+      <c r="M14" s="3">
+        <v>36.57</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>24</v>
@@ -1484,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>26</v>
@@ -1501,51 +1480,47 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="6">
-        <v>41.0</v>
+        <v>10.0</v>
       </c>
       <c r="D15" s="6">
-        <v>32.0</v>
+        <v>10.0</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G15" s="6">
-        <v>90.4</v>
+        <v>89.0</v>
       </c>
       <c r="H15" s="6">
-        <v>89.8</v>
+        <v>100.0</v>
       </c>
       <c r="I15" s="7">
-        <v>90.41</v>
-      </c>
-      <c r="J15" s="8">
-        <v>64.94</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="L15" s="8">
-        <v>6.88</v>
-      </c>
-      <c r="M15" s="8">
-        <v>1.057</v>
+        <v>89.1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.0</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>26</v>
@@ -1560,7 +1535,7 @@
         <v>26</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>32</v>
@@ -1568,48 +1543,46 @@
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="6">
+        <v>24.0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="G16" s="6">
-        <v>97.07</v>
+        <v>96.0</v>
       </c>
       <c r="H16" s="6">
-        <v>90.95</v>
+        <v>95.8333</v>
       </c>
       <c r="I16" s="7">
-        <v>95.25</v>
-      </c>
-      <c r="J16" s="8">
-        <v>10.91</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0.43</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0.33</v>
-      </c>
-      <c r="M16" s="8">
-        <v>4.33</v>
+        <v>97.9592</v>
+      </c>
+      <c r="J16" s="3">
+        <v>16.01</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.643</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>32.02</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>24</v>
@@ -1635,70 +1608,145 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
+      <c r="A17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="6">
+        <v>41.0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>32.0</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="6">
+        <v>90.4</v>
+      </c>
+      <c r="H17" s="6">
+        <v>89.8</v>
+      </c>
+      <c r="I17" s="7">
+        <v>90.41</v>
+      </c>
+      <c r="J17" s="3">
+        <v>64.94</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="L17" s="3">
+        <v>6.88</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1.057</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="A18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="6">
+        <v>97.07</v>
+      </c>
+      <c r="H18" s="6">
+        <v>90.95</v>
+      </c>
+      <c r="I18" s="7">
+        <v>95.25</v>
+      </c>
+      <c r="J18" s="3">
+        <v>10.91</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="M18" s="3">
+        <v>4.33</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1714,18 +1762,15 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1741,8 +1786,6 @@
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" s="4"/>
@@ -1768,8 +1811,6 @@
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" s="4"/>
@@ -1795,8 +1836,6 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
     </row>
     <row r="23">
       <c r="A23" s="4"/>
@@ -1822,8 +1861,6 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
     </row>
     <row r="24">
       <c r="A24" s="4"/>
@@ -1849,8 +1886,6 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
     </row>
     <row r="25">
       <c r="A25" s="4"/>
@@ -1876,8 +1911,6 @@
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="4"/>
@@ -1903,8 +1936,6 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
     </row>
     <row r="27">
       <c r="A27" s="4"/>
@@ -1930,8 +1961,6 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
     </row>
     <row r="28">
       <c r="A28" s="4"/>
@@ -1957,8 +1986,6 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
     </row>
     <row r="29">
       <c r="A29" s="4"/>
@@ -1984,8 +2011,6 @@
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
     </row>
     <row r="30">
       <c r="A30" s="4"/>
@@ -2011,8 +2036,6 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
     </row>
     <row r="31">
       <c r="A31" s="4"/>
@@ -2038,8 +2061,6 @@
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="4"/>
@@ -2065,8 +2086,6 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
     </row>
     <row r="33">
       <c r="A33" s="4"/>
@@ -2092,8 +2111,6 @@
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
     </row>
     <row r="34">
       <c r="A34" s="4"/>
@@ -2119,8 +2136,6 @@
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
@@ -2146,8 +2161,6 @@
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
     </row>
     <row r="36">
       <c r="A36" s="4"/>
@@ -2173,8 +2186,6 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
     </row>
     <row r="37">
       <c r="A37" s="4"/>
@@ -2200,8 +2211,6 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
     </row>
     <row r="38">
       <c r="A38" s="4"/>
@@ -2227,8 +2236,6 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
     </row>
     <row r="39">
       <c r="A39" s="4"/>
@@ -2254,8 +2261,6 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="4"/>
@@ -2281,8 +2286,6 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
     </row>
     <row r="41">
       <c r="A41" s="4"/>
@@ -2308,8 +2311,6 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
     </row>
     <row r="42">
       <c r="A42" s="4"/>
@@ -2335,8 +2336,6 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
     </row>
     <row r="43">
       <c r="A43" s="4"/>
@@ -2362,8 +2361,6 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
     </row>
     <row r="44">
       <c r="A44" s="4"/>
@@ -2389,8 +2386,6 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="4"/>
@@ -2416,8 +2411,6 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
     </row>
     <row r="46">
       <c r="A46" s="4"/>
@@ -2443,8 +2436,6 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="4"/>
@@ -2470,8 +2461,6 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="4"/>
@@ -2497,8 +2486,6 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
     </row>
     <row r="49">
       <c r="A49" s="4"/>
@@ -2524,8 +2511,6 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
     </row>
     <row r="50">
       <c r="A50" s="4"/>
@@ -2551,8 +2536,6 @@
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
     </row>
     <row r="51">
       <c r="A51" s="4"/>
@@ -2578,8 +2561,6 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
     </row>
     <row r="52">
       <c r="A52" s="4"/>
@@ -2605,8 +2586,6 @@
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
     </row>
     <row r="53">
       <c r="A53" s="4"/>
@@ -2632,8 +2611,6 @@
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
     </row>
     <row r="54">
       <c r="A54" s="4"/>
@@ -2659,8 +2636,6 @@
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
     </row>
     <row r="55">
       <c r="A55" s="4"/>
@@ -2686,8 +2661,6 @@
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
     </row>
     <row r="56">
       <c r="A56" s="4"/>
@@ -2713,8 +2686,6 @@
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
     </row>
     <row r="57">
       <c r="A57" s="4"/>
@@ -2740,8 +2711,6 @@
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
     </row>
     <row r="58">
       <c r="A58" s="4"/>
@@ -2767,8 +2736,6 @@
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
     </row>
     <row r="59">
       <c r="A59" s="4"/>
@@ -2794,8 +2761,6 @@
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
     </row>
     <row r="60">
       <c r="A60" s="4"/>
@@ -2821,8 +2786,6 @@
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
     </row>
     <row r="61">
       <c r="A61" s="4"/>
@@ -2848,8 +2811,6 @@
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
     </row>
     <row r="62">
       <c r="A62" s="4"/>
@@ -2875,8 +2836,6 @@
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
     </row>
     <row r="63">
       <c r="A63" s="4"/>
@@ -2902,8 +2861,6 @@
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
     </row>
     <row r="64">
       <c r="A64" s="4"/>
@@ -2929,8 +2886,6 @@
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="4"/>
@@ -2956,8 +2911,6 @@
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
     </row>
     <row r="66">
       <c r="A66" s="4"/>
@@ -2983,8 +2936,6 @@
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
     </row>
     <row r="67">
       <c r="A67" s="4"/>
@@ -3010,8 +2961,6 @@
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="4"/>
@@ -3037,8 +2986,6 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
     </row>
     <row r="69">
       <c r="A69" s="4"/>
@@ -3064,8 +3011,6 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
     </row>
     <row r="70">
       <c r="A70" s="4"/>
@@ -3091,8 +3036,6 @@
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="4"/>
@@ -3118,8 +3061,6 @@
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="4"/>
@@ -3145,8 +3086,6 @@
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="4"/>
@@ -3172,8 +3111,6 @@
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="4"/>
@@ -3199,8 +3136,6 @@
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="4"/>
@@ -3226,8 +3161,6 @@
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
     </row>
     <row r="76">
       <c r="A76" s="4"/>
@@ -3253,8 +3186,6 @@
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
     </row>
     <row r="77">
       <c r="A77" s="4"/>
@@ -3280,8 +3211,6 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="4"/>
@@ -3307,8 +3236,6 @@
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="4"/>
@@ -3334,8 +3261,6 @@
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="4"/>
@@ -3361,8 +3286,6 @@
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
-      <c r="Y80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="4"/>
@@ -3388,8 +3311,6 @@
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="4"/>
@@ -3415,8 +3336,6 @@
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="4"/>
@@ -3442,8 +3361,6 @@
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="4"/>
@@ -3469,8 +3386,6 @@
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
-      <c r="X84" s="4"/>
-      <c r="Y84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="4"/>
@@ -3496,8 +3411,6 @@
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
-      <c r="X85" s="4"/>
-      <c r="Y85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="4"/>
@@ -3523,8 +3436,6 @@
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
-      <c r="X86" s="4"/>
-      <c r="Y86" s="4"/>
     </row>
     <row r="87">
       <c r="A87" s="4"/>
@@ -3550,8 +3461,6 @@
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
-      <c r="X87" s="4"/>
-      <c r="Y87" s="4"/>
     </row>
     <row r="88">
       <c r="A88" s="4"/>
@@ -3577,8 +3486,6 @@
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
-      <c r="X88" s="4"/>
-      <c r="Y88" s="4"/>
     </row>
     <row r="89">
       <c r="A89" s="4"/>
@@ -3604,8 +3511,6 @@
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
-      <c r="X89" s="4"/>
-      <c r="Y89" s="4"/>
     </row>
     <row r="90">
       <c r="A90" s="4"/>
@@ -3631,8 +3536,6 @@
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
-      <c r="X90" s="4"/>
-      <c r="Y90" s="4"/>
     </row>
     <row r="91">
       <c r="A91" s="4"/>
@@ -3658,8 +3561,6 @@
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
-      <c r="X91" s="4"/>
-      <c r="Y91" s="4"/>
     </row>
     <row r="92">
       <c r="A92" s="4"/>
@@ -3685,8 +3586,6 @@
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
-      <c r="X92" s="4"/>
-      <c r="Y92" s="4"/>
     </row>
     <row r="93">
       <c r="A93" s="4"/>
@@ -3712,8 +3611,6 @@
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
-      <c r="X93" s="4"/>
-      <c r="Y93" s="4"/>
     </row>
     <row r="94">
       <c r="A94" s="4"/>
@@ -3739,8 +3636,6 @@
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
-      <c r="X94" s="4"/>
-      <c r="Y94" s="4"/>
     </row>
     <row r="95">
       <c r="A95" s="4"/>
@@ -3766,8 +3661,6 @@
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
-      <c r="X95" s="4"/>
-      <c r="Y95" s="4"/>
     </row>
     <row r="96">
       <c r="A96" s="4"/>
@@ -3793,8 +3686,6 @@
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
-      <c r="X96" s="4"/>
-      <c r="Y96" s="4"/>
     </row>
     <row r="97">
       <c r="A97" s="4"/>
@@ -3820,8 +3711,6 @@
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
-      <c r="X97" s="4"/>
-      <c r="Y97" s="4"/>
     </row>
     <row r="98">
       <c r="A98" s="4"/>
@@ -3847,8 +3736,6 @@
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
-      <c r="X98" s="4"/>
-      <c r="Y98" s="4"/>
     </row>
     <row r="99">
       <c r="A99" s="4"/>
@@ -3874,8 +3761,6 @@
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
-      <c r="X99" s="4"/>
-      <c r="Y99" s="4"/>
     </row>
     <row r="100">
       <c r="A100" s="4"/>
@@ -3901,8 +3786,6 @@
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
-      <c r="X100" s="4"/>
-      <c r="Y100" s="4"/>
     </row>
     <row r="101">
       <c r="A101" s="4"/>
@@ -3928,8 +3811,6 @@
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
-      <c r="X101" s="4"/>
-      <c r="Y101" s="4"/>
     </row>
     <row r="102">
       <c r="A102" s="4"/>
@@ -3955,8 +3836,6 @@
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
-      <c r="X102" s="4"/>
-      <c r="Y102" s="4"/>
     </row>
     <row r="103">
       <c r="A103" s="4"/>
@@ -3982,8 +3861,6 @@
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
-      <c r="X103" s="4"/>
-      <c r="Y103" s="4"/>
     </row>
     <row r="104">
       <c r="A104" s="4"/>
@@ -4009,8 +3886,6 @@
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
-      <c r="X104" s="4"/>
-      <c r="Y104" s="4"/>
     </row>
     <row r="105">
       <c r="A105" s="4"/>
@@ -4036,8 +3911,6 @@
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
-      <c r="X105" s="4"/>
-      <c r="Y105" s="4"/>
     </row>
     <row r="106">
       <c r="A106" s="4"/>
@@ -4063,8 +3936,6 @@
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
-      <c r="X106" s="4"/>
-      <c r="Y106" s="4"/>
     </row>
     <row r="107">
       <c r="A107" s="4"/>
@@ -4090,8 +3961,6 @@
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
-      <c r="X107" s="4"/>
-      <c r="Y107" s="4"/>
     </row>
     <row r="108">
       <c r="A108" s="4"/>
@@ -4117,8 +3986,6 @@
       <c r="U108" s="4"/>
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
-      <c r="X108" s="4"/>
-      <c r="Y108" s="4"/>
     </row>
     <row r="109">
       <c r="A109" s="4"/>
@@ -4144,8 +4011,6 @@
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
-      <c r="X109" s="4"/>
-      <c r="Y109" s="4"/>
     </row>
     <row r="110">
       <c r="A110" s="4"/>
@@ -4171,8 +4036,6 @@
       <c r="U110" s="4"/>
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
-      <c r="X110" s="4"/>
-      <c r="Y110" s="4"/>
     </row>
     <row r="111">
       <c r="A111" s="4"/>
@@ -4198,8 +4061,6 @@
       <c r="U111" s="4"/>
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
-      <c r="X111" s="4"/>
-      <c r="Y111" s="4"/>
     </row>
     <row r="112">
       <c r="A112" s="4"/>
@@ -4225,8 +4086,6 @@
       <c r="U112" s="4"/>
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
-      <c r="X112" s="4"/>
-      <c r="Y112" s="4"/>
     </row>
     <row r="113">
       <c r="A113" s="4"/>
@@ -4252,8 +4111,6 @@
       <c r="U113" s="4"/>
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
-      <c r="X113" s="4"/>
-      <c r="Y113" s="4"/>
     </row>
     <row r="114">
       <c r="A114" s="4"/>
@@ -4279,8 +4136,6 @@
       <c r="U114" s="4"/>
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
-      <c r="X114" s="4"/>
-      <c r="Y114" s="4"/>
     </row>
     <row r="115">
       <c r="A115" s="4"/>
@@ -4306,8 +4161,6 @@
       <c r="U115" s="4"/>
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
-      <c r="X115" s="4"/>
-      <c r="Y115" s="4"/>
     </row>
     <row r="116">
       <c r="A116" s="4"/>
@@ -4333,8 +4186,6 @@
       <c r="U116" s="4"/>
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
-      <c r="X116" s="4"/>
-      <c r="Y116" s="4"/>
     </row>
     <row r="117">
       <c r="A117" s="4"/>
@@ -4360,8 +4211,6 @@
       <c r="U117" s="4"/>
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
-      <c r="X117" s="4"/>
-      <c r="Y117" s="4"/>
     </row>
     <row r="118">
       <c r="A118" s="4"/>
@@ -4387,8 +4236,6 @@
       <c r="U118" s="4"/>
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
-      <c r="X118" s="4"/>
-      <c r="Y118" s="4"/>
     </row>
     <row r="119">
       <c r="A119" s="4"/>
@@ -4414,8 +4261,6 @@
       <c r="U119" s="4"/>
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
-      <c r="X119" s="4"/>
-      <c r="Y119" s="4"/>
     </row>
     <row r="120">
       <c r="A120" s="4"/>
@@ -4441,8 +4286,6 @@
       <c r="U120" s="4"/>
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
-      <c r="X120" s="4"/>
-      <c r="Y120" s="4"/>
     </row>
     <row r="121">
       <c r="A121" s="4"/>
@@ -4468,8 +4311,6 @@
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
-      <c r="X121" s="4"/>
-      <c r="Y121" s="4"/>
     </row>
     <row r="122">
       <c r="A122" s="4"/>
@@ -4495,8 +4336,6 @@
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
-      <c r="X122" s="4"/>
-      <c r="Y122" s="4"/>
     </row>
     <row r="123">
       <c r="A123" s="4"/>
@@ -4522,8 +4361,6 @@
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
-      <c r="X123" s="4"/>
-      <c r="Y123" s="4"/>
     </row>
     <row r="124">
       <c r="A124" s="4"/>
@@ -4549,8 +4386,6 @@
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
-      <c r="X124" s="4"/>
-      <c r="Y124" s="4"/>
     </row>
     <row r="125">
       <c r="A125" s="4"/>
@@ -4576,8 +4411,6 @@
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
-      <c r="X125" s="4"/>
-      <c r="Y125" s="4"/>
     </row>
     <row r="126">
       <c r="A126" s="4"/>
@@ -4603,8 +4436,6 @@
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
-      <c r="X126" s="4"/>
-      <c r="Y126" s="4"/>
     </row>
     <row r="127">
       <c r="A127" s="4"/>
@@ -4630,8 +4461,6 @@
       <c r="U127" s="4"/>
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
-      <c r="X127" s="4"/>
-      <c r="Y127" s="4"/>
     </row>
     <row r="128">
       <c r="A128" s="4"/>
@@ -4657,8 +4486,6 @@
       <c r="U128" s="4"/>
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
-      <c r="X128" s="4"/>
-      <c r="Y128" s="4"/>
     </row>
     <row r="129">
       <c r="A129" s="4"/>
@@ -4684,8 +4511,6 @@
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
-      <c r="X129" s="4"/>
-      <c r="Y129" s="4"/>
     </row>
     <row r="130">
       <c r="A130" s="4"/>
@@ -4711,8 +4536,6 @@
       <c r="U130" s="4"/>
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
-      <c r="X130" s="4"/>
-      <c r="Y130" s="4"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
@@ -4738,8 +4561,6 @@
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
-      <c r="X131" s="4"/>
-      <c r="Y131" s="4"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -4765,8 +4586,6 @@
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
-      <c r="X132" s="4"/>
-      <c r="Y132" s="4"/>
     </row>
     <row r="133">
       <c r="A133" s="4"/>
@@ -4792,8 +4611,6 @@
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
-      <c r="X133" s="4"/>
-      <c r="Y133" s="4"/>
     </row>
     <row r="134">
       <c r="A134" s="4"/>
@@ -4819,8 +4636,6 @@
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
-      <c r="X134" s="4"/>
-      <c r="Y134" s="4"/>
     </row>
     <row r="135">
       <c r="A135" s="4"/>
@@ -4846,8 +4661,6 @@
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
-      <c r="X135" s="4"/>
-      <c r="Y135" s="4"/>
     </row>
     <row r="136">
       <c r="A136" s="4"/>
@@ -4873,8 +4686,6 @@
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
-      <c r="X136" s="4"/>
-      <c r="Y136" s="4"/>
     </row>
     <row r="137">
       <c r="A137" s="4"/>
@@ -4900,8 +4711,6 @@
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
-      <c r="X137" s="4"/>
-      <c r="Y137" s="4"/>
     </row>
     <row r="138">
       <c r="A138" s="4"/>
@@ -4927,8 +4736,6 @@
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
-      <c r="X138" s="4"/>
-      <c r="Y138" s="4"/>
     </row>
     <row r="139">
       <c r="A139" s="4"/>
@@ -4954,8 +4761,6 @@
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
-      <c r="X139" s="4"/>
-      <c r="Y139" s="4"/>
     </row>
     <row r="140">
       <c r="A140" s="4"/>
@@ -4981,8 +4786,6 @@
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
-      <c r="X140" s="4"/>
-      <c r="Y140" s="4"/>
     </row>
     <row r="141">
       <c r="A141" s="4"/>
@@ -5008,8 +4811,6 @@
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
-      <c r="X141" s="4"/>
-      <c r="Y141" s="4"/>
     </row>
     <row r="142">
       <c r="A142" s="4"/>
@@ -5035,8 +4836,6 @@
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
-      <c r="X142" s="4"/>
-      <c r="Y142" s="4"/>
     </row>
     <row r="143">
       <c r="A143" s="4"/>
@@ -5062,8 +4861,6 @@
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
-      <c r="X143" s="4"/>
-      <c r="Y143" s="4"/>
     </row>
     <row r="144">
       <c r="A144" s="4"/>
@@ -5089,8 +4886,6 @@
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
-      <c r="X144" s="4"/>
-      <c r="Y144" s="4"/>
     </row>
     <row r="145">
       <c r="A145" s="4"/>
@@ -5116,8 +4911,6 @@
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
       <c r="W145" s="4"/>
-      <c r="X145" s="4"/>
-      <c r="Y145" s="4"/>
     </row>
     <row r="146">
       <c r="A146" s="4"/>
@@ -5143,8 +4936,6 @@
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
-      <c r="X146" s="4"/>
-      <c r="Y146" s="4"/>
     </row>
     <row r="147">
       <c r="A147" s="4"/>
@@ -5170,8 +4961,6 @@
       <c r="U147" s="4"/>
       <c r="V147" s="4"/>
       <c r="W147" s="4"/>
-      <c r="X147" s="4"/>
-      <c r="Y147" s="4"/>
     </row>
     <row r="148">
       <c r="A148" s="4"/>
@@ -5197,8 +4986,6 @@
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
-      <c r="X148" s="4"/>
-      <c r="Y148" s="4"/>
     </row>
     <row r="149">
       <c r="A149" s="4"/>
@@ -5224,8 +5011,6 @@
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
       <c r="W149" s="4"/>
-      <c r="X149" s="4"/>
-      <c r="Y149" s="4"/>
     </row>
     <row r="150">
       <c r="A150" s="4"/>
@@ -5251,8 +5036,6 @@
       <c r="U150" s="4"/>
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
-      <c r="X150" s="4"/>
-      <c r="Y150" s="4"/>
     </row>
     <row r="151">
       <c r="A151" s="4"/>
@@ -5278,8 +5061,6 @@
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
-      <c r="X151" s="4"/>
-      <c r="Y151" s="4"/>
     </row>
     <row r="152">
       <c r="A152" s="4"/>
@@ -5305,8 +5086,6 @@
       <c r="U152" s="4"/>
       <c r="V152" s="4"/>
       <c r="W152" s="4"/>
-      <c r="X152" s="4"/>
-      <c r="Y152" s="4"/>
     </row>
     <row r="153">
       <c r="A153" s="4"/>
@@ -5332,8 +5111,6 @@
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
-      <c r="X153" s="4"/>
-      <c r="Y153" s="4"/>
     </row>
     <row r="154">
       <c r="A154" s="4"/>
@@ -5359,8 +5136,6 @@
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
-      <c r="X154" s="4"/>
-      <c r="Y154" s="4"/>
     </row>
     <row r="155">
       <c r="A155" s="4"/>
@@ -5386,8 +5161,6 @@
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
-      <c r="X155" s="4"/>
-      <c r="Y155" s="4"/>
     </row>
     <row r="156">
       <c r="A156" s="4"/>
@@ -5413,8 +5186,6 @@
       <c r="U156" s="4"/>
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
-      <c r="X156" s="4"/>
-      <c r="Y156" s="4"/>
     </row>
     <row r="157">
       <c r="A157" s="4"/>
@@ -5440,8 +5211,6 @@
       <c r="U157" s="4"/>
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
-      <c r="X157" s="4"/>
-      <c r="Y157" s="4"/>
     </row>
     <row r="158">
       <c r="A158" s="4"/>
@@ -5467,8 +5236,6 @@
       <c r="U158" s="4"/>
       <c r="V158" s="4"/>
       <c r="W158" s="4"/>
-      <c r="X158" s="4"/>
-      <c r="Y158" s="4"/>
     </row>
     <row r="159">
       <c r="A159" s="4"/>
@@ -5494,8 +5261,6 @@
       <c r="U159" s="4"/>
       <c r="V159" s="4"/>
       <c r="W159" s="4"/>
-      <c r="X159" s="4"/>
-      <c r="Y159" s="4"/>
     </row>
     <row r="160">
       <c r="A160" s="4"/>
@@ -5521,8 +5286,6 @@
       <c r="U160" s="4"/>
       <c r="V160" s="4"/>
       <c r="W160" s="4"/>
-      <c r="X160" s="4"/>
-      <c r="Y160" s="4"/>
     </row>
     <row r="161">
       <c r="A161" s="4"/>
@@ -5548,8 +5311,6 @@
       <c r="U161" s="4"/>
       <c r="V161" s="4"/>
       <c r="W161" s="4"/>
-      <c r="X161" s="4"/>
-      <c r="Y161" s="4"/>
     </row>
     <row r="162">
       <c r="A162" s="4"/>
@@ -5575,8 +5336,6 @@
       <c r="U162" s="4"/>
       <c r="V162" s="4"/>
       <c r="W162" s="4"/>
-      <c r="X162" s="4"/>
-      <c r="Y162" s="4"/>
     </row>
     <row r="163">
       <c r="A163" s="4"/>
@@ -5602,8 +5361,6 @@
       <c r="U163" s="4"/>
       <c r="V163" s="4"/>
       <c r="W163" s="4"/>
-      <c r="X163" s="4"/>
-      <c r="Y163" s="4"/>
     </row>
     <row r="164">
       <c r="A164" s="4"/>
@@ -5629,8 +5386,6 @@
       <c r="U164" s="4"/>
       <c r="V164" s="4"/>
       <c r="W164" s="4"/>
-      <c r="X164" s="4"/>
-      <c r="Y164" s="4"/>
     </row>
     <row r="165">
       <c r="A165" s="4"/>
@@ -5656,8 +5411,6 @@
       <c r="U165" s="4"/>
       <c r="V165" s="4"/>
       <c r="W165" s="4"/>
-      <c r="X165" s="4"/>
-      <c r="Y165" s="4"/>
     </row>
     <row r="166">
       <c r="A166" s="4"/>
@@ -5683,8 +5436,6 @@
       <c r="U166" s="4"/>
       <c r="V166" s="4"/>
       <c r="W166" s="4"/>
-      <c r="X166" s="4"/>
-      <c r="Y166" s="4"/>
     </row>
     <row r="167">
       <c r="A167" s="4"/>
@@ -5710,8 +5461,6 @@
       <c r="U167" s="4"/>
       <c r="V167" s="4"/>
       <c r="W167" s="4"/>
-      <c r="X167" s="4"/>
-      <c r="Y167" s="4"/>
     </row>
     <row r="168">
       <c r="A168" s="4"/>
@@ -5737,8 +5486,6 @@
       <c r="U168" s="4"/>
       <c r="V168" s="4"/>
       <c r="W168" s="4"/>
-      <c r="X168" s="4"/>
-      <c r="Y168" s="4"/>
     </row>
     <row r="169">
       <c r="A169" s="4"/>
@@ -5764,8 +5511,6 @@
       <c r="U169" s="4"/>
       <c r="V169" s="4"/>
       <c r="W169" s="4"/>
-      <c r="X169" s="4"/>
-      <c r="Y169" s="4"/>
     </row>
     <row r="170">
       <c r="A170" s="4"/>
@@ -5791,8 +5536,6 @@
       <c r="U170" s="4"/>
       <c r="V170" s="4"/>
       <c r="W170" s="4"/>
-      <c r="X170" s="4"/>
-      <c r="Y170" s="4"/>
     </row>
     <row r="171">
       <c r="A171" s="4"/>
@@ -5818,8 +5561,6 @@
       <c r="U171" s="4"/>
       <c r="V171" s="4"/>
       <c r="W171" s="4"/>
-      <c r="X171" s="4"/>
-      <c r="Y171" s="4"/>
     </row>
     <row r="172">
       <c r="A172" s="4"/>
@@ -5845,8 +5586,6 @@
       <c r="U172" s="4"/>
       <c r="V172" s="4"/>
       <c r="W172" s="4"/>
-      <c r="X172" s="4"/>
-      <c r="Y172" s="4"/>
     </row>
     <row r="173">
       <c r="A173" s="4"/>
@@ -5872,8 +5611,6 @@
       <c r="U173" s="4"/>
       <c r="V173" s="4"/>
       <c r="W173" s="4"/>
-      <c r="X173" s="4"/>
-      <c r="Y173" s="4"/>
     </row>
     <row r="174">
       <c r="A174" s="4"/>
@@ -5899,8 +5636,6 @@
       <c r="U174" s="4"/>
       <c r="V174" s="4"/>
       <c r="W174" s="4"/>
-      <c r="X174" s="4"/>
-      <c r="Y174" s="4"/>
     </row>
     <row r="175">
       <c r="A175" s="4"/>
@@ -5926,8 +5661,6 @@
       <c r="U175" s="4"/>
       <c r="V175" s="4"/>
       <c r="W175" s="4"/>
-      <c r="X175" s="4"/>
-      <c r="Y175" s="4"/>
     </row>
     <row r="176">
       <c r="A176" s="4"/>
@@ -5953,8 +5686,6 @@
       <c r="U176" s="4"/>
       <c r="V176" s="4"/>
       <c r="W176" s="4"/>
-      <c r="X176" s="4"/>
-      <c r="Y176" s="4"/>
     </row>
     <row r="177">
       <c r="A177" s="4"/>
@@ -5980,8 +5711,6 @@
       <c r="U177" s="4"/>
       <c r="V177" s="4"/>
       <c r="W177" s="4"/>
-      <c r="X177" s="4"/>
-      <c r="Y177" s="4"/>
     </row>
     <row r="178">
       <c r="A178" s="4"/>
@@ -6007,8 +5736,6 @@
       <c r="U178" s="4"/>
       <c r="V178" s="4"/>
       <c r="W178" s="4"/>
-      <c r="X178" s="4"/>
-      <c r="Y178" s="4"/>
     </row>
     <row r="179">
       <c r="A179" s="4"/>
@@ -6034,8 +5761,6 @@
       <c r="U179" s="4"/>
       <c r="V179" s="4"/>
       <c r="W179" s="4"/>
-      <c r="X179" s="4"/>
-      <c r="Y179" s="4"/>
     </row>
     <row r="180">
       <c r="A180" s="4"/>
@@ -6061,8 +5786,6 @@
       <c r="U180" s="4"/>
       <c r="V180" s="4"/>
       <c r="W180" s="4"/>
-      <c r="X180" s="4"/>
-      <c r="Y180" s="4"/>
     </row>
     <row r="181">
       <c r="A181" s="4"/>
@@ -6088,8 +5811,6 @@
       <c r="U181" s="4"/>
       <c r="V181" s="4"/>
       <c r="W181" s="4"/>
-      <c r="X181" s="4"/>
-      <c r="Y181" s="4"/>
     </row>
     <row r="182">
       <c r="A182" s="4"/>
@@ -6115,8 +5836,6 @@
       <c r="U182" s="4"/>
       <c r="V182" s="4"/>
       <c r="W182" s="4"/>
-      <c r="X182" s="4"/>
-      <c r="Y182" s="4"/>
     </row>
     <row r="183">
       <c r="A183" s="4"/>
@@ -6142,8 +5861,6 @@
       <c r="U183" s="4"/>
       <c r="V183" s="4"/>
       <c r="W183" s="4"/>
-      <c r="X183" s="4"/>
-      <c r="Y183" s="4"/>
     </row>
     <row r="184">
       <c r="A184" s="4"/>
@@ -6169,8 +5886,6 @@
       <c r="U184" s="4"/>
       <c r="V184" s="4"/>
       <c r="W184" s="4"/>
-      <c r="X184" s="4"/>
-      <c r="Y184" s="4"/>
     </row>
     <row r="185">
       <c r="A185" s="4"/>
@@ -6196,8 +5911,6 @@
       <c r="U185" s="4"/>
       <c r="V185" s="4"/>
       <c r="W185" s="4"/>
-      <c r="X185" s="4"/>
-      <c r="Y185" s="4"/>
     </row>
     <row r="186">
       <c r="A186" s="4"/>
@@ -6223,8 +5936,6 @@
       <c r="U186" s="4"/>
       <c r="V186" s="4"/>
       <c r="W186" s="4"/>
-      <c r="X186" s="4"/>
-      <c r="Y186" s="4"/>
     </row>
     <row r="187">
       <c r="A187" s="4"/>
@@ -6250,8 +5961,6 @@
       <c r="U187" s="4"/>
       <c r="V187" s="4"/>
       <c r="W187" s="4"/>
-      <c r="X187" s="4"/>
-      <c r="Y187" s="4"/>
     </row>
     <row r="188">
       <c r="A188" s="4"/>
@@ -6277,8 +5986,6 @@
       <c r="U188" s="4"/>
       <c r="V188" s="4"/>
       <c r="W188" s="4"/>
-      <c r="X188" s="4"/>
-      <c r="Y188" s="4"/>
     </row>
     <row r="189">
       <c r="A189" s="4"/>
@@ -6304,8 +6011,6 @@
       <c r="U189" s="4"/>
       <c r="V189" s="4"/>
       <c r="W189" s="4"/>
-      <c r="X189" s="4"/>
-      <c r="Y189" s="4"/>
     </row>
     <row r="190">
       <c r="A190" s="4"/>
@@ -6331,8 +6036,6 @@
       <c r="U190" s="4"/>
       <c r="V190" s="4"/>
       <c r="W190" s="4"/>
-      <c r="X190" s="4"/>
-      <c r="Y190" s="4"/>
     </row>
     <row r="191">
       <c r="A191" s="4"/>
@@ -6358,8 +6061,6 @@
       <c r="U191" s="4"/>
       <c r="V191" s="4"/>
       <c r="W191" s="4"/>
-      <c r="X191" s="4"/>
-      <c r="Y191" s="4"/>
     </row>
     <row r="192">
       <c r="A192" s="4"/>
@@ -6385,8 +6086,6 @@
       <c r="U192" s="4"/>
       <c r="V192" s="4"/>
       <c r="W192" s="4"/>
-      <c r="X192" s="4"/>
-      <c r="Y192" s="4"/>
     </row>
     <row r="193">
       <c r="A193" s="4"/>
@@ -6412,8 +6111,6 @@
       <c r="U193" s="4"/>
       <c r="V193" s="4"/>
       <c r="W193" s="4"/>
-      <c r="X193" s="4"/>
-      <c r="Y193" s="4"/>
     </row>
     <row r="194">
       <c r="A194" s="4"/>
@@ -6439,8 +6136,6 @@
       <c r="U194" s="4"/>
       <c r="V194" s="4"/>
       <c r="W194" s="4"/>
-      <c r="X194" s="4"/>
-      <c r="Y194" s="4"/>
     </row>
     <row r="195">
       <c r="A195" s="4"/>
@@ -6466,8 +6161,6 @@
       <c r="U195" s="4"/>
       <c r="V195" s="4"/>
       <c r="W195" s="4"/>
-      <c r="X195" s="4"/>
-      <c r="Y195" s="4"/>
     </row>
     <row r="196">
       <c r="A196" s="4"/>
@@ -6493,8 +6186,6 @@
       <c r="U196" s="4"/>
       <c r="V196" s="4"/>
       <c r="W196" s="4"/>
-      <c r="X196" s="4"/>
-      <c r="Y196" s="4"/>
     </row>
     <row r="197">
       <c r="A197" s="4"/>
@@ -6520,8 +6211,6 @@
       <c r="U197" s="4"/>
       <c r="V197" s="4"/>
       <c r="W197" s="4"/>
-      <c r="X197" s="4"/>
-      <c r="Y197" s="4"/>
     </row>
     <row r="198">
       <c r="A198" s="4"/>
@@ -6547,8 +6236,6 @@
       <c r="U198" s="4"/>
       <c r="V198" s="4"/>
       <c r="W198" s="4"/>
-      <c r="X198" s="4"/>
-      <c r="Y198" s="4"/>
     </row>
     <row r="199">
       <c r="A199" s="4"/>
@@ -6574,8 +6261,6 @@
       <c r="U199" s="4"/>
       <c r="V199" s="4"/>
       <c r="W199" s="4"/>
-      <c r="X199" s="4"/>
-      <c r="Y199" s="4"/>
     </row>
     <row r="200">
       <c r="A200" s="4"/>
@@ -6601,8 +6286,6 @@
       <c r="U200" s="4"/>
       <c r="V200" s="4"/>
       <c r="W200" s="4"/>
-      <c r="X200" s="4"/>
-      <c r="Y200" s="4"/>
     </row>
     <row r="201">
       <c r="A201" s="4"/>
@@ -6628,8 +6311,6 @@
       <c r="U201" s="4"/>
       <c r="V201" s="4"/>
       <c r="W201" s="4"/>
-      <c r="X201" s="4"/>
-      <c r="Y201" s="4"/>
     </row>
     <row r="202">
       <c r="A202" s="4"/>
@@ -6655,8 +6336,6 @@
       <c r="U202" s="4"/>
       <c r="V202" s="4"/>
       <c r="W202" s="4"/>
-      <c r="X202" s="4"/>
-      <c r="Y202" s="4"/>
     </row>
     <row r="203">
       <c r="A203" s="4"/>
@@ -6682,8 +6361,6 @@
       <c r="U203" s="4"/>
       <c r="V203" s="4"/>
       <c r="W203" s="4"/>
-      <c r="X203" s="4"/>
-      <c r="Y203" s="4"/>
     </row>
     <row r="204">
       <c r="A204" s="4"/>
@@ -6709,8 +6386,6 @@
       <c r="U204" s="4"/>
       <c r="V204" s="4"/>
       <c r="W204" s="4"/>
-      <c r="X204" s="4"/>
-      <c r="Y204" s="4"/>
     </row>
     <row r="205">
       <c r="A205" s="4"/>
@@ -6736,8 +6411,6 @@
       <c r="U205" s="4"/>
       <c r="V205" s="4"/>
       <c r="W205" s="4"/>
-      <c r="X205" s="4"/>
-      <c r="Y205" s="4"/>
     </row>
     <row r="206">
       <c r="A206" s="4"/>
@@ -6763,8 +6436,6 @@
       <c r="U206" s="4"/>
       <c r="V206" s="4"/>
       <c r="W206" s="4"/>
-      <c r="X206" s="4"/>
-      <c r="Y206" s="4"/>
     </row>
     <row r="207">
       <c r="A207" s="4"/>
@@ -6790,8 +6461,6 @@
       <c r="U207" s="4"/>
       <c r="V207" s="4"/>
       <c r="W207" s="4"/>
-      <c r="X207" s="4"/>
-      <c r="Y207" s="4"/>
     </row>
     <row r="208">
       <c r="A208" s="4"/>
@@ -6817,8 +6486,6 @@
       <c r="U208" s="4"/>
       <c r="V208" s="4"/>
       <c r="W208" s="4"/>
-      <c r="X208" s="4"/>
-      <c r="Y208" s="4"/>
     </row>
     <row r="209">
       <c r="A209" s="4"/>
@@ -6844,8 +6511,6 @@
       <c r="U209" s="4"/>
       <c r="V209" s="4"/>
       <c r="W209" s="4"/>
-      <c r="X209" s="4"/>
-      <c r="Y209" s="4"/>
     </row>
     <row r="210">
       <c r="A210" s="4"/>
@@ -6871,8 +6536,6 @@
       <c r="U210" s="4"/>
       <c r="V210" s="4"/>
       <c r="W210" s="4"/>
-      <c r="X210" s="4"/>
-      <c r="Y210" s="4"/>
     </row>
     <row r="211">
       <c r="A211" s="4"/>
@@ -6898,8 +6561,6 @@
       <c r="U211" s="4"/>
       <c r="V211" s="4"/>
       <c r="W211" s="4"/>
-      <c r="X211" s="4"/>
-      <c r="Y211" s="4"/>
     </row>
     <row r="212">
       <c r="A212" s="4"/>
@@ -6925,8 +6586,6 @@
       <c r="U212" s="4"/>
       <c r="V212" s="4"/>
       <c r="W212" s="4"/>
-      <c r="X212" s="4"/>
-      <c r="Y212" s="4"/>
     </row>
     <row r="213">
       <c r="A213" s="4"/>
@@ -6952,8 +6611,6 @@
       <c r="U213" s="4"/>
       <c r="V213" s="4"/>
       <c r="W213" s="4"/>
-      <c r="X213" s="4"/>
-      <c r="Y213" s="4"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
@@ -6979,8 +6636,6 @@
       <c r="U214" s="4"/>
       <c r="V214" s="4"/>
       <c r="W214" s="4"/>
-      <c r="X214" s="4"/>
-      <c r="Y214" s="4"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
@@ -7006,8 +6661,6 @@
       <c r="U215" s="4"/>
       <c r="V215" s="4"/>
       <c r="W215" s="4"/>
-      <c r="X215" s="4"/>
-      <c r="Y215" s="4"/>
     </row>
     <row r="216">
       <c r="A216" s="4"/>
@@ -7033,8 +6686,6 @@
       <c r="U216" s="4"/>
       <c r="V216" s="4"/>
       <c r="W216" s="4"/>
-      <c r="X216" s="4"/>
-      <c r="Y216" s="4"/>
     </row>
     <row r="217">
       <c r="A217" s="4"/>
@@ -7060,8 +6711,6 @@
       <c r="U217" s="4"/>
       <c r="V217" s="4"/>
       <c r="W217" s="4"/>
-      <c r="X217" s="4"/>
-      <c r="Y217" s="4"/>
     </row>
     <row r="218">
       <c r="A218" s="4"/>
@@ -7087,8 +6736,6 @@
       <c r="U218" s="4"/>
       <c r="V218" s="4"/>
       <c r="W218" s="4"/>
-      <c r="X218" s="4"/>
-      <c r="Y218" s="4"/>
     </row>
     <row r="219">
       <c r="A219" s="4"/>
@@ -7114,8 +6761,6 @@
       <c r="U219" s="4"/>
       <c r="V219" s="4"/>
       <c r="W219" s="4"/>
-      <c r="X219" s="4"/>
-      <c r="Y219" s="4"/>
     </row>
     <row r="220">
       <c r="A220" s="4"/>
@@ -7141,8 +6786,6 @@
       <c r="U220" s="4"/>
       <c r="V220" s="4"/>
       <c r="W220" s="4"/>
-      <c r="X220" s="4"/>
-      <c r="Y220" s="4"/>
     </row>
     <row r="221">
       <c r="A221" s="4"/>
@@ -7168,8 +6811,6 @@
       <c r="U221" s="4"/>
       <c r="V221" s="4"/>
       <c r="W221" s="4"/>
-      <c r="X221" s="4"/>
-      <c r="Y221" s="4"/>
     </row>
     <row r="222">
       <c r="A222" s="4"/>
@@ -7195,8 +6836,6 @@
       <c r="U222" s="4"/>
       <c r="V222" s="4"/>
       <c r="W222" s="4"/>
-      <c r="X222" s="4"/>
-      <c r="Y222" s="4"/>
     </row>
     <row r="223">
       <c r="A223" s="4"/>
@@ -7222,8 +6861,6 @@
       <c r="U223" s="4"/>
       <c r="V223" s="4"/>
       <c r="W223" s="4"/>
-      <c r="X223" s="4"/>
-      <c r="Y223" s="4"/>
     </row>
     <row r="224">
       <c r="A224" s="4"/>
@@ -7249,8 +6886,6 @@
       <c r="U224" s="4"/>
       <c r="V224" s="4"/>
       <c r="W224" s="4"/>
-      <c r="X224" s="4"/>
-      <c r="Y224" s="4"/>
     </row>
     <row r="225">
       <c r="A225" s="4"/>
@@ -7276,8 +6911,6 @@
       <c r="U225" s="4"/>
       <c r="V225" s="4"/>
       <c r="W225" s="4"/>
-      <c r="X225" s="4"/>
-      <c r="Y225" s="4"/>
     </row>
     <row r="226">
       <c r="A226" s="4"/>
@@ -7303,8 +6936,6 @@
       <c r="U226" s="4"/>
       <c r="V226" s="4"/>
       <c r="W226" s="4"/>
-      <c r="X226" s="4"/>
-      <c r="Y226" s="4"/>
     </row>
     <row r="227">
       <c r="A227" s="4"/>
@@ -7330,8 +6961,6 @@
       <c r="U227" s="4"/>
       <c r="V227" s="4"/>
       <c r="W227" s="4"/>
-      <c r="X227" s="4"/>
-      <c r="Y227" s="4"/>
     </row>
     <row r="228">
       <c r="A228" s="4"/>
@@ -7357,8 +6986,6 @@
       <c r="U228" s="4"/>
       <c r="V228" s="4"/>
       <c r="W228" s="4"/>
-      <c r="X228" s="4"/>
-      <c r="Y228" s="4"/>
     </row>
     <row r="229">
       <c r="A229" s="4"/>
@@ -7384,8 +7011,6 @@
       <c r="U229" s="4"/>
       <c r="V229" s="4"/>
       <c r="W229" s="4"/>
-      <c r="X229" s="4"/>
-      <c r="Y229" s="4"/>
     </row>
     <row r="230">
       <c r="A230" s="4"/>
@@ -7411,8 +7036,6 @@
       <c r="U230" s="4"/>
       <c r="V230" s="4"/>
       <c r="W230" s="4"/>
-      <c r="X230" s="4"/>
-      <c r="Y230" s="4"/>
     </row>
     <row r="231">
       <c r="A231" s="4"/>
@@ -7438,8 +7061,6 @@
       <c r="U231" s="4"/>
       <c r="V231" s="4"/>
       <c r="W231" s="4"/>
-      <c r="X231" s="4"/>
-      <c r="Y231" s="4"/>
     </row>
     <row r="232">
       <c r="A232" s="4"/>
@@ -7465,8 +7086,6 @@
       <c r="U232" s="4"/>
       <c r="V232" s="4"/>
       <c r="W232" s="4"/>
-      <c r="X232" s="4"/>
-      <c r="Y232" s="4"/>
     </row>
     <row r="233">
       <c r="A233" s="4"/>
@@ -7492,8 +7111,6 @@
       <c r="U233" s="4"/>
       <c r="V233" s="4"/>
       <c r="W233" s="4"/>
-      <c r="X233" s="4"/>
-      <c r="Y233" s="4"/>
     </row>
     <row r="234">
       <c r="A234" s="4"/>
@@ -7519,8 +7136,6 @@
       <c r="U234" s="4"/>
       <c r="V234" s="4"/>
       <c r="W234" s="4"/>
-      <c r="X234" s="4"/>
-      <c r="Y234" s="4"/>
     </row>
     <row r="235">
       <c r="A235" s="4"/>
@@ -7546,8 +7161,6 @@
       <c r="U235" s="4"/>
       <c r="V235" s="4"/>
       <c r="W235" s="4"/>
-      <c r="X235" s="4"/>
-      <c r="Y235" s="4"/>
     </row>
     <row r="236">
       <c r="A236" s="4"/>
@@ -7573,8 +7186,6 @@
       <c r="U236" s="4"/>
       <c r="V236" s="4"/>
       <c r="W236" s="4"/>
-      <c r="X236" s="4"/>
-      <c r="Y236" s="4"/>
     </row>
     <row r="237">
       <c r="A237" s="4"/>
@@ -7600,8 +7211,6 @@
       <c r="U237" s="4"/>
       <c r="V237" s="4"/>
       <c r="W237" s="4"/>
-      <c r="X237" s="4"/>
-      <c r="Y237" s="4"/>
     </row>
     <row r="238">
       <c r="A238" s="4"/>
@@ -7627,8 +7236,6 @@
       <c r="U238" s="4"/>
       <c r="V238" s="4"/>
       <c r="W238" s="4"/>
-      <c r="X238" s="4"/>
-      <c r="Y238" s="4"/>
     </row>
     <row r="239">
       <c r="A239" s="4"/>
@@ -7654,8 +7261,6 @@
       <c r="U239" s="4"/>
       <c r="V239" s="4"/>
       <c r="W239" s="4"/>
-      <c r="X239" s="4"/>
-      <c r="Y239" s="4"/>
     </row>
     <row r="240">
       <c r="A240" s="4"/>
@@ -7681,8 +7286,6 @@
       <c r="U240" s="4"/>
       <c r="V240" s="4"/>
       <c r="W240" s="4"/>
-      <c r="X240" s="4"/>
-      <c r="Y240" s="4"/>
     </row>
     <row r="241">
       <c r="A241" s="4"/>
@@ -7708,8 +7311,6 @@
       <c r="U241" s="4"/>
       <c r="V241" s="4"/>
       <c r="W241" s="4"/>
-      <c r="X241" s="4"/>
-      <c r="Y241" s="4"/>
     </row>
     <row r="242">
       <c r="A242" s="4"/>
@@ -7735,8 +7336,6 @@
       <c r="U242" s="4"/>
       <c r="V242" s="4"/>
       <c r="W242" s="4"/>
-      <c r="X242" s="4"/>
-      <c r="Y242" s="4"/>
     </row>
     <row r="243">
       <c r="A243" s="4"/>
@@ -7762,8 +7361,6 @@
       <c r="U243" s="4"/>
       <c r="V243" s="4"/>
       <c r="W243" s="4"/>
-      <c r="X243" s="4"/>
-      <c r="Y243" s="4"/>
     </row>
     <row r="244">
       <c r="A244" s="4"/>
@@ -7789,8 +7386,6 @@
       <c r="U244" s="4"/>
       <c r="V244" s="4"/>
       <c r="W244" s="4"/>
-      <c r="X244" s="4"/>
-      <c r="Y244" s="4"/>
     </row>
     <row r="245">
       <c r="A245" s="4"/>
@@ -7816,8 +7411,6 @@
       <c r="U245" s="4"/>
       <c r="V245" s="4"/>
       <c r="W245" s="4"/>
-      <c r="X245" s="4"/>
-      <c r="Y245" s="4"/>
     </row>
     <row r="246">
       <c r="A246" s="4"/>
@@ -7843,8 +7436,6 @@
       <c r="U246" s="4"/>
       <c r="V246" s="4"/>
       <c r="W246" s="4"/>
-      <c r="X246" s="4"/>
-      <c r="Y246" s="4"/>
     </row>
     <row r="247">
       <c r="A247" s="4"/>
@@ -7870,8 +7461,6 @@
       <c r="U247" s="4"/>
       <c r="V247" s="4"/>
       <c r="W247" s="4"/>
-      <c r="X247" s="4"/>
-      <c r="Y247" s="4"/>
     </row>
     <row r="248">
       <c r="A248" s="4"/>
@@ -7897,8 +7486,6 @@
       <c r="U248" s="4"/>
       <c r="V248" s="4"/>
       <c r="W248" s="4"/>
-      <c r="X248" s="4"/>
-      <c r="Y248" s="4"/>
     </row>
     <row r="249">
       <c r="A249" s="4"/>
@@ -7924,8 +7511,6 @@
       <c r="U249" s="4"/>
       <c r="V249" s="4"/>
       <c r="W249" s="4"/>
-      <c r="X249" s="4"/>
-      <c r="Y249" s="4"/>
     </row>
     <row r="250">
       <c r="A250" s="4"/>
@@ -7951,8 +7536,6 @@
       <c r="U250" s="4"/>
       <c r="V250" s="4"/>
       <c r="W250" s="4"/>
-      <c r="X250" s="4"/>
-      <c r="Y250" s="4"/>
     </row>
     <row r="251">
       <c r="A251" s="4"/>
@@ -7978,8 +7561,6 @@
       <c r="U251" s="4"/>
       <c r="V251" s="4"/>
       <c r="W251" s="4"/>
-      <c r="X251" s="4"/>
-      <c r="Y251" s="4"/>
     </row>
     <row r="252">
       <c r="A252" s="4"/>
@@ -8005,8 +7586,6 @@
       <c r="U252" s="4"/>
       <c r="V252" s="4"/>
       <c r="W252" s="4"/>
-      <c r="X252" s="4"/>
-      <c r="Y252" s="4"/>
     </row>
     <row r="253">
       <c r="A253" s="4"/>
@@ -8032,8 +7611,6 @@
       <c r="U253" s="4"/>
       <c r="V253" s="4"/>
       <c r="W253" s="4"/>
-      <c r="X253" s="4"/>
-      <c r="Y253" s="4"/>
     </row>
     <row r="254">
       <c r="A254" s="4"/>
@@ -8059,8 +7636,6 @@
       <c r="U254" s="4"/>
       <c r="V254" s="4"/>
       <c r="W254" s="4"/>
-      <c r="X254" s="4"/>
-      <c r="Y254" s="4"/>
     </row>
     <row r="255">
       <c r="A255" s="4"/>
@@ -8086,8 +7661,6 @@
       <c r="U255" s="4"/>
       <c r="V255" s="4"/>
       <c r="W255" s="4"/>
-      <c r="X255" s="4"/>
-      <c r="Y255" s="4"/>
     </row>
     <row r="256">
       <c r="A256" s="4"/>
@@ -8113,8 +7686,6 @@
       <c r="U256" s="4"/>
       <c r="V256" s="4"/>
       <c r="W256" s="4"/>
-      <c r="X256" s="4"/>
-      <c r="Y256" s="4"/>
     </row>
     <row r="257">
       <c r="A257" s="4"/>
@@ -8140,8 +7711,6 @@
       <c r="U257" s="4"/>
       <c r="V257" s="4"/>
       <c r="W257" s="4"/>
-      <c r="X257" s="4"/>
-      <c r="Y257" s="4"/>
     </row>
     <row r="258">
       <c r="A258" s="4"/>
@@ -8167,8 +7736,6 @@
       <c r="U258" s="4"/>
       <c r="V258" s="4"/>
       <c r="W258" s="4"/>
-      <c r="X258" s="4"/>
-      <c r="Y258" s="4"/>
     </row>
     <row r="259">
       <c r="A259" s="4"/>
@@ -8194,8 +7761,6 @@
       <c r="U259" s="4"/>
       <c r="V259" s="4"/>
       <c r="W259" s="4"/>
-      <c r="X259" s="4"/>
-      <c r="Y259" s="4"/>
     </row>
     <row r="260">
       <c r="A260" s="4"/>
@@ -8221,8 +7786,6 @@
       <c r="U260" s="4"/>
       <c r="V260" s="4"/>
       <c r="W260" s="4"/>
-      <c r="X260" s="4"/>
-      <c r="Y260" s="4"/>
     </row>
     <row r="261">
       <c r="A261" s="4"/>
@@ -8248,8 +7811,6 @@
       <c r="U261" s="4"/>
       <c r="V261" s="4"/>
       <c r="W261" s="4"/>
-      <c r="X261" s="4"/>
-      <c r="Y261" s="4"/>
     </row>
     <row r="262">
       <c r="A262" s="4"/>
@@ -8275,8 +7836,6 @@
       <c r="U262" s="4"/>
       <c r="V262" s="4"/>
       <c r="W262" s="4"/>
-      <c r="X262" s="4"/>
-      <c r="Y262" s="4"/>
     </row>
     <row r="263">
       <c r="A263" s="4"/>
@@ -8302,8 +7861,6 @@
       <c r="U263" s="4"/>
       <c r="V263" s="4"/>
       <c r="W263" s="4"/>
-      <c r="X263" s="4"/>
-      <c r="Y263" s="4"/>
     </row>
     <row r="264">
       <c r="A264" s="4"/>
@@ -8329,8 +7886,6 @@
       <c r="U264" s="4"/>
       <c r="V264" s="4"/>
       <c r="W264" s="4"/>
-      <c r="X264" s="4"/>
-      <c r="Y264" s="4"/>
     </row>
     <row r="265">
       <c r="A265" s="4"/>
@@ -8356,8 +7911,6 @@
       <c r="U265" s="4"/>
       <c r="V265" s="4"/>
       <c r="W265" s="4"/>
-      <c r="X265" s="4"/>
-      <c r="Y265" s="4"/>
     </row>
     <row r="266">
       <c r="A266" s="4"/>
@@ -8383,8 +7936,6 @@
       <c r="U266" s="4"/>
       <c r="V266" s="4"/>
       <c r="W266" s="4"/>
-      <c r="X266" s="4"/>
-      <c r="Y266" s="4"/>
     </row>
     <row r="267">
       <c r="A267" s="4"/>
@@ -8410,8 +7961,6 @@
       <c r="U267" s="4"/>
       <c r="V267" s="4"/>
       <c r="W267" s="4"/>
-      <c r="X267" s="4"/>
-      <c r="Y267" s="4"/>
     </row>
     <row r="268">
       <c r="A268" s="4"/>
@@ -8437,8 +7986,6 @@
       <c r="U268" s="4"/>
       <c r="V268" s="4"/>
       <c r="W268" s="4"/>
-      <c r="X268" s="4"/>
-      <c r="Y268" s="4"/>
     </row>
     <row r="269">
       <c r="A269" s="4"/>
@@ -8464,8 +8011,6 @@
       <c r="U269" s="4"/>
       <c r="V269" s="4"/>
       <c r="W269" s="4"/>
-      <c r="X269" s="4"/>
-      <c r="Y269" s="4"/>
     </row>
     <row r="270">
       <c r="A270" s="4"/>
@@ -8491,8 +8036,6 @@
       <c r="U270" s="4"/>
       <c r="V270" s="4"/>
       <c r="W270" s="4"/>
-      <c r="X270" s="4"/>
-      <c r="Y270" s="4"/>
     </row>
     <row r="271">
       <c r="A271" s="4"/>
@@ -8518,8 +8061,6 @@
       <c r="U271" s="4"/>
       <c r="V271" s="4"/>
       <c r="W271" s="4"/>
-      <c r="X271" s="4"/>
-      <c r="Y271" s="4"/>
     </row>
     <row r="272">
       <c r="A272" s="4"/>
@@ -8545,8 +8086,6 @@
       <c r="U272" s="4"/>
       <c r="V272" s="4"/>
       <c r="W272" s="4"/>
-      <c r="X272" s="4"/>
-      <c r="Y272" s="4"/>
     </row>
     <row r="273">
       <c r="A273" s="4"/>
@@ -8572,8 +8111,6 @@
       <c r="U273" s="4"/>
       <c r="V273" s="4"/>
       <c r="W273" s="4"/>
-      <c r="X273" s="4"/>
-      <c r="Y273" s="4"/>
     </row>
     <row r="274">
       <c r="A274" s="4"/>
@@ -8599,8 +8136,6 @@
       <c r="U274" s="4"/>
       <c r="V274" s="4"/>
       <c r="W274" s="4"/>
-      <c r="X274" s="4"/>
-      <c r="Y274" s="4"/>
     </row>
     <row r="275">
       <c r="A275" s="4"/>
@@ -8626,8 +8161,6 @@
       <c r="U275" s="4"/>
       <c r="V275" s="4"/>
       <c r="W275" s="4"/>
-      <c r="X275" s="4"/>
-      <c r="Y275" s="4"/>
     </row>
     <row r="276">
       <c r="A276" s="4"/>
@@ -8653,8 +8186,6 @@
       <c r="U276" s="4"/>
       <c r="V276" s="4"/>
       <c r="W276" s="4"/>
-      <c r="X276" s="4"/>
-      <c r="Y276" s="4"/>
     </row>
     <row r="277">
       <c r="A277" s="4"/>
@@ -8680,8 +8211,6 @@
       <c r="U277" s="4"/>
       <c r="V277" s="4"/>
       <c r="W277" s="4"/>
-      <c r="X277" s="4"/>
-      <c r="Y277" s="4"/>
     </row>
     <row r="278">
       <c r="A278" s="4"/>
@@ -8707,8 +8236,6 @@
       <c r="U278" s="4"/>
       <c r="V278" s="4"/>
       <c r="W278" s="4"/>
-      <c r="X278" s="4"/>
-      <c r="Y278" s="4"/>
     </row>
     <row r="279">
       <c r="A279" s="4"/>
@@ -8734,8 +8261,6 @@
       <c r="U279" s="4"/>
       <c r="V279" s="4"/>
       <c r="W279" s="4"/>
-      <c r="X279" s="4"/>
-      <c r="Y279" s="4"/>
     </row>
     <row r="280">
       <c r="A280" s="4"/>
@@ -8761,8 +8286,6 @@
       <c r="U280" s="4"/>
       <c r="V280" s="4"/>
       <c r="W280" s="4"/>
-      <c r="X280" s="4"/>
-      <c r="Y280" s="4"/>
     </row>
     <row r="281">
       <c r="A281" s="4"/>
@@ -8788,8 +8311,6 @@
       <c r="U281" s="4"/>
       <c r="V281" s="4"/>
       <c r="W281" s="4"/>
-      <c r="X281" s="4"/>
-      <c r="Y281" s="4"/>
     </row>
     <row r="282">
       <c r="A282" s="4"/>
@@ -8815,8 +8336,6 @@
       <c r="U282" s="4"/>
       <c r="V282" s="4"/>
       <c r="W282" s="4"/>
-      <c r="X282" s="4"/>
-      <c r="Y282" s="4"/>
     </row>
     <row r="283">
       <c r="A283" s="4"/>
@@ -8842,8 +8361,6 @@
       <c r="U283" s="4"/>
       <c r="V283" s="4"/>
       <c r="W283" s="4"/>
-      <c r="X283" s="4"/>
-      <c r="Y283" s="4"/>
     </row>
     <row r="284">
       <c r="A284" s="4"/>
@@ -8869,8 +8386,6 @@
       <c r="U284" s="4"/>
       <c r="V284" s="4"/>
       <c r="W284" s="4"/>
-      <c r="X284" s="4"/>
-      <c r="Y284" s="4"/>
     </row>
     <row r="285">
       <c r="A285" s="4"/>
@@ -8896,8 +8411,6 @@
       <c r="U285" s="4"/>
       <c r="V285" s="4"/>
       <c r="W285" s="4"/>
-      <c r="X285" s="4"/>
-      <c r="Y285" s="4"/>
     </row>
     <row r="286">
       <c r="A286" s="4"/>
@@ -8923,8 +8436,6 @@
       <c r="U286" s="4"/>
       <c r="V286" s="4"/>
       <c r="W286" s="4"/>
-      <c r="X286" s="4"/>
-      <c r="Y286" s="4"/>
     </row>
     <row r="287">
       <c r="A287" s="4"/>
@@ -8950,8 +8461,6 @@
       <c r="U287" s="4"/>
       <c r="V287" s="4"/>
       <c r="W287" s="4"/>
-      <c r="X287" s="4"/>
-      <c r="Y287" s="4"/>
     </row>
     <row r="288">
       <c r="A288" s="4"/>
@@ -8977,8 +8486,6 @@
       <c r="U288" s="4"/>
       <c r="V288" s="4"/>
       <c r="W288" s="4"/>
-      <c r="X288" s="4"/>
-      <c r="Y288" s="4"/>
     </row>
     <row r="289">
       <c r="A289" s="4"/>
@@ -9004,8 +8511,6 @@
       <c r="U289" s="4"/>
       <c r="V289" s="4"/>
       <c r="W289" s="4"/>
-      <c r="X289" s="4"/>
-      <c r="Y289" s="4"/>
     </row>
     <row r="290">
       <c r="A290" s="4"/>
@@ -9031,8 +8536,6 @@
       <c r="U290" s="4"/>
       <c r="V290" s="4"/>
       <c r="W290" s="4"/>
-      <c r="X290" s="4"/>
-      <c r="Y290" s="4"/>
     </row>
     <row r="291">
       <c r="A291" s="4"/>
@@ -9058,8 +8561,6 @@
       <c r="U291" s="4"/>
       <c r="V291" s="4"/>
       <c r="W291" s="4"/>
-      <c r="X291" s="4"/>
-      <c r="Y291" s="4"/>
     </row>
     <row r="292">
       <c r="A292" s="4"/>
@@ -9085,8 +8586,6 @@
       <c r="U292" s="4"/>
       <c r="V292" s="4"/>
       <c r="W292" s="4"/>
-      <c r="X292" s="4"/>
-      <c r="Y292" s="4"/>
     </row>
     <row r="293">
       <c r="A293" s="4"/>
@@ -9112,8 +8611,6 @@
       <c r="U293" s="4"/>
       <c r="V293" s="4"/>
       <c r="W293" s="4"/>
-      <c r="X293" s="4"/>
-      <c r="Y293" s="4"/>
     </row>
     <row r="294">
       <c r="A294" s="4"/>
@@ -9139,8 +8636,6 @@
       <c r="U294" s="4"/>
       <c r="V294" s="4"/>
       <c r="W294" s="4"/>
-      <c r="X294" s="4"/>
-      <c r="Y294" s="4"/>
     </row>
     <row r="295">
       <c r="A295" s="4"/>
@@ -9166,8 +8661,6 @@
       <c r="U295" s="4"/>
       <c r="V295" s="4"/>
       <c r="W295" s="4"/>
-      <c r="X295" s="4"/>
-      <c r="Y295" s="4"/>
     </row>
     <row r="296">
       <c r="A296" s="4"/>
@@ -9193,8 +8686,6 @@
       <c r="U296" s="4"/>
       <c r="V296" s="4"/>
       <c r="W296" s="4"/>
-      <c r="X296" s="4"/>
-      <c r="Y296" s="4"/>
     </row>
     <row r="297">
       <c r="A297" s="4"/>
@@ -9220,8 +8711,6 @@
       <c r="U297" s="4"/>
       <c r="V297" s="4"/>
       <c r="W297" s="4"/>
-      <c r="X297" s="4"/>
-      <c r="Y297" s="4"/>
     </row>
     <row r="298">
       <c r="A298" s="4"/>
@@ -9247,8 +8736,6 @@
       <c r="U298" s="4"/>
       <c r="V298" s="4"/>
       <c r="W298" s="4"/>
-      <c r="X298" s="4"/>
-      <c r="Y298" s="4"/>
     </row>
     <row r="299">
       <c r="A299" s="4"/>
@@ -9274,8 +8761,6 @@
       <c r="U299" s="4"/>
       <c r="V299" s="4"/>
       <c r="W299" s="4"/>
-      <c r="X299" s="4"/>
-      <c r="Y299" s="4"/>
     </row>
     <row r="300">
       <c r="A300" s="4"/>
@@ -9301,8 +8786,6 @@
       <c r="U300" s="4"/>
       <c r="V300" s="4"/>
       <c r="W300" s="4"/>
-      <c r="X300" s="4"/>
-      <c r="Y300" s="4"/>
     </row>
     <row r="301">
       <c r="A301" s="4"/>
@@ -9328,8 +8811,6 @@
       <c r="U301" s="4"/>
       <c r="V301" s="4"/>
       <c r="W301" s="4"/>
-      <c r="X301" s="4"/>
-      <c r="Y301" s="4"/>
     </row>
     <row r="302">
       <c r="A302" s="4"/>
@@ -9355,8 +8836,6 @@
       <c r="U302" s="4"/>
       <c r="V302" s="4"/>
       <c r="W302" s="4"/>
-      <c r="X302" s="4"/>
-      <c r="Y302" s="4"/>
     </row>
     <row r="303">
       <c r="A303" s="4"/>
@@ -9382,8 +8861,6 @@
       <c r="U303" s="4"/>
       <c r="V303" s="4"/>
       <c r="W303" s="4"/>
-      <c r="X303" s="4"/>
-      <c r="Y303" s="4"/>
     </row>
     <row r="304">
       <c r="A304" s="4"/>
@@ -9409,8 +8886,6 @@
       <c r="U304" s="4"/>
       <c r="V304" s="4"/>
       <c r="W304" s="4"/>
-      <c r="X304" s="4"/>
-      <c r="Y304" s="4"/>
     </row>
     <row r="305">
       <c r="A305" s="4"/>
@@ -9436,8 +8911,6 @@
       <c r="U305" s="4"/>
       <c r="V305" s="4"/>
       <c r="W305" s="4"/>
-      <c r="X305" s="4"/>
-      <c r="Y305" s="4"/>
     </row>
     <row r="306">
       <c r="A306" s="4"/>
@@ -9463,8 +8936,6 @@
       <c r="U306" s="4"/>
       <c r="V306" s="4"/>
       <c r="W306" s="4"/>
-      <c r="X306" s="4"/>
-      <c r="Y306" s="4"/>
     </row>
     <row r="307">
       <c r="A307" s="4"/>
@@ -9490,8 +8961,6 @@
       <c r="U307" s="4"/>
       <c r="V307" s="4"/>
       <c r="W307" s="4"/>
-      <c r="X307" s="4"/>
-      <c r="Y307" s="4"/>
     </row>
     <row r="308">
       <c r="A308" s="4"/>
@@ -9517,8 +8986,6 @@
       <c r="U308" s="4"/>
       <c r="V308" s="4"/>
       <c r="W308" s="4"/>
-      <c r="X308" s="4"/>
-      <c r="Y308" s="4"/>
     </row>
     <row r="309">
       <c r="A309" s="4"/>
@@ -9544,8 +9011,6 @@
       <c r="U309" s="4"/>
       <c r="V309" s="4"/>
       <c r="W309" s="4"/>
-      <c r="X309" s="4"/>
-      <c r="Y309" s="4"/>
     </row>
     <row r="310">
       <c r="A310" s="4"/>
@@ -9571,8 +9036,6 @@
       <c r="U310" s="4"/>
       <c r="V310" s="4"/>
       <c r="W310" s="4"/>
-      <c r="X310" s="4"/>
-      <c r="Y310" s="4"/>
     </row>
     <row r="311">
       <c r="A311" s="4"/>
@@ -9598,8 +9061,6 @@
       <c r="U311" s="4"/>
       <c r="V311" s="4"/>
       <c r="W311" s="4"/>
-      <c r="X311" s="4"/>
-      <c r="Y311" s="4"/>
     </row>
     <row r="312">
       <c r="A312" s="4"/>
@@ -9625,8 +9086,6 @@
       <c r="U312" s="4"/>
       <c r="V312" s="4"/>
       <c r="W312" s="4"/>
-      <c r="X312" s="4"/>
-      <c r="Y312" s="4"/>
     </row>
     <row r="313">
       <c r="A313" s="4"/>
@@ -9652,8 +9111,6 @@
       <c r="U313" s="4"/>
       <c r="V313" s="4"/>
       <c r="W313" s="4"/>
-      <c r="X313" s="4"/>
-      <c r="Y313" s="4"/>
     </row>
     <row r="314">
       <c r="A314" s="4"/>
@@ -9679,8 +9136,6 @@
       <c r="U314" s="4"/>
       <c r="V314" s="4"/>
       <c r="W314" s="4"/>
-      <c r="X314" s="4"/>
-      <c r="Y314" s="4"/>
     </row>
     <row r="315">
       <c r="A315" s="4"/>
@@ -9706,8 +9161,6 @@
       <c r="U315" s="4"/>
       <c r="V315" s="4"/>
       <c r="W315" s="4"/>
-      <c r="X315" s="4"/>
-      <c r="Y315" s="4"/>
     </row>
     <row r="316">
       <c r="A316" s="4"/>
@@ -9733,8 +9186,6 @@
       <c r="U316" s="4"/>
       <c r="V316" s="4"/>
       <c r="W316" s="4"/>
-      <c r="X316" s="4"/>
-      <c r="Y316" s="4"/>
     </row>
     <row r="317">
       <c r="A317" s="4"/>
@@ -9760,8 +9211,6 @@
       <c r="U317" s="4"/>
       <c r="V317" s="4"/>
       <c r="W317" s="4"/>
-      <c r="X317" s="4"/>
-      <c r="Y317" s="4"/>
     </row>
     <row r="318">
       <c r="A318" s="4"/>
@@ -9787,8 +9236,6 @@
       <c r="U318" s="4"/>
       <c r="V318" s="4"/>
       <c r="W318" s="4"/>
-      <c r="X318" s="4"/>
-      <c r="Y318" s="4"/>
     </row>
     <row r="319">
       <c r="A319" s="4"/>
@@ -9814,8 +9261,6 @@
       <c r="U319" s="4"/>
       <c r="V319" s="4"/>
       <c r="W319" s="4"/>
-      <c r="X319" s="4"/>
-      <c r="Y319" s="4"/>
     </row>
     <row r="320">
       <c r="A320" s="4"/>
@@ -9841,8 +9286,6 @@
       <c r="U320" s="4"/>
       <c r="V320" s="4"/>
       <c r="W320" s="4"/>
-      <c r="X320" s="4"/>
-      <c r="Y320" s="4"/>
     </row>
     <row r="321">
       <c r="A321" s="4"/>
@@ -9868,8 +9311,6 @@
       <c r="U321" s="4"/>
       <c r="V321" s="4"/>
       <c r="W321" s="4"/>
-      <c r="X321" s="4"/>
-      <c r="Y321" s="4"/>
     </row>
     <row r="322">
       <c r="A322" s="4"/>
@@ -9895,8 +9336,6 @@
       <c r="U322" s="4"/>
       <c r="V322" s="4"/>
       <c r="W322" s="4"/>
-      <c r="X322" s="4"/>
-      <c r="Y322" s="4"/>
     </row>
     <row r="323">
       <c r="A323" s="4"/>
@@ -9922,8 +9361,6 @@
       <c r="U323" s="4"/>
       <c r="V323" s="4"/>
       <c r="W323" s="4"/>
-      <c r="X323" s="4"/>
-      <c r="Y323" s="4"/>
     </row>
     <row r="324">
       <c r="A324" s="4"/>
@@ -9949,8 +9386,6 @@
       <c r="U324" s="4"/>
       <c r="V324" s="4"/>
       <c r="W324" s="4"/>
-      <c r="X324" s="4"/>
-      <c r="Y324" s="4"/>
     </row>
     <row r="325">
       <c r="A325" s="4"/>
@@ -9976,8 +9411,6 @@
       <c r="U325" s="4"/>
       <c r="V325" s="4"/>
       <c r="W325" s="4"/>
-      <c r="X325" s="4"/>
-      <c r="Y325" s="4"/>
     </row>
     <row r="326">
       <c r="A326" s="4"/>
@@ -10003,8 +9436,6 @@
       <c r="U326" s="4"/>
       <c r="V326" s="4"/>
       <c r="W326" s="4"/>
-      <c r="X326" s="4"/>
-      <c r="Y326" s="4"/>
     </row>
     <row r="327">
       <c r="A327" s="4"/>
@@ -10030,8 +9461,6 @@
       <c r="U327" s="4"/>
       <c r="V327" s="4"/>
       <c r="W327" s="4"/>
-      <c r="X327" s="4"/>
-      <c r="Y327" s="4"/>
     </row>
     <row r="328">
       <c r="A328" s="4"/>
@@ -10057,8 +9486,6 @@
       <c r="U328" s="4"/>
       <c r="V328" s="4"/>
       <c r="W328" s="4"/>
-      <c r="X328" s="4"/>
-      <c r="Y328" s="4"/>
     </row>
     <row r="329">
       <c r="A329" s="4"/>
@@ -10084,8 +9511,6 @@
       <c r="U329" s="4"/>
       <c r="V329" s="4"/>
       <c r="W329" s="4"/>
-      <c r="X329" s="4"/>
-      <c r="Y329" s="4"/>
     </row>
     <row r="330">
       <c r="A330" s="4"/>
@@ -10111,8 +9536,6 @@
       <c r="U330" s="4"/>
       <c r="V330" s="4"/>
       <c r="W330" s="4"/>
-      <c r="X330" s="4"/>
-      <c r="Y330" s="4"/>
     </row>
     <row r="331">
       <c r="A331" s="4"/>
@@ -10138,8 +9561,6 @@
       <c r="U331" s="4"/>
       <c r="V331" s="4"/>
       <c r="W331" s="4"/>
-      <c r="X331" s="4"/>
-      <c r="Y331" s="4"/>
     </row>
     <row r="332">
       <c r="A332" s="4"/>
@@ -10165,8 +9586,6 @@
       <c r="U332" s="4"/>
       <c r="V332" s="4"/>
       <c r="W332" s="4"/>
-      <c r="X332" s="4"/>
-      <c r="Y332" s="4"/>
     </row>
     <row r="333">
       <c r="A333" s="4"/>
@@ -10192,8 +9611,6 @@
       <c r="U333" s="4"/>
       <c r="V333" s="4"/>
       <c r="W333" s="4"/>
-      <c r="X333" s="4"/>
-      <c r="Y333" s="4"/>
     </row>
     <row r="334">
       <c r="A334" s="4"/>
@@ -10219,8 +9636,6 @@
       <c r="U334" s="4"/>
       <c r="V334" s="4"/>
       <c r="W334" s="4"/>
-      <c r="X334" s="4"/>
-      <c r="Y334" s="4"/>
     </row>
     <row r="335">
       <c r="A335" s="4"/>
@@ -10246,8 +9661,6 @@
       <c r="U335" s="4"/>
       <c r="V335" s="4"/>
       <c r="W335" s="4"/>
-      <c r="X335" s="4"/>
-      <c r="Y335" s="4"/>
     </row>
     <row r="336">
       <c r="A336" s="4"/>
@@ -10273,8 +9686,6 @@
       <c r="U336" s="4"/>
       <c r="V336" s="4"/>
       <c r="W336" s="4"/>
-      <c r="X336" s="4"/>
-      <c r="Y336" s="4"/>
     </row>
     <row r="337">
       <c r="A337" s="4"/>
@@ -10300,8 +9711,6 @@
       <c r="U337" s="4"/>
       <c r="V337" s="4"/>
       <c r="W337" s="4"/>
-      <c r="X337" s="4"/>
-      <c r="Y337" s="4"/>
     </row>
     <row r="338">
       <c r="A338" s="4"/>
@@ -10327,8 +9736,6 @@
       <c r="U338" s="4"/>
       <c r="V338" s="4"/>
       <c r="W338" s="4"/>
-      <c r="X338" s="4"/>
-      <c r="Y338" s="4"/>
     </row>
     <row r="339">
       <c r="A339" s="4"/>
@@ -10354,8 +9761,6 @@
       <c r="U339" s="4"/>
       <c r="V339" s="4"/>
       <c r="W339" s="4"/>
-      <c r="X339" s="4"/>
-      <c r="Y339" s="4"/>
     </row>
     <row r="340">
       <c r="A340" s="4"/>
@@ -10381,8 +9786,6 @@
       <c r="U340" s="4"/>
       <c r="V340" s="4"/>
       <c r="W340" s="4"/>
-      <c r="X340" s="4"/>
-      <c r="Y340" s="4"/>
     </row>
     <row r="341">
       <c r="A341" s="4"/>
@@ -10408,8 +9811,6 @@
       <c r="U341" s="4"/>
       <c r="V341" s="4"/>
       <c r="W341" s="4"/>
-      <c r="X341" s="4"/>
-      <c r="Y341" s="4"/>
     </row>
     <row r="342">
       <c r="A342" s="4"/>
@@ -10435,8 +9836,6 @@
       <c r="U342" s="4"/>
       <c r="V342" s="4"/>
       <c r="W342" s="4"/>
-      <c r="X342" s="4"/>
-      <c r="Y342" s="4"/>
     </row>
     <row r="343">
       <c r="A343" s="4"/>
@@ -10462,8 +9861,6 @@
       <c r="U343" s="4"/>
       <c r="V343" s="4"/>
       <c r="W343" s="4"/>
-      <c r="X343" s="4"/>
-      <c r="Y343" s="4"/>
     </row>
     <row r="344">
       <c r="A344" s="4"/>
@@ -10489,8 +9886,6 @@
       <c r="U344" s="4"/>
       <c r="V344" s="4"/>
       <c r="W344" s="4"/>
-      <c r="X344" s="4"/>
-      <c r="Y344" s="4"/>
     </row>
     <row r="345">
       <c r="A345" s="4"/>
@@ -10516,8 +9911,6 @@
       <c r="U345" s="4"/>
       <c r="V345" s="4"/>
       <c r="W345" s="4"/>
-      <c r="X345" s="4"/>
-      <c r="Y345" s="4"/>
     </row>
     <row r="346">
       <c r="A346" s="4"/>
@@ -10543,8 +9936,6 @@
       <c r="U346" s="4"/>
       <c r="V346" s="4"/>
       <c r="W346" s="4"/>
-      <c r="X346" s="4"/>
-      <c r="Y346" s="4"/>
     </row>
     <row r="347">
       <c r="A347" s="4"/>
@@ -10570,8 +9961,6 @@
       <c r="U347" s="4"/>
       <c r="V347" s="4"/>
       <c r="W347" s="4"/>
-      <c r="X347" s="4"/>
-      <c r="Y347" s="4"/>
     </row>
     <row r="348">
       <c r="A348" s="4"/>
@@ -10597,8 +9986,6 @@
       <c r="U348" s="4"/>
       <c r="V348" s="4"/>
       <c r="W348" s="4"/>
-      <c r="X348" s="4"/>
-      <c r="Y348" s="4"/>
     </row>
     <row r="349">
       <c r="A349" s="4"/>
@@ -10624,8 +10011,6 @@
       <c r="U349" s="4"/>
       <c r="V349" s="4"/>
       <c r="W349" s="4"/>
-      <c r="X349" s="4"/>
-      <c r="Y349" s="4"/>
     </row>
     <row r="350">
       <c r="A350" s="4"/>
@@ -10651,8 +10036,6 @@
       <c r="U350" s="4"/>
       <c r="V350" s="4"/>
       <c r="W350" s="4"/>
-      <c r="X350" s="4"/>
-      <c r="Y350" s="4"/>
     </row>
     <row r="351">
       <c r="A351" s="4"/>
@@ -10678,8 +10061,6 @@
       <c r="U351" s="4"/>
       <c r="V351" s="4"/>
       <c r="W351" s="4"/>
-      <c r="X351" s="4"/>
-      <c r="Y351" s="4"/>
     </row>
     <row r="352">
       <c r="A352" s="4"/>
@@ -10705,8 +10086,6 @@
       <c r="U352" s="4"/>
       <c r="V352" s="4"/>
       <c r="W352" s="4"/>
-      <c r="X352" s="4"/>
-      <c r="Y352" s="4"/>
     </row>
     <row r="353">
       <c r="A353" s="4"/>
@@ -10732,8 +10111,6 @@
       <c r="U353" s="4"/>
       <c r="V353" s="4"/>
       <c r="W353" s="4"/>
-      <c r="X353" s="4"/>
-      <c r="Y353" s="4"/>
     </row>
     <row r="354">
       <c r="A354" s="4"/>
@@ -10759,8 +10136,6 @@
       <c r="U354" s="4"/>
       <c r="V354" s="4"/>
       <c r="W354" s="4"/>
-      <c r="X354" s="4"/>
-      <c r="Y354" s="4"/>
     </row>
     <row r="355">
       <c r="A355" s="4"/>
@@ -10786,8 +10161,6 @@
       <c r="U355" s="4"/>
       <c r="V355" s="4"/>
       <c r="W355" s="4"/>
-      <c r="X355" s="4"/>
-      <c r="Y355" s="4"/>
     </row>
     <row r="356">
       <c r="A356" s="4"/>
@@ -10813,8 +10186,6 @@
       <c r="U356" s="4"/>
       <c r="V356" s="4"/>
       <c r="W356" s="4"/>
-      <c r="X356" s="4"/>
-      <c r="Y356" s="4"/>
     </row>
     <row r="357">
       <c r="A357" s="4"/>
@@ -10840,8 +10211,6 @@
       <c r="U357" s="4"/>
       <c r="V357" s="4"/>
       <c r="W357" s="4"/>
-      <c r="X357" s="4"/>
-      <c r="Y357" s="4"/>
     </row>
     <row r="358">
       <c r="A358" s="4"/>
@@ -10867,8 +10236,6 @@
       <c r="U358" s="4"/>
       <c r="V358" s="4"/>
       <c r="W358" s="4"/>
-      <c r="X358" s="4"/>
-      <c r="Y358" s="4"/>
     </row>
     <row r="359">
       <c r="A359" s="4"/>
@@ -10894,8 +10261,6 @@
       <c r="U359" s="4"/>
       <c r="V359" s="4"/>
       <c r="W359" s="4"/>
-      <c r="X359" s="4"/>
-      <c r="Y359" s="4"/>
     </row>
     <row r="360">
       <c r="A360" s="4"/>
@@ -10921,8 +10286,6 @@
       <c r="U360" s="4"/>
       <c r="V360" s="4"/>
       <c r="W360" s="4"/>
-      <c r="X360" s="4"/>
-      <c r="Y360" s="4"/>
     </row>
     <row r="361">
       <c r="A361" s="4"/>
@@ -10948,8 +10311,6 @@
       <c r="U361" s="4"/>
       <c r="V361" s="4"/>
       <c r="W361" s="4"/>
-      <c r="X361" s="4"/>
-      <c r="Y361" s="4"/>
     </row>
     <row r="362">
       <c r="A362" s="4"/>
@@ -10975,8 +10336,6 @@
       <c r="U362" s="4"/>
       <c r="V362" s="4"/>
       <c r="W362" s="4"/>
-      <c r="X362" s="4"/>
-      <c r="Y362" s="4"/>
     </row>
     <row r="363">
       <c r="A363" s="4"/>
@@ -11002,8 +10361,6 @@
       <c r="U363" s="4"/>
       <c r="V363" s="4"/>
       <c r="W363" s="4"/>
-      <c r="X363" s="4"/>
-      <c r="Y363" s="4"/>
     </row>
     <row r="364">
       <c r="A364" s="4"/>
@@ -11029,8 +10386,6 @@
       <c r="U364" s="4"/>
       <c r="V364" s="4"/>
       <c r="W364" s="4"/>
-      <c r="X364" s="4"/>
-      <c r="Y364" s="4"/>
     </row>
     <row r="365">
       <c r="A365" s="4"/>
@@ -11056,8 +10411,6 @@
       <c r="U365" s="4"/>
       <c r="V365" s="4"/>
       <c r="W365" s="4"/>
-      <c r="X365" s="4"/>
-      <c r="Y365" s="4"/>
     </row>
     <row r="366">
       <c r="A366" s="4"/>
@@ -11083,8 +10436,6 @@
       <c r="U366" s="4"/>
       <c r="V366" s="4"/>
       <c r="W366" s="4"/>
-      <c r="X366" s="4"/>
-      <c r="Y366" s="4"/>
     </row>
     <row r="367">
       <c r="A367" s="4"/>
@@ -11110,8 +10461,6 @@
       <c r="U367" s="4"/>
       <c r="V367" s="4"/>
       <c r="W367" s="4"/>
-      <c r="X367" s="4"/>
-      <c r="Y367" s="4"/>
     </row>
     <row r="368">
       <c r="A368" s="4"/>
@@ -11137,8 +10486,6 @@
       <c r="U368" s="4"/>
       <c r="V368" s="4"/>
       <c r="W368" s="4"/>
-      <c r="X368" s="4"/>
-      <c r="Y368" s="4"/>
     </row>
     <row r="369">
       <c r="A369" s="4"/>
@@ -11164,8 +10511,6 @@
       <c r="U369" s="4"/>
       <c r="V369" s="4"/>
       <c r="W369" s="4"/>
-      <c r="X369" s="4"/>
-      <c r="Y369" s="4"/>
     </row>
     <row r="370">
       <c r="A370" s="4"/>
@@ -11191,8 +10536,6 @@
       <c r="U370" s="4"/>
       <c r="V370" s="4"/>
       <c r="W370" s="4"/>
-      <c r="X370" s="4"/>
-      <c r="Y370" s="4"/>
     </row>
     <row r="371">
       <c r="A371" s="4"/>
@@ -11218,8 +10561,6 @@
       <c r="U371" s="4"/>
       <c r="V371" s="4"/>
       <c r="W371" s="4"/>
-      <c r="X371" s="4"/>
-      <c r="Y371" s="4"/>
     </row>
     <row r="372">
       <c r="A372" s="4"/>
@@ -11245,8 +10586,6 @@
       <c r="U372" s="4"/>
       <c r="V372" s="4"/>
       <c r="W372" s="4"/>
-      <c r="X372" s="4"/>
-      <c r="Y372" s="4"/>
     </row>
     <row r="373">
       <c r="A373" s="4"/>
@@ -11272,8 +10611,6 @@
       <c r="U373" s="4"/>
       <c r="V373" s="4"/>
       <c r="W373" s="4"/>
-      <c r="X373" s="4"/>
-      <c r="Y373" s="4"/>
     </row>
     <row r="374">
       <c r="A374" s="4"/>
@@ -11299,8 +10636,6 @@
       <c r="U374" s="4"/>
       <c r="V374" s="4"/>
       <c r="W374" s="4"/>
-      <c r="X374" s="4"/>
-      <c r="Y374" s="4"/>
     </row>
     <row r="375">
       <c r="A375" s="4"/>
@@ -11326,8 +10661,6 @@
       <c r="U375" s="4"/>
       <c r="V375" s="4"/>
       <c r="W375" s="4"/>
-      <c r="X375" s="4"/>
-      <c r="Y375" s="4"/>
     </row>
     <row r="376">
       <c r="A376" s="4"/>
@@ -11353,8 +10686,6 @@
       <c r="U376" s="4"/>
       <c r="V376" s="4"/>
       <c r="W376" s="4"/>
-      <c r="X376" s="4"/>
-      <c r="Y376" s="4"/>
     </row>
     <row r="377">
       <c r="A377" s="4"/>
@@ -11380,8 +10711,6 @@
       <c r="U377" s="4"/>
       <c r="V377" s="4"/>
       <c r="W377" s="4"/>
-      <c r="X377" s="4"/>
-      <c r="Y377" s="4"/>
     </row>
     <row r="378">
       <c r="A378" s="4"/>
@@ -11407,8 +10736,6 @@
       <c r="U378" s="4"/>
       <c r="V378" s="4"/>
       <c r="W378" s="4"/>
-      <c r="X378" s="4"/>
-      <c r="Y378" s="4"/>
     </row>
     <row r="379">
       <c r="A379" s="4"/>
@@ -11434,8 +10761,6 @@
       <c r="U379" s="4"/>
       <c r="V379" s="4"/>
       <c r="W379" s="4"/>
-      <c r="X379" s="4"/>
-      <c r="Y379" s="4"/>
     </row>
     <row r="380">
       <c r="A380" s="4"/>
@@ -11461,8 +10786,6 @@
       <c r="U380" s="4"/>
       <c r="V380" s="4"/>
       <c r="W380" s="4"/>
-      <c r="X380" s="4"/>
-      <c r="Y380" s="4"/>
     </row>
     <row r="381">
       <c r="A381" s="4"/>
@@ -11488,8 +10811,6 @@
       <c r="U381" s="4"/>
       <c r="V381" s="4"/>
       <c r="W381" s="4"/>
-      <c r="X381" s="4"/>
-      <c r="Y381" s="4"/>
     </row>
     <row r="382">
       <c r="A382" s="4"/>
@@ -11515,8 +10836,6 @@
       <c r="U382" s="4"/>
       <c r="V382" s="4"/>
       <c r="W382" s="4"/>
-      <c r="X382" s="4"/>
-      <c r="Y382" s="4"/>
     </row>
     <row r="383">
       <c r="A383" s="4"/>
@@ -11542,8 +10861,6 @@
       <c r="U383" s="4"/>
       <c r="V383" s="4"/>
       <c r="W383" s="4"/>
-      <c r="X383" s="4"/>
-      <c r="Y383" s="4"/>
     </row>
     <row r="384">
       <c r="A384" s="4"/>
@@ -11569,8 +10886,6 @@
       <c r="U384" s="4"/>
       <c r="V384" s="4"/>
       <c r="W384" s="4"/>
-      <c r="X384" s="4"/>
-      <c r="Y384" s="4"/>
     </row>
     <row r="385">
       <c r="A385" s="4"/>
@@ -11596,8 +10911,6 @@
       <c r="U385" s="4"/>
       <c r="V385" s="4"/>
       <c r="W385" s="4"/>
-      <c r="X385" s="4"/>
-      <c r="Y385" s="4"/>
     </row>
     <row r="386">
       <c r="A386" s="4"/>
@@ -11623,8 +10936,6 @@
       <c r="U386" s="4"/>
       <c r="V386" s="4"/>
       <c r="W386" s="4"/>
-      <c r="X386" s="4"/>
-      <c r="Y386" s="4"/>
     </row>
     <row r="387">
       <c r="A387" s="4"/>
@@ -11650,8 +10961,6 @@
       <c r="U387" s="4"/>
       <c r="V387" s="4"/>
       <c r="W387" s="4"/>
-      <c r="X387" s="4"/>
-      <c r="Y387" s="4"/>
     </row>
     <row r="388">
       <c r="A388" s="4"/>
@@ -11677,8 +10986,6 @@
       <c r="U388" s="4"/>
       <c r="V388" s="4"/>
       <c r="W388" s="4"/>
-      <c r="X388" s="4"/>
-      <c r="Y388" s="4"/>
     </row>
     <row r="389">
       <c r="A389" s="4"/>
@@ -11704,8 +11011,6 @@
       <c r="U389" s="4"/>
       <c r="V389" s="4"/>
       <c r="W389" s="4"/>
-      <c r="X389" s="4"/>
-      <c r="Y389" s="4"/>
     </row>
     <row r="390">
       <c r="A390" s="4"/>
@@ -11731,8 +11036,6 @@
       <c r="U390" s="4"/>
       <c r="V390" s="4"/>
       <c r="W390" s="4"/>
-      <c r="X390" s="4"/>
-      <c r="Y390" s="4"/>
     </row>
     <row r="391">
       <c r="A391" s="4"/>
@@ -11758,8 +11061,6 @@
       <c r="U391" s="4"/>
       <c r="V391" s="4"/>
       <c r="W391" s="4"/>
-      <c r="X391" s="4"/>
-      <c r="Y391" s="4"/>
     </row>
     <row r="392">
       <c r="A392" s="4"/>
@@ -11785,8 +11086,6 @@
       <c r="U392" s="4"/>
       <c r="V392" s="4"/>
       <c r="W392" s="4"/>
-      <c r="X392" s="4"/>
-      <c r="Y392" s="4"/>
     </row>
     <row r="393">
       <c r="A393" s="4"/>
@@ -11812,8 +11111,6 @@
       <c r="U393" s="4"/>
       <c r="V393" s="4"/>
       <c r="W393" s="4"/>
-      <c r="X393" s="4"/>
-      <c r="Y393" s="4"/>
     </row>
     <row r="394">
       <c r="A394" s="4"/>
@@ -11839,8 +11136,6 @@
       <c r="U394" s="4"/>
       <c r="V394" s="4"/>
       <c r="W394" s="4"/>
-      <c r="X394" s="4"/>
-      <c r="Y394" s="4"/>
     </row>
     <row r="395">
       <c r="A395" s="4"/>
@@ -11866,8 +11161,6 @@
       <c r="U395" s="4"/>
       <c r="V395" s="4"/>
       <c r="W395" s="4"/>
-      <c r="X395" s="4"/>
-      <c r="Y395" s="4"/>
     </row>
     <row r="396">
       <c r="A396" s="4"/>
@@ -11893,8 +11186,6 @@
       <c r="U396" s="4"/>
       <c r="V396" s="4"/>
       <c r="W396" s="4"/>
-      <c r="X396" s="4"/>
-      <c r="Y396" s="4"/>
     </row>
     <row r="397">
       <c r="A397" s="4"/>
@@ -11920,8 +11211,6 @@
       <c r="U397" s="4"/>
       <c r="V397" s="4"/>
       <c r="W397" s="4"/>
-      <c r="X397" s="4"/>
-      <c r="Y397" s="4"/>
     </row>
     <row r="398">
       <c r="A398" s="4"/>
@@ -11947,8 +11236,6 @@
       <c r="U398" s="4"/>
       <c r="V398" s="4"/>
       <c r="W398" s="4"/>
-      <c r="X398" s="4"/>
-      <c r="Y398" s="4"/>
     </row>
     <row r="399">
       <c r="A399" s="4"/>
@@ -11974,8 +11261,6 @@
       <c r="U399" s="4"/>
       <c r="V399" s="4"/>
       <c r="W399" s="4"/>
-      <c r="X399" s="4"/>
-      <c r="Y399" s="4"/>
     </row>
     <row r="400">
       <c r="A400" s="4"/>
@@ -12001,8 +11286,6 @@
       <c r="U400" s="4"/>
       <c r="V400" s="4"/>
       <c r="W400" s="4"/>
-      <c r="X400" s="4"/>
-      <c r="Y400" s="4"/>
     </row>
     <row r="401">
       <c r="A401" s="4"/>
@@ -12028,8 +11311,6 @@
       <c r="U401" s="4"/>
       <c r="V401" s="4"/>
       <c r="W401" s="4"/>
-      <c r="X401" s="4"/>
-      <c r="Y401" s="4"/>
     </row>
     <row r="402">
       <c r="A402" s="4"/>
@@ -12055,8 +11336,6 @@
       <c r="U402" s="4"/>
       <c r="V402" s="4"/>
       <c r="W402" s="4"/>
-      <c r="X402" s="4"/>
-      <c r="Y402" s="4"/>
     </row>
     <row r="403">
       <c r="A403" s="4"/>
@@ -12082,8 +11361,6 @@
       <c r="U403" s="4"/>
       <c r="V403" s="4"/>
       <c r="W403" s="4"/>
-      <c r="X403" s="4"/>
-      <c r="Y403" s="4"/>
     </row>
     <row r="404">
       <c r="A404" s="4"/>
@@ -12109,8 +11386,6 @@
       <c r="U404" s="4"/>
       <c r="V404" s="4"/>
       <c r="W404" s="4"/>
-      <c r="X404" s="4"/>
-      <c r="Y404" s="4"/>
     </row>
     <row r="405">
       <c r="A405" s="4"/>
@@ -12136,8 +11411,6 @@
       <c r="U405" s="4"/>
       <c r="V405" s="4"/>
       <c r="W405" s="4"/>
-      <c r="X405" s="4"/>
-      <c r="Y405" s="4"/>
     </row>
     <row r="406">
       <c r="A406" s="4"/>
@@ -12163,8 +11436,6 @@
       <c r="U406" s="4"/>
       <c r="V406" s="4"/>
       <c r="W406" s="4"/>
-      <c r="X406" s="4"/>
-      <c r="Y406" s="4"/>
     </row>
     <row r="407">
       <c r="A407" s="4"/>
@@ -12190,8 +11461,6 @@
       <c r="U407" s="4"/>
       <c r="V407" s="4"/>
       <c r="W407" s="4"/>
-      <c r="X407" s="4"/>
-      <c r="Y407" s="4"/>
     </row>
     <row r="408">
       <c r="A408" s="4"/>
@@ -12217,8 +11486,6 @@
       <c r="U408" s="4"/>
       <c r="V408" s="4"/>
       <c r="W408" s="4"/>
-      <c r="X408" s="4"/>
-      <c r="Y408" s="4"/>
     </row>
     <row r="409">
       <c r="A409" s="4"/>
@@ -12244,8 +11511,6 @@
       <c r="U409" s="4"/>
       <c r="V409" s="4"/>
       <c r="W409" s="4"/>
-      <c r="X409" s="4"/>
-      <c r="Y409" s="4"/>
     </row>
     <row r="410">
       <c r="A410" s="4"/>
@@ -12271,8 +11536,6 @@
       <c r="U410" s="4"/>
       <c r="V410" s="4"/>
       <c r="W410" s="4"/>
-      <c r="X410" s="4"/>
-      <c r="Y410" s="4"/>
     </row>
     <row r="411">
       <c r="A411" s="4"/>
@@ -12298,8 +11561,6 @@
       <c r="U411" s="4"/>
       <c r="V411" s="4"/>
       <c r="W411" s="4"/>
-      <c r="X411" s="4"/>
-      <c r="Y411" s="4"/>
     </row>
     <row r="412">
       <c r="A412" s="4"/>
@@ -12325,8 +11586,6 @@
       <c r="U412" s="4"/>
       <c r="V412" s="4"/>
       <c r="W412" s="4"/>
-      <c r="X412" s="4"/>
-      <c r="Y412" s="4"/>
     </row>
     <row r="413">
       <c r="A413" s="4"/>
@@ -12352,8 +11611,6 @@
       <c r="U413" s="4"/>
       <c r="V413" s="4"/>
       <c r="W413" s="4"/>
-      <c r="X413" s="4"/>
-      <c r="Y413" s="4"/>
     </row>
     <row r="414">
       <c r="A414" s="4"/>
@@ -12379,8 +11636,6 @@
       <c r="U414" s="4"/>
       <c r="V414" s="4"/>
       <c r="W414" s="4"/>
-      <c r="X414" s="4"/>
-      <c r="Y414" s="4"/>
     </row>
     <row r="415">
       <c r="A415" s="4"/>
@@ -12406,8 +11661,6 @@
       <c r="U415" s="4"/>
       <c r="V415" s="4"/>
       <c r="W415" s="4"/>
-      <c r="X415" s="4"/>
-      <c r="Y415" s="4"/>
     </row>
     <row r="416">
       <c r="A416" s="4"/>
@@ -12433,8 +11686,6 @@
       <c r="U416" s="4"/>
       <c r="V416" s="4"/>
       <c r="W416" s="4"/>
-      <c r="X416" s="4"/>
-      <c r="Y416" s="4"/>
     </row>
     <row r="417">
       <c r="A417" s="4"/>
@@ -12460,8 +11711,6 @@
       <c r="U417" s="4"/>
       <c r="V417" s="4"/>
       <c r="W417" s="4"/>
-      <c r="X417" s="4"/>
-      <c r="Y417" s="4"/>
     </row>
     <row r="418">
       <c r="A418" s="4"/>
@@ -12487,8 +11736,6 @@
       <c r="U418" s="4"/>
       <c r="V418" s="4"/>
       <c r="W418" s="4"/>
-      <c r="X418" s="4"/>
-      <c r="Y418" s="4"/>
     </row>
     <row r="419">
       <c r="A419" s="4"/>
@@ -12514,8 +11761,6 @@
       <c r="U419" s="4"/>
       <c r="V419" s="4"/>
       <c r="W419" s="4"/>
-      <c r="X419" s="4"/>
-      <c r="Y419" s="4"/>
     </row>
     <row r="420">
       <c r="A420" s="4"/>
@@ -12541,8 +11786,6 @@
       <c r="U420" s="4"/>
       <c r="V420" s="4"/>
       <c r="W420" s="4"/>
-      <c r="X420" s="4"/>
-      <c r="Y420" s="4"/>
     </row>
     <row r="421">
       <c r="A421" s="4"/>
@@ -12568,8 +11811,6 @@
       <c r="U421" s="4"/>
       <c r="V421" s="4"/>
       <c r="W421" s="4"/>
-      <c r="X421" s="4"/>
-      <c r="Y421" s="4"/>
     </row>
     <row r="422">
       <c r="A422" s="4"/>
@@ -12595,8 +11836,6 @@
       <c r="U422" s="4"/>
       <c r="V422" s="4"/>
       <c r="W422" s="4"/>
-      <c r="X422" s="4"/>
-      <c r="Y422" s="4"/>
     </row>
     <row r="423">
       <c r="A423" s="4"/>
@@ -12622,8 +11861,6 @@
       <c r="U423" s="4"/>
       <c r="V423" s="4"/>
       <c r="W423" s="4"/>
-      <c r="X423" s="4"/>
-      <c r="Y423" s="4"/>
     </row>
     <row r="424">
       <c r="A424" s="4"/>
@@ -12649,8 +11886,6 @@
       <c r="U424" s="4"/>
       <c r="V424" s="4"/>
       <c r="W424" s="4"/>
-      <c r="X424" s="4"/>
-      <c r="Y424" s="4"/>
     </row>
     <row r="425">
       <c r="A425" s="4"/>
@@ -12676,8 +11911,6 @@
       <c r="U425" s="4"/>
       <c r="V425" s="4"/>
       <c r="W425" s="4"/>
-      <c r="X425" s="4"/>
-      <c r="Y425" s="4"/>
     </row>
     <row r="426">
       <c r="A426" s="4"/>
@@ -12703,8 +11936,6 @@
       <c r="U426" s="4"/>
       <c r="V426" s="4"/>
       <c r="W426" s="4"/>
-      <c r="X426" s="4"/>
-      <c r="Y426" s="4"/>
     </row>
     <row r="427">
       <c r="A427" s="4"/>
@@ -12730,8 +11961,6 @@
       <c r="U427" s="4"/>
       <c r="V427" s="4"/>
       <c r="W427" s="4"/>
-      <c r="X427" s="4"/>
-      <c r="Y427" s="4"/>
     </row>
     <row r="428">
       <c r="A428" s="4"/>
@@ -12757,8 +11986,6 @@
       <c r="U428" s="4"/>
       <c r="V428" s="4"/>
       <c r="W428" s="4"/>
-      <c r="X428" s="4"/>
-      <c r="Y428" s="4"/>
     </row>
     <row r="429">
       <c r="A429" s="4"/>
@@ -12784,8 +12011,6 @@
       <c r="U429" s="4"/>
       <c r="V429" s="4"/>
       <c r="W429" s="4"/>
-      <c r="X429" s="4"/>
-      <c r="Y429" s="4"/>
     </row>
     <row r="430">
       <c r="A430" s="4"/>
@@ -12811,8 +12036,6 @@
       <c r="U430" s="4"/>
       <c r="V430" s="4"/>
       <c r="W430" s="4"/>
-      <c r="X430" s="4"/>
-      <c r="Y430" s="4"/>
     </row>
     <row r="431">
       <c r="A431" s="4"/>
@@ -12838,8 +12061,6 @@
       <c r="U431" s="4"/>
       <c r="V431" s="4"/>
       <c r="W431" s="4"/>
-      <c r="X431" s="4"/>
-      <c r="Y431" s="4"/>
     </row>
     <row r="432">
       <c r="A432" s="4"/>
@@ -12865,8 +12086,6 @@
       <c r="U432" s="4"/>
       <c r="V432" s="4"/>
       <c r="W432" s="4"/>
-      <c r="X432" s="4"/>
-      <c r="Y432" s="4"/>
     </row>
     <row r="433">
       <c r="A433" s="4"/>
@@ -12892,8 +12111,6 @@
       <c r="U433" s="4"/>
       <c r="V433" s="4"/>
       <c r="W433" s="4"/>
-      <c r="X433" s="4"/>
-      <c r="Y433" s="4"/>
     </row>
     <row r="434">
       <c r="A434" s="4"/>
@@ -12919,8 +12136,6 @@
       <c r="U434" s="4"/>
       <c r="V434" s="4"/>
       <c r="W434" s="4"/>
-      <c r="X434" s="4"/>
-      <c r="Y434" s="4"/>
     </row>
     <row r="435">
       <c r="A435" s="4"/>
@@ -12946,8 +12161,6 @@
       <c r="U435" s="4"/>
       <c r="V435" s="4"/>
       <c r="W435" s="4"/>
-      <c r="X435" s="4"/>
-      <c r="Y435" s="4"/>
     </row>
     <row r="436">
       <c r="A436" s="4"/>
@@ -12973,8 +12186,6 @@
       <c r="U436" s="4"/>
       <c r="V436" s="4"/>
       <c r="W436" s="4"/>
-      <c r="X436" s="4"/>
-      <c r="Y436" s="4"/>
     </row>
     <row r="437">
       <c r="A437" s="4"/>
@@ -13000,8 +12211,6 @@
       <c r="U437" s="4"/>
       <c r="V437" s="4"/>
       <c r="W437" s="4"/>
-      <c r="X437" s="4"/>
-      <c r="Y437" s="4"/>
     </row>
     <row r="438">
       <c r="A438" s="4"/>
@@ -13027,8 +12236,6 @@
       <c r="U438" s="4"/>
       <c r="V438" s="4"/>
       <c r="W438" s="4"/>
-      <c r="X438" s="4"/>
-      <c r="Y438" s="4"/>
     </row>
     <row r="439">
       <c r="A439" s="4"/>
@@ -13054,8 +12261,6 @@
       <c r="U439" s="4"/>
       <c r="V439" s="4"/>
       <c r="W439" s="4"/>
-      <c r="X439" s="4"/>
-      <c r="Y439" s="4"/>
     </row>
     <row r="440">
       <c r="A440" s="4"/>
@@ -13081,8 +12286,6 @@
       <c r="U440" s="4"/>
       <c r="V440" s="4"/>
       <c r="W440" s="4"/>
-      <c r="X440" s="4"/>
-      <c r="Y440" s="4"/>
     </row>
     <row r="441">
       <c r="A441" s="4"/>
@@ -13108,8 +12311,6 @@
       <c r="U441" s="4"/>
       <c r="V441" s="4"/>
       <c r="W441" s="4"/>
-      <c r="X441" s="4"/>
-      <c r="Y441" s="4"/>
     </row>
     <row r="442">
       <c r="A442" s="4"/>
@@ -13135,8 +12336,6 @@
       <c r="U442" s="4"/>
       <c r="V442" s="4"/>
       <c r="W442" s="4"/>
-      <c r="X442" s="4"/>
-      <c r="Y442" s="4"/>
     </row>
     <row r="443">
       <c r="A443" s="4"/>
@@ -13162,8 +12361,6 @@
       <c r="U443" s="4"/>
       <c r="V443" s="4"/>
       <c r="W443" s="4"/>
-      <c r="X443" s="4"/>
-      <c r="Y443" s="4"/>
     </row>
     <row r="444">
       <c r="A444" s="4"/>
@@ -13189,8 +12386,6 @@
       <c r="U444" s="4"/>
       <c r="V444" s="4"/>
       <c r="W444" s="4"/>
-      <c r="X444" s="4"/>
-      <c r="Y444" s="4"/>
     </row>
     <row r="445">
       <c r="A445" s="4"/>
@@ -13216,8 +12411,6 @@
       <c r="U445" s="4"/>
       <c r="V445" s="4"/>
       <c r="W445" s="4"/>
-      <c r="X445" s="4"/>
-      <c r="Y445" s="4"/>
     </row>
     <row r="446">
       <c r="A446" s="4"/>
@@ -13243,8 +12436,6 @@
       <c r="U446" s="4"/>
       <c r="V446" s="4"/>
       <c r="W446" s="4"/>
-      <c r="X446" s="4"/>
-      <c r="Y446" s="4"/>
     </row>
     <row r="447">
       <c r="A447" s="4"/>
@@ -13270,8 +12461,6 @@
       <c r="U447" s="4"/>
       <c r="V447" s="4"/>
       <c r="W447" s="4"/>
-      <c r="X447" s="4"/>
-      <c r="Y447" s="4"/>
     </row>
     <row r="448">
       <c r="A448" s="4"/>
@@ -13297,8 +12486,6 @@
       <c r="U448" s="4"/>
       <c r="V448" s="4"/>
       <c r="W448" s="4"/>
-      <c r="X448" s="4"/>
-      <c r="Y448" s="4"/>
     </row>
     <row r="449">
       <c r="A449" s="4"/>
@@ -13324,8 +12511,6 @@
       <c r="U449" s="4"/>
       <c r="V449" s="4"/>
       <c r="W449" s="4"/>
-      <c r="X449" s="4"/>
-      <c r="Y449" s="4"/>
     </row>
     <row r="450">
       <c r="A450" s="4"/>
@@ -13351,8 +12536,6 @@
       <c r="U450" s="4"/>
       <c r="V450" s="4"/>
       <c r="W450" s="4"/>
-      <c r="X450" s="4"/>
-      <c r="Y450" s="4"/>
     </row>
     <row r="451">
       <c r="A451" s="4"/>
@@ -13378,8 +12561,6 @@
       <c r="U451" s="4"/>
       <c r="V451" s="4"/>
       <c r="W451" s="4"/>
-      <c r="X451" s="4"/>
-      <c r="Y451" s="4"/>
     </row>
     <row r="452">
       <c r="A452" s="4"/>
@@ -13405,8 +12586,6 @@
       <c r="U452" s="4"/>
       <c r="V452" s="4"/>
       <c r="W452" s="4"/>
-      <c r="X452" s="4"/>
-      <c r="Y452" s="4"/>
     </row>
     <row r="453">
       <c r="A453" s="4"/>
@@ -13432,8 +12611,6 @@
       <c r="U453" s="4"/>
       <c r="V453" s="4"/>
       <c r="W453" s="4"/>
-      <c r="X453" s="4"/>
-      <c r="Y453" s="4"/>
     </row>
     <row r="454">
       <c r="A454" s="4"/>
@@ -13459,8 +12636,6 @@
       <c r="U454" s="4"/>
       <c r="V454" s="4"/>
       <c r="W454" s="4"/>
-      <c r="X454" s="4"/>
-      <c r="Y454" s="4"/>
     </row>
     <row r="455">
       <c r="A455" s="4"/>
@@ -13486,8 +12661,6 @@
       <c r="U455" s="4"/>
       <c r="V455" s="4"/>
       <c r="W455" s="4"/>
-      <c r="X455" s="4"/>
-      <c r="Y455" s="4"/>
     </row>
     <row r="456">
       <c r="A456" s="4"/>
@@ -13513,8 +12686,6 @@
       <c r="U456" s="4"/>
       <c r="V456" s="4"/>
       <c r="W456" s="4"/>
-      <c r="X456" s="4"/>
-      <c r="Y456" s="4"/>
     </row>
     <row r="457">
       <c r="A457" s="4"/>
@@ -13540,8 +12711,6 @@
       <c r="U457" s="4"/>
       <c r="V457" s="4"/>
       <c r="W457" s="4"/>
-      <c r="X457" s="4"/>
-      <c r="Y457" s="4"/>
     </row>
     <row r="458">
       <c r="A458" s="4"/>
@@ -13567,8 +12736,6 @@
       <c r="U458" s="4"/>
       <c r="V458" s="4"/>
       <c r="W458" s="4"/>
-      <c r="X458" s="4"/>
-      <c r="Y458" s="4"/>
     </row>
     <row r="459">
       <c r="A459" s="4"/>
@@ -13594,8 +12761,6 @@
       <c r="U459" s="4"/>
       <c r="V459" s="4"/>
       <c r="W459" s="4"/>
-      <c r="X459" s="4"/>
-      <c r="Y459" s="4"/>
     </row>
     <row r="460">
       <c r="A460" s="4"/>
@@ -13621,8 +12786,6 @@
       <c r="U460" s="4"/>
       <c r="V460" s="4"/>
       <c r="W460" s="4"/>
-      <c r="X460" s="4"/>
-      <c r="Y460" s="4"/>
     </row>
     <row r="461">
       <c r="A461" s="4"/>
@@ -13648,8 +12811,6 @@
       <c r="U461" s="4"/>
       <c r="V461" s="4"/>
       <c r="W461" s="4"/>
-      <c r="X461" s="4"/>
-      <c r="Y461" s="4"/>
     </row>
     <row r="462">
       <c r="A462" s="4"/>
@@ -13675,8 +12836,6 @@
       <c r="U462" s="4"/>
       <c r="V462" s="4"/>
       <c r="W462" s="4"/>
-      <c r="X462" s="4"/>
-      <c r="Y462" s="4"/>
     </row>
     <row r="463">
       <c r="A463" s="4"/>
@@ -13702,8 +12861,6 @@
       <c r="U463" s="4"/>
       <c r="V463" s="4"/>
       <c r="W463" s="4"/>
-      <c r="X463" s="4"/>
-      <c r="Y463" s="4"/>
     </row>
     <row r="464">
       <c r="A464" s="4"/>
@@ -13729,8 +12886,6 @@
       <c r="U464" s="4"/>
       <c r="V464" s="4"/>
       <c r="W464" s="4"/>
-      <c r="X464" s="4"/>
-      <c r="Y464" s="4"/>
     </row>
     <row r="465">
       <c r="A465" s="4"/>
@@ -13756,8 +12911,6 @@
       <c r="U465" s="4"/>
       <c r="V465" s="4"/>
       <c r="W465" s="4"/>
-      <c r="X465" s="4"/>
-      <c r="Y465" s="4"/>
     </row>
     <row r="466">
       <c r="A466" s="4"/>
@@ -13783,8 +12936,6 @@
       <c r="U466" s="4"/>
       <c r="V466" s="4"/>
       <c r="W466" s="4"/>
-      <c r="X466" s="4"/>
-      <c r="Y466" s="4"/>
     </row>
     <row r="467">
       <c r="A467" s="4"/>
@@ -13810,8 +12961,6 @@
       <c r="U467" s="4"/>
       <c r="V467" s="4"/>
       <c r="W467" s="4"/>
-      <c r="X467" s="4"/>
-      <c r="Y467" s="4"/>
     </row>
     <row r="468">
       <c r="A468" s="4"/>
@@ -13837,8 +12986,6 @@
       <c r="U468" s="4"/>
       <c r="V468" s="4"/>
       <c r="W468" s="4"/>
-      <c r="X468" s="4"/>
-      <c r="Y468" s="4"/>
     </row>
     <row r="469">
       <c r="A469" s="4"/>
@@ -13864,8 +13011,6 @@
       <c r="U469" s="4"/>
       <c r="V469" s="4"/>
       <c r="W469" s="4"/>
-      <c r="X469" s="4"/>
-      <c r="Y469" s="4"/>
     </row>
     <row r="470">
       <c r="A470" s="4"/>
@@ -13891,8 +13036,6 @@
       <c r="U470" s="4"/>
       <c r="V470" s="4"/>
       <c r="W470" s="4"/>
-      <c r="X470" s="4"/>
-      <c r="Y470" s="4"/>
     </row>
     <row r="471">
       <c r="A471" s="4"/>
@@ -13918,8 +13061,6 @@
       <c r="U471" s="4"/>
       <c r="V471" s="4"/>
       <c r="W471" s="4"/>
-      <c r="X471" s="4"/>
-      <c r="Y471" s="4"/>
     </row>
     <row r="472">
       <c r="A472" s="4"/>
@@ -13945,8 +13086,6 @@
       <c r="U472" s="4"/>
       <c r="V472" s="4"/>
       <c r="W472" s="4"/>
-      <c r="X472" s="4"/>
-      <c r="Y472" s="4"/>
     </row>
     <row r="473">
       <c r="A473" s="4"/>
@@ -13972,8 +13111,6 @@
       <c r="U473" s="4"/>
       <c r="V473" s="4"/>
       <c r="W473" s="4"/>
-      <c r="X473" s="4"/>
-      <c r="Y473" s="4"/>
     </row>
     <row r="474">
       <c r="A474" s="4"/>
@@ -13999,8 +13136,6 @@
       <c r="U474" s="4"/>
       <c r="V474" s="4"/>
       <c r="W474" s="4"/>
-      <c r="X474" s="4"/>
-      <c r="Y474" s="4"/>
     </row>
     <row r="475">
       <c r="A475" s="4"/>
@@ -14026,8 +13161,6 @@
       <c r="U475" s="4"/>
       <c r="V475" s="4"/>
       <c r="W475" s="4"/>
-      <c r="X475" s="4"/>
-      <c r="Y475" s="4"/>
     </row>
     <row r="476">
       <c r="A476" s="4"/>
@@ -14053,8 +13186,6 @@
       <c r="U476" s="4"/>
       <c r="V476" s="4"/>
       <c r="W476" s="4"/>
-      <c r="X476" s="4"/>
-      <c r="Y476" s="4"/>
     </row>
     <row r="477">
       <c r="A477" s="4"/>
@@ -14080,8 +13211,6 @@
       <c r="U477" s="4"/>
       <c r="V477" s="4"/>
       <c r="W477" s="4"/>
-      <c r="X477" s="4"/>
-      <c r="Y477" s="4"/>
     </row>
     <row r="478">
       <c r="A478" s="4"/>
@@ -14107,8 +13236,6 @@
       <c r="U478" s="4"/>
       <c r="V478" s="4"/>
       <c r="W478" s="4"/>
-      <c r="X478" s="4"/>
-      <c r="Y478" s="4"/>
     </row>
     <row r="479">
       <c r="A479" s="4"/>
@@ -14134,8 +13261,6 @@
       <c r="U479" s="4"/>
       <c r="V479" s="4"/>
       <c r="W479" s="4"/>
-      <c r="X479" s="4"/>
-      <c r="Y479" s="4"/>
     </row>
     <row r="480">
       <c r="A480" s="4"/>
@@ -14161,8 +13286,6 @@
       <c r="U480" s="4"/>
       <c r="V480" s="4"/>
       <c r="W480" s="4"/>
-      <c r="X480" s="4"/>
-      <c r="Y480" s="4"/>
     </row>
     <row r="481">
       <c r="A481" s="4"/>
@@ -14188,8 +13311,6 @@
       <c r="U481" s="4"/>
       <c r="V481" s="4"/>
       <c r="W481" s="4"/>
-      <c r="X481" s="4"/>
-      <c r="Y481" s="4"/>
     </row>
     <row r="482">
       <c r="A482" s="4"/>
@@ -14215,8 +13336,6 @@
       <c r="U482" s="4"/>
       <c r="V482" s="4"/>
       <c r="W482" s="4"/>
-      <c r="X482" s="4"/>
-      <c r="Y482" s="4"/>
     </row>
     <row r="483">
       <c r="A483" s="4"/>
@@ -14242,8 +13361,6 @@
       <c r="U483" s="4"/>
       <c r="V483" s="4"/>
       <c r="W483" s="4"/>
-      <c r="X483" s="4"/>
-      <c r="Y483" s="4"/>
     </row>
     <row r="484">
       <c r="A484" s="4"/>
@@ -14269,8 +13386,6 @@
       <c r="U484" s="4"/>
       <c r="V484" s="4"/>
       <c r="W484" s="4"/>
-      <c r="X484" s="4"/>
-      <c r="Y484" s="4"/>
     </row>
     <row r="485">
       <c r="A485" s="4"/>
@@ -14296,8 +13411,6 @@
       <c r="U485" s="4"/>
       <c r="V485" s="4"/>
       <c r="W485" s="4"/>
-      <c r="X485" s="4"/>
-      <c r="Y485" s="4"/>
     </row>
     <row r="486">
       <c r="A486" s="4"/>
@@ -14323,8 +13436,6 @@
       <c r="U486" s="4"/>
       <c r="V486" s="4"/>
       <c r="W486" s="4"/>
-      <c r="X486" s="4"/>
-      <c r="Y486" s="4"/>
     </row>
     <row r="487">
       <c r="A487" s="4"/>
@@ -14350,8 +13461,6 @@
       <c r="U487" s="4"/>
       <c r="V487" s="4"/>
       <c r="W487" s="4"/>
-      <c r="X487" s="4"/>
-      <c r="Y487" s="4"/>
     </row>
     <row r="488">
       <c r="A488" s="4"/>
@@ -14377,8 +13486,6 @@
       <c r="U488" s="4"/>
       <c r="V488" s="4"/>
       <c r="W488" s="4"/>
-      <c r="X488" s="4"/>
-      <c r="Y488" s="4"/>
     </row>
     <row r="489">
       <c r="A489" s="4"/>
@@ -14404,8 +13511,6 @@
       <c r="U489" s="4"/>
       <c r="V489" s="4"/>
       <c r="W489" s="4"/>
-      <c r="X489" s="4"/>
-      <c r="Y489" s="4"/>
     </row>
     <row r="490">
       <c r="A490" s="4"/>
@@ -14431,8 +13536,6 @@
       <c r="U490" s="4"/>
       <c r="V490" s="4"/>
       <c r="W490" s="4"/>
-      <c r="X490" s="4"/>
-      <c r="Y490" s="4"/>
     </row>
     <row r="491">
       <c r="A491" s="4"/>
@@ -14458,8 +13561,6 @@
       <c r="U491" s="4"/>
       <c r="V491" s="4"/>
       <c r="W491" s="4"/>
-      <c r="X491" s="4"/>
-      <c r="Y491" s="4"/>
     </row>
     <row r="492">
       <c r="A492" s="4"/>
@@ -14485,8 +13586,6 @@
       <c r="U492" s="4"/>
       <c r="V492" s="4"/>
       <c r="W492" s="4"/>
-      <c r="X492" s="4"/>
-      <c r="Y492" s="4"/>
     </row>
     <row r="493">
       <c r="A493" s="4"/>
@@ -14512,8 +13611,6 @@
       <c r="U493" s="4"/>
       <c r="V493" s="4"/>
       <c r="W493" s="4"/>
-      <c r="X493" s="4"/>
-      <c r="Y493" s="4"/>
     </row>
     <row r="494">
       <c r="A494" s="4"/>
@@ -14539,8 +13636,6 @@
       <c r="U494" s="4"/>
       <c r="V494" s="4"/>
       <c r="W494" s="4"/>
-      <c r="X494" s="4"/>
-      <c r="Y494" s="4"/>
     </row>
     <row r="495">
       <c r="A495" s="4"/>
@@ -14566,8 +13661,6 @@
       <c r="U495" s="4"/>
       <c r="V495" s="4"/>
       <c r="W495" s="4"/>
-      <c r="X495" s="4"/>
-      <c r="Y495" s="4"/>
     </row>
     <row r="496">
       <c r="A496" s="4"/>
@@ -14593,8 +13686,6 @@
       <c r="U496" s="4"/>
       <c r="V496" s="4"/>
       <c r="W496" s="4"/>
-      <c r="X496" s="4"/>
-      <c r="Y496" s="4"/>
     </row>
     <row r="497">
       <c r="A497" s="4"/>
@@ -14620,8 +13711,6 @@
       <c r="U497" s="4"/>
       <c r="V497" s="4"/>
       <c r="W497" s="4"/>
-      <c r="X497" s="4"/>
-      <c r="Y497" s="4"/>
     </row>
     <row r="498">
       <c r="A498" s="4"/>
@@ -14647,8 +13736,6 @@
       <c r="U498" s="4"/>
       <c r="V498" s="4"/>
       <c r="W498" s="4"/>
-      <c r="X498" s="4"/>
-      <c r="Y498" s="4"/>
     </row>
     <row r="499">
       <c r="A499" s="4"/>
@@ -14674,8 +13761,6 @@
       <c r="U499" s="4"/>
       <c r="V499" s="4"/>
       <c r="W499" s="4"/>
-      <c r="X499" s="4"/>
-      <c r="Y499" s="4"/>
     </row>
     <row r="500">
       <c r="A500" s="4"/>
@@ -14701,8 +13786,6 @@
       <c r="U500" s="4"/>
       <c r="V500" s="4"/>
       <c r="W500" s="4"/>
-      <c r="X500" s="4"/>
-      <c r="Y500" s="4"/>
     </row>
     <row r="501">
       <c r="A501" s="4"/>
@@ -14728,8 +13811,6 @@
       <c r="U501" s="4"/>
       <c r="V501" s="4"/>
       <c r="W501" s="4"/>
-      <c r="X501" s="4"/>
-      <c r="Y501" s="4"/>
     </row>
     <row r="502">
       <c r="A502" s="4"/>
@@ -14755,8 +13836,6 @@
       <c r="U502" s="4"/>
       <c r="V502" s="4"/>
       <c r="W502" s="4"/>
-      <c r="X502" s="4"/>
-      <c r="Y502" s="4"/>
     </row>
     <row r="503">
       <c r="A503" s="4"/>
@@ -14782,8 +13861,6 @@
       <c r="U503" s="4"/>
       <c r="V503" s="4"/>
       <c r="W503" s="4"/>
-      <c r="X503" s="4"/>
-      <c r="Y503" s="4"/>
     </row>
     <row r="504">
       <c r="A504" s="4"/>
@@ -14809,8 +13886,6 @@
       <c r="U504" s="4"/>
       <c r="V504" s="4"/>
       <c r="W504" s="4"/>
-      <c r="X504" s="4"/>
-      <c r="Y504" s="4"/>
     </row>
     <row r="505">
       <c r="A505" s="4"/>
@@ -14836,8 +13911,6 @@
       <c r="U505" s="4"/>
       <c r="V505" s="4"/>
       <c r="W505" s="4"/>
-      <c r="X505" s="4"/>
-      <c r="Y505" s="4"/>
     </row>
     <row r="506">
       <c r="A506" s="4"/>
@@ -14863,8 +13936,6 @@
       <c r="U506" s="4"/>
       <c r="V506" s="4"/>
       <c r="W506" s="4"/>
-      <c r="X506" s="4"/>
-      <c r="Y506" s="4"/>
     </row>
     <row r="507">
       <c r="A507" s="4"/>
@@ -14890,8 +13961,6 @@
       <c r="U507" s="4"/>
       <c r="V507" s="4"/>
       <c r="W507" s="4"/>
-      <c r="X507" s="4"/>
-      <c r="Y507" s="4"/>
     </row>
     <row r="508">
       <c r="A508" s="4"/>
@@ -14917,8 +13986,6 @@
       <c r="U508" s="4"/>
       <c r="V508" s="4"/>
       <c r="W508" s="4"/>
-      <c r="X508" s="4"/>
-      <c r="Y508" s="4"/>
     </row>
     <row r="509">
       <c r="A509" s="4"/>
@@ -14944,8 +14011,6 @@
       <c r="U509" s="4"/>
       <c r="V509" s="4"/>
       <c r="W509" s="4"/>
-      <c r="X509" s="4"/>
-      <c r="Y509" s="4"/>
     </row>
     <row r="510">
       <c r="A510" s="4"/>
@@ -14971,8 +14036,6 @@
       <c r="U510" s="4"/>
       <c r="V510" s="4"/>
       <c r="W510" s="4"/>
-      <c r="X510" s="4"/>
-      <c r="Y510" s="4"/>
     </row>
     <row r="511">
       <c r="A511" s="4"/>
@@ -14998,8 +14061,6 @@
       <c r="U511" s="4"/>
       <c r="V511" s="4"/>
       <c r="W511" s="4"/>
-      <c r="X511" s="4"/>
-      <c r="Y511" s="4"/>
     </row>
     <row r="512">
       <c r="A512" s="4"/>
@@ -15025,8 +14086,6 @@
       <c r="U512" s="4"/>
       <c r="V512" s="4"/>
       <c r="W512" s="4"/>
-      <c r="X512" s="4"/>
-      <c r="Y512" s="4"/>
     </row>
     <row r="513">
       <c r="A513" s="4"/>
@@ -15052,8 +14111,6 @@
       <c r="U513" s="4"/>
       <c r="V513" s="4"/>
       <c r="W513" s="4"/>
-      <c r="X513" s="4"/>
-      <c r="Y513" s="4"/>
     </row>
     <row r="514">
       <c r="A514" s="4"/>
@@ -15079,8 +14136,6 @@
       <c r="U514" s="4"/>
       <c r="V514" s="4"/>
       <c r="W514" s="4"/>
-      <c r="X514" s="4"/>
-      <c r="Y514" s="4"/>
     </row>
     <row r="515">
       <c r="A515" s="4"/>
@@ -15106,8 +14161,6 @@
       <c r="U515" s="4"/>
       <c r="V515" s="4"/>
       <c r="W515" s="4"/>
-      <c r="X515" s="4"/>
-      <c r="Y515" s="4"/>
     </row>
     <row r="516">
       <c r="A516" s="4"/>
@@ -15133,8 +14186,6 @@
       <c r="U516" s="4"/>
       <c r="V516" s="4"/>
       <c r="W516" s="4"/>
-      <c r="X516" s="4"/>
-      <c r="Y516" s="4"/>
     </row>
     <row r="517">
       <c r="A517" s="4"/>
@@ -15160,8 +14211,6 @@
       <c r="U517" s="4"/>
       <c r="V517" s="4"/>
       <c r="W517" s="4"/>
-      <c r="X517" s="4"/>
-      <c r="Y517" s="4"/>
     </row>
     <row r="518">
       <c r="A518" s="4"/>
@@ -15187,8 +14236,6 @@
       <c r="U518" s="4"/>
       <c r="V518" s="4"/>
       <c r="W518" s="4"/>
-      <c r="X518" s="4"/>
-      <c r="Y518" s="4"/>
     </row>
     <row r="519">
       <c r="A519" s="4"/>
@@ -15214,8 +14261,6 @@
       <c r="U519" s="4"/>
       <c r="V519" s="4"/>
       <c r="W519" s="4"/>
-      <c r="X519" s="4"/>
-      <c r="Y519" s="4"/>
     </row>
     <row r="520">
       <c r="A520" s="4"/>
@@ -15241,8 +14286,6 @@
       <c r="U520" s="4"/>
       <c r="V520" s="4"/>
       <c r="W520" s="4"/>
-      <c r="X520" s="4"/>
-      <c r="Y520" s="4"/>
     </row>
     <row r="521">
       <c r="A521" s="4"/>
@@ -15268,8 +14311,6 @@
       <c r="U521" s="4"/>
       <c r="V521" s="4"/>
       <c r="W521" s="4"/>
-      <c r="X521" s="4"/>
-      <c r="Y521" s="4"/>
     </row>
     <row r="522">
       <c r="A522" s="4"/>
@@ -15295,8 +14336,6 @@
       <c r="U522" s="4"/>
       <c r="V522" s="4"/>
       <c r="W522" s="4"/>
-      <c r="X522" s="4"/>
-      <c r="Y522" s="4"/>
     </row>
     <row r="523">
       <c r="A523" s="4"/>
@@ -15322,8 +14361,6 @@
       <c r="U523" s="4"/>
       <c r="V523" s="4"/>
       <c r="W523" s="4"/>
-      <c r="X523" s="4"/>
-      <c r="Y523" s="4"/>
     </row>
     <row r="524">
       <c r="A524" s="4"/>
@@ -15349,8 +14386,6 @@
       <c r="U524" s="4"/>
       <c r="V524" s="4"/>
       <c r="W524" s="4"/>
-      <c r="X524" s="4"/>
-      <c r="Y524" s="4"/>
     </row>
     <row r="525">
       <c r="A525" s="4"/>
@@ -15376,8 +14411,6 @@
       <c r="U525" s="4"/>
       <c r="V525" s="4"/>
       <c r="W525" s="4"/>
-      <c r="X525" s="4"/>
-      <c r="Y525" s="4"/>
     </row>
     <row r="526">
       <c r="A526" s="4"/>
@@ -15403,8 +14436,6 @@
       <c r="U526" s="4"/>
       <c r="V526" s="4"/>
       <c r="W526" s="4"/>
-      <c r="X526" s="4"/>
-      <c r="Y526" s="4"/>
     </row>
     <row r="527">
       <c r="A527" s="4"/>
@@ -15430,8 +14461,6 @@
       <c r="U527" s="4"/>
       <c r="V527" s="4"/>
       <c r="W527" s="4"/>
-      <c r="X527" s="4"/>
-      <c r="Y527" s="4"/>
     </row>
     <row r="528">
       <c r="A528" s="4"/>
@@ -15457,8 +14486,6 @@
       <c r="U528" s="4"/>
       <c r="V528" s="4"/>
       <c r="W528" s="4"/>
-      <c r="X528" s="4"/>
-      <c r="Y528" s="4"/>
     </row>
     <row r="529">
       <c r="A529" s="4"/>
@@ -15484,8 +14511,6 @@
       <c r="U529" s="4"/>
       <c r="V529" s="4"/>
       <c r="W529" s="4"/>
-      <c r="X529" s="4"/>
-      <c r="Y529" s="4"/>
     </row>
     <row r="530">
       <c r="A530" s="4"/>
@@ -15511,8 +14536,6 @@
       <c r="U530" s="4"/>
       <c r="V530" s="4"/>
       <c r="W530" s="4"/>
-      <c r="X530" s="4"/>
-      <c r="Y530" s="4"/>
     </row>
     <row r="531">
       <c r="A531" s="4"/>
@@ -15538,8 +14561,6 @@
       <c r="U531" s="4"/>
       <c r="V531" s="4"/>
       <c r="W531" s="4"/>
-      <c r="X531" s="4"/>
-      <c r="Y531" s="4"/>
     </row>
     <row r="532">
       <c r="A532" s="4"/>
@@ -15565,8 +14586,6 @@
       <c r="U532" s="4"/>
       <c r="V532" s="4"/>
       <c r="W532" s="4"/>
-      <c r="X532" s="4"/>
-      <c r="Y532" s="4"/>
     </row>
     <row r="533">
       <c r="A533" s="4"/>
@@ -15592,8 +14611,6 @@
       <c r="U533" s="4"/>
       <c r="V533" s="4"/>
       <c r="W533" s="4"/>
-      <c r="X533" s="4"/>
-      <c r="Y533" s="4"/>
     </row>
     <row r="534">
       <c r="A534" s="4"/>
@@ -15619,8 +14636,6 @@
       <c r="U534" s="4"/>
       <c r="V534" s="4"/>
       <c r="W534" s="4"/>
-      <c r="X534" s="4"/>
-      <c r="Y534" s="4"/>
     </row>
     <row r="535">
       <c r="A535" s="4"/>
@@ -15646,8 +14661,6 @@
       <c r="U535" s="4"/>
       <c r="V535" s="4"/>
       <c r="W535" s="4"/>
-      <c r="X535" s="4"/>
-      <c r="Y535" s="4"/>
     </row>
     <row r="536">
       <c r="A536" s="4"/>
@@ -15673,8 +14686,6 @@
       <c r="U536" s="4"/>
       <c r="V536" s="4"/>
       <c r="W536" s="4"/>
-      <c r="X536" s="4"/>
-      <c r="Y536" s="4"/>
     </row>
     <row r="537">
       <c r="A537" s="4"/>
@@ -15700,8 +14711,6 @@
       <c r="U537" s="4"/>
       <c r="V537" s="4"/>
       <c r="W537" s="4"/>
-      <c r="X537" s="4"/>
-      <c r="Y537" s="4"/>
     </row>
     <row r="538">
       <c r="A538" s="4"/>
@@ -15727,8 +14736,6 @@
       <c r="U538" s="4"/>
       <c r="V538" s="4"/>
       <c r="W538" s="4"/>
-      <c r="X538" s="4"/>
-      <c r="Y538" s="4"/>
     </row>
     <row r="539">
       <c r="A539" s="4"/>
@@ -15754,8 +14761,6 @@
       <c r="U539" s="4"/>
       <c r="V539" s="4"/>
       <c r="W539" s="4"/>
-      <c r="X539" s="4"/>
-      <c r="Y539" s="4"/>
     </row>
     <row r="540">
       <c r="A540" s="4"/>
@@ -15781,8 +14786,6 @@
       <c r="U540" s="4"/>
       <c r="V540" s="4"/>
       <c r="W540" s="4"/>
-      <c r="X540" s="4"/>
-      <c r="Y540" s="4"/>
     </row>
     <row r="541">
       <c r="A541" s="4"/>
@@ -15808,8 +14811,6 @@
       <c r="U541" s="4"/>
       <c r="V541" s="4"/>
       <c r="W541" s="4"/>
-      <c r="X541" s="4"/>
-      <c r="Y541" s="4"/>
     </row>
     <row r="542">
       <c r="A542" s="4"/>
@@ -15835,8 +14836,6 @@
       <c r="U542" s="4"/>
       <c r="V542" s="4"/>
       <c r="W542" s="4"/>
-      <c r="X542" s="4"/>
-      <c r="Y542" s="4"/>
     </row>
     <row r="543">
       <c r="A543" s="4"/>
@@ -15862,8 +14861,6 @@
       <c r="U543" s="4"/>
       <c r="V543" s="4"/>
       <c r="W543" s="4"/>
-      <c r="X543" s="4"/>
-      <c r="Y543" s="4"/>
     </row>
     <row r="544">
       <c r="A544" s="4"/>
@@ -15889,8 +14886,6 @@
       <c r="U544" s="4"/>
       <c r="V544" s="4"/>
       <c r="W544" s="4"/>
-      <c r="X544" s="4"/>
-      <c r="Y544" s="4"/>
     </row>
     <row r="545">
       <c r="A545" s="4"/>
@@ -15916,8 +14911,6 @@
       <c r="U545" s="4"/>
       <c r="V545" s="4"/>
       <c r="W545" s="4"/>
-      <c r="X545" s="4"/>
-      <c r="Y545" s="4"/>
     </row>
     <row r="546">
       <c r="A546" s="4"/>
@@ -15943,8 +14936,6 @@
       <c r="U546" s="4"/>
       <c r="V546" s="4"/>
       <c r="W546" s="4"/>
-      <c r="X546" s="4"/>
-      <c r="Y546" s="4"/>
     </row>
     <row r="547">
       <c r="A547" s="4"/>
@@ -15970,8 +14961,6 @@
       <c r="U547" s="4"/>
       <c r="V547" s="4"/>
       <c r="W547" s="4"/>
-      <c r="X547" s="4"/>
-      <c r="Y547" s="4"/>
     </row>
     <row r="548">
       <c r="A548" s="4"/>
@@ -15997,8 +14986,6 @@
       <c r="U548" s="4"/>
       <c r="V548" s="4"/>
       <c r="W548" s="4"/>
-      <c r="X548" s="4"/>
-      <c r="Y548" s="4"/>
     </row>
     <row r="549">
       <c r="A549" s="4"/>
@@ -16024,8 +15011,6 @@
       <c r="U549" s="4"/>
       <c r="V549" s="4"/>
       <c r="W549" s="4"/>
-      <c r="X549" s="4"/>
-      <c r="Y549" s="4"/>
     </row>
     <row r="550">
       <c r="A550" s="4"/>
@@ -16051,8 +15036,6 @@
       <c r="U550" s="4"/>
       <c r="V550" s="4"/>
       <c r="W550" s="4"/>
-      <c r="X550" s="4"/>
-      <c r="Y550" s="4"/>
     </row>
     <row r="551">
       <c r="A551" s="4"/>
@@ -16078,8 +15061,6 @@
       <c r="U551" s="4"/>
       <c r="V551" s="4"/>
       <c r="W551" s="4"/>
-      <c r="X551" s="4"/>
-      <c r="Y551" s="4"/>
     </row>
     <row r="552">
       <c r="A552" s="4"/>
@@ -16105,8 +15086,6 @@
       <c r="U552" s="4"/>
       <c r="V552" s="4"/>
       <c r="W552" s="4"/>
-      <c r="X552" s="4"/>
-      <c r="Y552" s="4"/>
     </row>
     <row r="553">
       <c r="A553" s="4"/>
@@ -16132,8 +15111,6 @@
       <c r="U553" s="4"/>
       <c r="V553" s="4"/>
       <c r="W553" s="4"/>
-      <c r="X553" s="4"/>
-      <c r="Y553" s="4"/>
     </row>
     <row r="554">
       <c r="A554" s="4"/>
@@ -16159,8 +15136,6 @@
       <c r="U554" s="4"/>
       <c r="V554" s="4"/>
       <c r="W554" s="4"/>
-      <c r="X554" s="4"/>
-      <c r="Y554" s="4"/>
     </row>
     <row r="555">
       <c r="A555" s="4"/>
@@ -16186,8 +15161,6 @@
       <c r="U555" s="4"/>
       <c r="V555" s="4"/>
       <c r="W555" s="4"/>
-      <c r="X555" s="4"/>
-      <c r="Y555" s="4"/>
     </row>
     <row r="556">
       <c r="A556" s="4"/>
@@ -16213,8 +15186,6 @@
       <c r="U556" s="4"/>
       <c r="V556" s="4"/>
       <c r="W556" s="4"/>
-      <c r="X556" s="4"/>
-      <c r="Y556" s="4"/>
     </row>
     <row r="557">
       <c r="A557" s="4"/>
@@ -16240,8 +15211,6 @@
       <c r="U557" s="4"/>
       <c r="V557" s="4"/>
       <c r="W557" s="4"/>
-      <c r="X557" s="4"/>
-      <c r="Y557" s="4"/>
     </row>
     <row r="558">
       <c r="A558" s="4"/>
@@ -16267,8 +15236,6 @@
       <c r="U558" s="4"/>
       <c r="V558" s="4"/>
       <c r="W558" s="4"/>
-      <c r="X558" s="4"/>
-      <c r="Y558" s="4"/>
     </row>
     <row r="559">
       <c r="A559" s="4"/>
@@ -16294,8 +15261,6 @@
       <c r="U559" s="4"/>
       <c r="V559" s="4"/>
       <c r="W559" s="4"/>
-      <c r="X559" s="4"/>
-      <c r="Y559" s="4"/>
     </row>
     <row r="560">
       <c r="A560" s="4"/>
@@ -16321,8 +15286,6 @@
       <c r="U560" s="4"/>
       <c r="V560" s="4"/>
       <c r="W560" s="4"/>
-      <c r="X560" s="4"/>
-      <c r="Y560" s="4"/>
     </row>
     <row r="561">
       <c r="A561" s="4"/>
@@ -16348,8 +15311,6 @@
       <c r="U561" s="4"/>
       <c r="V561" s="4"/>
       <c r="W561" s="4"/>
-      <c r="X561" s="4"/>
-      <c r="Y561" s="4"/>
     </row>
     <row r="562">
       <c r="A562" s="4"/>
@@ -16375,8 +15336,6 @@
       <c r="U562" s="4"/>
       <c r="V562" s="4"/>
       <c r="W562" s="4"/>
-      <c r="X562" s="4"/>
-      <c r="Y562" s="4"/>
     </row>
     <row r="563">
       <c r="A563" s="4"/>
@@ -16402,8 +15361,6 @@
       <c r="U563" s="4"/>
       <c r="V563" s="4"/>
       <c r="W563" s="4"/>
-      <c r="X563" s="4"/>
-      <c r="Y563" s="4"/>
     </row>
     <row r="564">
       <c r="A564" s="4"/>
@@ -16429,8 +15386,6 @@
       <c r="U564" s="4"/>
       <c r="V564" s="4"/>
       <c r="W564" s="4"/>
-      <c r="X564" s="4"/>
-      <c r="Y564" s="4"/>
     </row>
     <row r="565">
       <c r="A565" s="4"/>
@@ -16456,8 +15411,6 @@
       <c r="U565" s="4"/>
       <c r="V565" s="4"/>
       <c r="W565" s="4"/>
-      <c r="X565" s="4"/>
-      <c r="Y565" s="4"/>
     </row>
     <row r="566">
       <c r="A566" s="4"/>
@@ -16483,8 +15436,6 @@
       <c r="U566" s="4"/>
       <c r="V566" s="4"/>
       <c r="W566" s="4"/>
-      <c r="X566" s="4"/>
-      <c r="Y566" s="4"/>
     </row>
     <row r="567">
       <c r="A567" s="4"/>
@@ -16510,8 +15461,6 @@
       <c r="U567" s="4"/>
       <c r="V567" s="4"/>
       <c r="W567" s="4"/>
-      <c r="X567" s="4"/>
-      <c r="Y567" s="4"/>
     </row>
     <row r="568">
       <c r="A568" s="4"/>
@@ -16537,8 +15486,6 @@
       <c r="U568" s="4"/>
       <c r="V568" s="4"/>
       <c r="W568" s="4"/>
-      <c r="X568" s="4"/>
-      <c r="Y568" s="4"/>
     </row>
     <row r="569">
       <c r="A569" s="4"/>
@@ -16564,8 +15511,6 @@
       <c r="U569" s="4"/>
       <c r="V569" s="4"/>
       <c r="W569" s="4"/>
-      <c r="X569" s="4"/>
-      <c r="Y569" s="4"/>
     </row>
     <row r="570">
       <c r="A570" s="4"/>
@@ -16591,8 +15536,6 @@
       <c r="U570" s="4"/>
       <c r="V570" s="4"/>
       <c r="W570" s="4"/>
-      <c r="X570" s="4"/>
-      <c r="Y570" s="4"/>
     </row>
     <row r="571">
       <c r="A571" s="4"/>
@@ -16618,8 +15561,6 @@
       <c r="U571" s="4"/>
       <c r="V571" s="4"/>
       <c r="W571" s="4"/>
-      <c r="X571" s="4"/>
-      <c r="Y571" s="4"/>
     </row>
     <row r="572">
       <c r="A572" s="4"/>
@@ -16645,8 +15586,6 @@
       <c r="U572" s="4"/>
       <c r="V572" s="4"/>
       <c r="W572" s="4"/>
-      <c r="X572" s="4"/>
-      <c r="Y572" s="4"/>
     </row>
     <row r="573">
       <c r="A573" s="4"/>
@@ -16672,8 +15611,6 @@
       <c r="U573" s="4"/>
       <c r="V573" s="4"/>
       <c r="W573" s="4"/>
-      <c r="X573" s="4"/>
-      <c r="Y573" s="4"/>
     </row>
     <row r="574">
       <c r="A574" s="4"/>
@@ -16699,8 +15636,6 @@
       <c r="U574" s="4"/>
       <c r="V574" s="4"/>
       <c r="W574" s="4"/>
-      <c r="X574" s="4"/>
-      <c r="Y574" s="4"/>
     </row>
     <row r="575">
       <c r="A575" s="4"/>
@@ -16726,8 +15661,6 @@
       <c r="U575" s="4"/>
       <c r="V575" s="4"/>
       <c r="W575" s="4"/>
-      <c r="X575" s="4"/>
-      <c r="Y575" s="4"/>
     </row>
     <row r="576">
       <c r="A576" s="4"/>
@@ -16753,8 +15686,6 @@
       <c r="U576" s="4"/>
       <c r="V576" s="4"/>
       <c r="W576" s="4"/>
-      <c r="X576" s="4"/>
-      <c r="Y576" s="4"/>
     </row>
     <row r="577">
       <c r="A577" s="4"/>
@@ -16780,8 +15711,6 @@
       <c r="U577" s="4"/>
       <c r="V577" s="4"/>
       <c r="W577" s="4"/>
-      <c r="X577" s="4"/>
-      <c r="Y577" s="4"/>
     </row>
     <row r="578">
       <c r="A578" s="4"/>
@@ -16807,8 +15736,6 @@
       <c r="U578" s="4"/>
       <c r="V578" s="4"/>
       <c r="W578" s="4"/>
-      <c r="X578" s="4"/>
-      <c r="Y578" s="4"/>
     </row>
     <row r="579">
       <c r="A579" s="4"/>
@@ -16834,8 +15761,6 @@
       <c r="U579" s="4"/>
       <c r="V579" s="4"/>
       <c r="W579" s="4"/>
-      <c r="X579" s="4"/>
-      <c r="Y579" s="4"/>
     </row>
     <row r="580">
       <c r="A580" s="4"/>
@@ -16861,8 +15786,6 @@
       <c r="U580" s="4"/>
       <c r="V580" s="4"/>
       <c r="W580" s="4"/>
-      <c r="X580" s="4"/>
-      <c r="Y580" s="4"/>
     </row>
     <row r="581">
       <c r="A581" s="4"/>
@@ -16888,8 +15811,6 @@
       <c r="U581" s="4"/>
       <c r="V581" s="4"/>
       <c r="W581" s="4"/>
-      <c r="X581" s="4"/>
-      <c r="Y581" s="4"/>
     </row>
     <row r="582">
       <c r="A582" s="4"/>
@@ -16915,8 +15836,6 @@
       <c r="U582" s="4"/>
       <c r="V582" s="4"/>
       <c r="W582" s="4"/>
-      <c r="X582" s="4"/>
-      <c r="Y582" s="4"/>
     </row>
     <row r="583">
       <c r="A583" s="4"/>
@@ -16942,8 +15861,6 @@
       <c r="U583" s="4"/>
       <c r="V583" s="4"/>
       <c r="W583" s="4"/>
-      <c r="X583" s="4"/>
-      <c r="Y583" s="4"/>
     </row>
     <row r="584">
       <c r="A584" s="4"/>
@@ -16969,8 +15886,6 @@
       <c r="U584" s="4"/>
       <c r="V584" s="4"/>
       <c r="W584" s="4"/>
-      <c r="X584" s="4"/>
-      <c r="Y584" s="4"/>
     </row>
     <row r="585">
       <c r="A585" s="4"/>
@@ -16996,8 +15911,6 @@
       <c r="U585" s="4"/>
       <c r="V585" s="4"/>
       <c r="W585" s="4"/>
-      <c r="X585" s="4"/>
-      <c r="Y585" s="4"/>
     </row>
     <row r="586">
       <c r="A586" s="4"/>
@@ -17023,8 +15936,6 @@
       <c r="U586" s="4"/>
       <c r="V586" s="4"/>
       <c r="W586" s="4"/>
-      <c r="X586" s="4"/>
-      <c r="Y586" s="4"/>
     </row>
     <row r="587">
       <c r="A587" s="4"/>
@@ -17050,8 +15961,6 @@
       <c r="U587" s="4"/>
       <c r="V587" s="4"/>
       <c r="W587" s="4"/>
-      <c r="X587" s="4"/>
-      <c r="Y587" s="4"/>
     </row>
     <row r="588">
       <c r="A588" s="4"/>
@@ -17077,8 +15986,6 @@
       <c r="U588" s="4"/>
       <c r="V588" s="4"/>
       <c r="W588" s="4"/>
-      <c r="X588" s="4"/>
-      <c r="Y588" s="4"/>
     </row>
     <row r="589">
       <c r="A589" s="4"/>
@@ -17104,8 +16011,6 @@
       <c r="U589" s="4"/>
       <c r="V589" s="4"/>
       <c r="W589" s="4"/>
-      <c r="X589" s="4"/>
-      <c r="Y589" s="4"/>
     </row>
     <row r="590">
       <c r="A590" s="4"/>
@@ -17131,8 +16036,6 @@
       <c r="U590" s="4"/>
       <c r="V590" s="4"/>
       <c r="W590" s="4"/>
-      <c r="X590" s="4"/>
-      <c r="Y590" s="4"/>
     </row>
     <row r="591">
       <c r="A591" s="4"/>
@@ -17158,8 +16061,6 @@
       <c r="U591" s="4"/>
       <c r="V591" s="4"/>
       <c r="W591" s="4"/>
-      <c r="X591" s="4"/>
-      <c r="Y591" s="4"/>
     </row>
     <row r="592">
       <c r="A592" s="4"/>
@@ -17185,8 +16086,6 @@
       <c r="U592" s="4"/>
       <c r="V592" s="4"/>
       <c r="W592" s="4"/>
-      <c r="X592" s="4"/>
-      <c r="Y592" s="4"/>
     </row>
     <row r="593">
       <c r="A593" s="4"/>
@@ -17212,8 +16111,6 @@
       <c r="U593" s="4"/>
       <c r="V593" s="4"/>
       <c r="W593" s="4"/>
-      <c r="X593" s="4"/>
-      <c r="Y593" s="4"/>
     </row>
     <row r="594">
       <c r="A594" s="4"/>
@@ -17239,8 +16136,6 @@
       <c r="U594" s="4"/>
       <c r="V594" s="4"/>
       <c r="W594" s="4"/>
-      <c r="X594" s="4"/>
-      <c r="Y594" s="4"/>
     </row>
     <row r="595">
       <c r="A595" s="4"/>
@@ -17266,8 +16161,6 @@
       <c r="U595" s="4"/>
       <c r="V595" s="4"/>
       <c r="W595" s="4"/>
-      <c r="X595" s="4"/>
-      <c r="Y595" s="4"/>
     </row>
     <row r="596">
       <c r="A596" s="4"/>
@@ -17293,8 +16186,6 @@
       <c r="U596" s="4"/>
       <c r="V596" s="4"/>
       <c r="W596" s="4"/>
-      <c r="X596" s="4"/>
-      <c r="Y596" s="4"/>
     </row>
     <row r="597">
       <c r="A597" s="4"/>
@@ -17320,8 +16211,6 @@
       <c r="U597" s="4"/>
       <c r="V597" s="4"/>
       <c r="W597" s="4"/>
-      <c r="X597" s="4"/>
-      <c r="Y597" s="4"/>
     </row>
     <row r="598">
       <c r="A598" s="4"/>
@@ -17347,8 +16236,6 @@
       <c r="U598" s="4"/>
       <c r="V598" s="4"/>
       <c r="W598" s="4"/>
-      <c r="X598" s="4"/>
-      <c r="Y598" s="4"/>
     </row>
     <row r="599">
       <c r="A599" s="4"/>
@@ -17374,8 +16261,6 @@
       <c r="U599" s="4"/>
       <c r="V599" s="4"/>
       <c r="W599" s="4"/>
-      <c r="X599" s="4"/>
-      <c r="Y599" s="4"/>
     </row>
     <row r="600">
       <c r="A600" s="4"/>
@@ -17401,8 +16286,6 @@
       <c r="U600" s="4"/>
       <c r="V600" s="4"/>
       <c r="W600" s="4"/>
-      <c r="X600" s="4"/>
-      <c r="Y600" s="4"/>
     </row>
     <row r="601">
       <c r="A601" s="4"/>
@@ -17428,8 +16311,6 @@
       <c r="U601" s="4"/>
       <c r="V601" s="4"/>
       <c r="W601" s="4"/>
-      <c r="X601" s="4"/>
-      <c r="Y601" s="4"/>
     </row>
     <row r="602">
       <c r="A602" s="4"/>
@@ -17455,8 +16336,6 @@
       <c r="U602" s="4"/>
       <c r="V602" s="4"/>
       <c r="W602" s="4"/>
-      <c r="X602" s="4"/>
-      <c r="Y602" s="4"/>
     </row>
     <row r="603">
       <c r="A603" s="4"/>
@@ -17482,8 +16361,6 @@
       <c r="U603" s="4"/>
       <c r="V603" s="4"/>
       <c r="W603" s="4"/>
-      <c r="X603" s="4"/>
-      <c r="Y603" s="4"/>
     </row>
     <row r="604">
       <c r="A604" s="4"/>
@@ -17509,8 +16386,6 @@
       <c r="U604" s="4"/>
       <c r="V604" s="4"/>
       <c r="W604" s="4"/>
-      <c r="X604" s="4"/>
-      <c r="Y604" s="4"/>
     </row>
     <row r="605">
       <c r="A605" s="4"/>
@@ -17536,8 +16411,6 @@
       <c r="U605" s="4"/>
       <c r="V605" s="4"/>
       <c r="W605" s="4"/>
-      <c r="X605" s="4"/>
-      <c r="Y605" s="4"/>
     </row>
     <row r="606">
       <c r="A606" s="4"/>
@@ -17563,8 +16436,6 @@
       <c r="U606" s="4"/>
       <c r="V606" s="4"/>
       <c r="W606" s="4"/>
-      <c r="X606" s="4"/>
-      <c r="Y606" s="4"/>
     </row>
     <row r="607">
       <c r="A607" s="4"/>
@@ -17590,8 +16461,6 @@
       <c r="U607" s="4"/>
       <c r="V607" s="4"/>
       <c r="W607" s="4"/>
-      <c r="X607" s="4"/>
-      <c r="Y607" s="4"/>
     </row>
     <row r="608">
       <c r="A608" s="4"/>
@@ -17617,8 +16486,6 @@
       <c r="U608" s="4"/>
       <c r="V608" s="4"/>
       <c r="W608" s="4"/>
-      <c r="X608" s="4"/>
-      <c r="Y608" s="4"/>
     </row>
     <row r="609">
       <c r="A609" s="4"/>
@@ -17644,8 +16511,6 @@
       <c r="U609" s="4"/>
       <c r="V609" s="4"/>
       <c r="W609" s="4"/>
-      <c r="X609" s="4"/>
-      <c r="Y609" s="4"/>
     </row>
     <row r="610">
       <c r="A610" s="4"/>
@@ -17671,8 +16536,6 @@
       <c r="U610" s="4"/>
       <c r="V610" s="4"/>
       <c r="W610" s="4"/>
-      <c r="X610" s="4"/>
-      <c r="Y610" s="4"/>
     </row>
     <row r="611">
       <c r="A611" s="4"/>
@@ -17698,8 +16561,6 @@
       <c r="U611" s="4"/>
       <c r="V611" s="4"/>
       <c r="W611" s="4"/>
-      <c r="X611" s="4"/>
-      <c r="Y611" s="4"/>
     </row>
     <row r="612">
       <c r="A612" s="4"/>
@@ -17725,8 +16586,6 @@
       <c r="U612" s="4"/>
       <c r="V612" s="4"/>
       <c r="W612" s="4"/>
-      <c r="X612" s="4"/>
-      <c r="Y612" s="4"/>
     </row>
     <row r="613">
       <c r="A613" s="4"/>
@@ -17752,8 +16611,6 @@
       <c r="U613" s="4"/>
       <c r="V613" s="4"/>
       <c r="W613" s="4"/>
-      <c r="X613" s="4"/>
-      <c r="Y613" s="4"/>
     </row>
     <row r="614">
       <c r="A614" s="4"/>
@@ -17779,8 +16636,6 @@
       <c r="U614" s="4"/>
       <c r="V614" s="4"/>
       <c r="W614" s="4"/>
-      <c r="X614" s="4"/>
-      <c r="Y614" s="4"/>
     </row>
     <row r="615">
       <c r="A615" s="4"/>
@@ -17806,8 +16661,6 @@
       <c r="U615" s="4"/>
       <c r="V615" s="4"/>
       <c r="W615" s="4"/>
-      <c r="X615" s="4"/>
-      <c r="Y615" s="4"/>
     </row>
     <row r="616">
       <c r="A616" s="4"/>
@@ -17833,8 +16686,6 @@
       <c r="U616" s="4"/>
       <c r="V616" s="4"/>
       <c r="W616" s="4"/>
-      <c r="X616" s="4"/>
-      <c r="Y616" s="4"/>
     </row>
     <row r="617">
       <c r="A617" s="4"/>
@@ -17860,8 +16711,6 @@
       <c r="U617" s="4"/>
       <c r="V617" s="4"/>
       <c r="W617" s="4"/>
-      <c r="X617" s="4"/>
-      <c r="Y617" s="4"/>
     </row>
     <row r="618">
       <c r="A618" s="4"/>
@@ -17887,8 +16736,6 @@
       <c r="U618" s="4"/>
       <c r="V618" s="4"/>
       <c r="W618" s="4"/>
-      <c r="X618" s="4"/>
-      <c r="Y618" s="4"/>
     </row>
     <row r="619">
       <c r="A619" s="4"/>
@@ -17914,8 +16761,6 @@
       <c r="U619" s="4"/>
       <c r="V619" s="4"/>
       <c r="W619" s="4"/>
-      <c r="X619" s="4"/>
-      <c r="Y619" s="4"/>
     </row>
     <row r="620">
       <c r="A620" s="4"/>
@@ -17941,8 +16786,6 @@
       <c r="U620" s="4"/>
       <c r="V620" s="4"/>
       <c r="W620" s="4"/>
-      <c r="X620" s="4"/>
-      <c r="Y620" s="4"/>
     </row>
     <row r="621">
       <c r="A621" s="4"/>
@@ -17968,8 +16811,6 @@
       <c r="U621" s="4"/>
       <c r="V621" s="4"/>
       <c r="W621" s="4"/>
-      <c r="X621" s="4"/>
-      <c r="Y621" s="4"/>
     </row>
     <row r="622">
       <c r="A622" s="4"/>
@@ -17995,8 +16836,6 @@
       <c r="U622" s="4"/>
       <c r="V622" s="4"/>
       <c r="W622" s="4"/>
-      <c r="X622" s="4"/>
-      <c r="Y622" s="4"/>
     </row>
     <row r="623">
       <c r="A623" s="4"/>
@@ -18022,8 +16861,6 @@
       <c r="U623" s="4"/>
       <c r="V623" s="4"/>
       <c r="W623" s="4"/>
-      <c r="X623" s="4"/>
-      <c r="Y623" s="4"/>
     </row>
     <row r="624">
       <c r="A624" s="4"/>
@@ -18049,8 +16886,6 @@
       <c r="U624" s="4"/>
       <c r="V624" s="4"/>
       <c r="W624" s="4"/>
-      <c r="X624" s="4"/>
-      <c r="Y624" s="4"/>
     </row>
     <row r="625">
       <c r="A625" s="4"/>
@@ -18076,8 +16911,6 @@
       <c r="U625" s="4"/>
       <c r="V625" s="4"/>
       <c r="W625" s="4"/>
-      <c r="X625" s="4"/>
-      <c r="Y625" s="4"/>
     </row>
     <row r="626">
       <c r="A626" s="4"/>
@@ -18103,8 +16936,6 @@
       <c r="U626" s="4"/>
       <c r="V626" s="4"/>
       <c r="W626" s="4"/>
-      <c r="X626" s="4"/>
-      <c r="Y626" s="4"/>
     </row>
     <row r="627">
       <c r="A627" s="4"/>
@@ -18130,8 +16961,6 @@
       <c r="U627" s="4"/>
       <c r="V627" s="4"/>
       <c r="W627" s="4"/>
-      <c r="X627" s="4"/>
-      <c r="Y627" s="4"/>
     </row>
     <row r="628">
       <c r="A628" s="4"/>
@@ -18157,8 +16986,6 @@
       <c r="U628" s="4"/>
       <c r="V628" s="4"/>
       <c r="W628" s="4"/>
-      <c r="X628" s="4"/>
-      <c r="Y628" s="4"/>
     </row>
     <row r="629">
       <c r="A629" s="4"/>
@@ -18184,8 +17011,6 @@
       <c r="U629" s="4"/>
       <c r="V629" s="4"/>
       <c r="W629" s="4"/>
-      <c r="X629" s="4"/>
-      <c r="Y629" s="4"/>
     </row>
     <row r="630">
       <c r="A630" s="4"/>
@@ -18211,8 +17036,6 @@
       <c r="U630" s="4"/>
       <c r="V630" s="4"/>
       <c r="W630" s="4"/>
-      <c r="X630" s="4"/>
-      <c r="Y630" s="4"/>
     </row>
     <row r="631">
       <c r="A631" s="4"/>
@@ -18238,8 +17061,6 @@
       <c r="U631" s="4"/>
       <c r="V631" s="4"/>
       <c r="W631" s="4"/>
-      <c r="X631" s="4"/>
-      <c r="Y631" s="4"/>
     </row>
     <row r="632">
       <c r="A632" s="4"/>
@@ -18265,8 +17086,6 @@
       <c r="U632" s="4"/>
       <c r="V632" s="4"/>
       <c r="W632" s="4"/>
-      <c r="X632" s="4"/>
-      <c r="Y632" s="4"/>
     </row>
     <row r="633">
       <c r="A633" s="4"/>
@@ -18292,8 +17111,6 @@
       <c r="U633" s="4"/>
       <c r="V633" s="4"/>
       <c r="W633" s="4"/>
-      <c r="X633" s="4"/>
-      <c r="Y633" s="4"/>
     </row>
     <row r="634">
       <c r="A634" s="4"/>
@@ -18319,8 +17136,6 @@
       <c r="U634" s="4"/>
       <c r="V634" s="4"/>
       <c r="W634" s="4"/>
-      <c r="X634" s="4"/>
-      <c r="Y634" s="4"/>
     </row>
     <row r="635">
       <c r="A635" s="4"/>
@@ -18346,8 +17161,6 @@
       <c r="U635" s="4"/>
       <c r="V635" s="4"/>
       <c r="W635" s="4"/>
-      <c r="X635" s="4"/>
-      <c r="Y635" s="4"/>
     </row>
     <row r="636">
       <c r="A636" s="4"/>
@@ -18373,8 +17186,6 @@
       <c r="U636" s="4"/>
       <c r="V636" s="4"/>
       <c r="W636" s="4"/>
-      <c r="X636" s="4"/>
-      <c r="Y636" s="4"/>
     </row>
     <row r="637">
       <c r="A637" s="4"/>
@@ -18400,8 +17211,6 @@
       <c r="U637" s="4"/>
       <c r="V637" s="4"/>
       <c r="W637" s="4"/>
-      <c r="X637" s="4"/>
-      <c r="Y637" s="4"/>
     </row>
     <row r="638">
       <c r="A638" s="4"/>
@@ -18427,8 +17236,6 @@
       <c r="U638" s="4"/>
       <c r="V638" s="4"/>
       <c r="W638" s="4"/>
-      <c r="X638" s="4"/>
-      <c r="Y638" s="4"/>
     </row>
     <row r="639">
       <c r="A639" s="4"/>
@@ -18454,8 +17261,6 @@
       <c r="U639" s="4"/>
       <c r="V639" s="4"/>
       <c r="W639" s="4"/>
-      <c r="X639" s="4"/>
-      <c r="Y639" s="4"/>
     </row>
     <row r="640">
       <c r="A640" s="4"/>
@@ -18481,8 +17286,6 @@
       <c r="U640" s="4"/>
       <c r="V640" s="4"/>
       <c r="W640" s="4"/>
-      <c r="X640" s="4"/>
-      <c r="Y640" s="4"/>
     </row>
     <row r="641">
       <c r="A641" s="4"/>
@@ -18508,8 +17311,6 @@
       <c r="U641" s="4"/>
       <c r="V641" s="4"/>
       <c r="W641" s="4"/>
-      <c r="X641" s="4"/>
-      <c r="Y641" s="4"/>
     </row>
     <row r="642">
       <c r="A642" s="4"/>
@@ -18535,8 +17336,6 @@
       <c r="U642" s="4"/>
       <c r="V642" s="4"/>
       <c r="W642" s="4"/>
-      <c r="X642" s="4"/>
-      <c r="Y642" s="4"/>
     </row>
     <row r="643">
       <c r="A643" s="4"/>
@@ -18562,8 +17361,6 @@
       <c r="U643" s="4"/>
       <c r="V643" s="4"/>
       <c r="W643" s="4"/>
-      <c r="X643" s="4"/>
-      <c r="Y643" s="4"/>
     </row>
     <row r="644">
       <c r="A644" s="4"/>
@@ -18589,8 +17386,6 @@
       <c r="U644" s="4"/>
       <c r="V644" s="4"/>
       <c r="W644" s="4"/>
-      <c r="X644" s="4"/>
-      <c r="Y644" s="4"/>
     </row>
     <row r="645">
       <c r="A645" s="4"/>
@@ -18616,8 +17411,6 @@
       <c r="U645" s="4"/>
       <c r="V645" s="4"/>
       <c r="W645" s="4"/>
-      <c r="X645" s="4"/>
-      <c r="Y645" s="4"/>
     </row>
     <row r="646">
       <c r="A646" s="4"/>
@@ -18643,8 +17436,6 @@
       <c r="U646" s="4"/>
       <c r="V646" s="4"/>
       <c r="W646" s="4"/>
-      <c r="X646" s="4"/>
-      <c r="Y646" s="4"/>
     </row>
     <row r="647">
       <c r="A647" s="4"/>
@@ -18670,8 +17461,6 @@
       <c r="U647" s="4"/>
       <c r="V647" s="4"/>
       <c r="W647" s="4"/>
-      <c r="X647" s="4"/>
-      <c r="Y647" s="4"/>
     </row>
     <row r="648">
       <c r="A648" s="4"/>
@@ -18697,8 +17486,6 @@
       <c r="U648" s="4"/>
       <c r="V648" s="4"/>
       <c r="W648" s="4"/>
-      <c r="X648" s="4"/>
-      <c r="Y648" s="4"/>
     </row>
     <row r="649">
       <c r="A649" s="4"/>
@@ -18724,8 +17511,6 @@
       <c r="U649" s="4"/>
       <c r="V649" s="4"/>
       <c r="W649" s="4"/>
-      <c r="X649" s="4"/>
-      <c r="Y649" s="4"/>
     </row>
     <row r="650">
       <c r="A650" s="4"/>
@@ -18751,8 +17536,6 @@
       <c r="U650" s="4"/>
       <c r="V650" s="4"/>
       <c r="W650" s="4"/>
-      <c r="X650" s="4"/>
-      <c r="Y650" s="4"/>
     </row>
     <row r="651">
       <c r="A651" s="4"/>
@@ -18778,8 +17561,6 @@
       <c r="U651" s="4"/>
       <c r="V651" s="4"/>
       <c r="W651" s="4"/>
-      <c r="X651" s="4"/>
-      <c r="Y651" s="4"/>
     </row>
     <row r="652">
       <c r="A652" s="4"/>
@@ -18805,8 +17586,6 @@
       <c r="U652" s="4"/>
       <c r="V652" s="4"/>
       <c r="W652" s="4"/>
-      <c r="X652" s="4"/>
-      <c r="Y652" s="4"/>
     </row>
     <row r="653">
       <c r="A653" s="4"/>
@@ -18832,8 +17611,6 @@
       <c r="U653" s="4"/>
       <c r="V653" s="4"/>
       <c r="W653" s="4"/>
-      <c r="X653" s="4"/>
-      <c r="Y653" s="4"/>
     </row>
     <row r="654">
       <c r="A654" s="4"/>
@@ -18859,8 +17636,6 @@
       <c r="U654" s="4"/>
       <c r="V654" s="4"/>
       <c r="W654" s="4"/>
-      <c r="X654" s="4"/>
-      <c r="Y654" s="4"/>
     </row>
     <row r="655">
       <c r="A655" s="4"/>
@@ -18886,8 +17661,6 @@
       <c r="U655" s="4"/>
       <c r="V655" s="4"/>
       <c r="W655" s="4"/>
-      <c r="X655" s="4"/>
-      <c r="Y655" s="4"/>
     </row>
     <row r="656">
       <c r="A656" s="4"/>
@@ -18913,8 +17686,6 @@
       <c r="U656" s="4"/>
       <c r="V656" s="4"/>
       <c r="W656" s="4"/>
-      <c r="X656" s="4"/>
-      <c r="Y656" s="4"/>
     </row>
     <row r="657">
       <c r="A657" s="4"/>
@@ -18940,8 +17711,6 @@
       <c r="U657" s="4"/>
       <c r="V657" s="4"/>
       <c r="W657" s="4"/>
-      <c r="X657" s="4"/>
-      <c r="Y657" s="4"/>
     </row>
     <row r="658">
       <c r="A658" s="4"/>
@@ -18967,8 +17736,6 @@
       <c r="U658" s="4"/>
       <c r="V658" s="4"/>
       <c r="W658" s="4"/>
-      <c r="X658" s="4"/>
-      <c r="Y658" s="4"/>
     </row>
     <row r="659">
       <c r="A659" s="4"/>
@@ -18994,8 +17761,6 @@
       <c r="U659" s="4"/>
       <c r="V659" s="4"/>
       <c r="W659" s="4"/>
-      <c r="X659" s="4"/>
-      <c r="Y659" s="4"/>
     </row>
     <row r="660">
       <c r="A660" s="4"/>
@@ -19021,8 +17786,6 @@
       <c r="U660" s="4"/>
       <c r="V660" s="4"/>
       <c r="W660" s="4"/>
-      <c r="X660" s="4"/>
-      <c r="Y660" s="4"/>
     </row>
     <row r="661">
       <c r="A661" s="4"/>
@@ -19048,8 +17811,6 @@
       <c r="U661" s="4"/>
       <c r="V661" s="4"/>
       <c r="W661" s="4"/>
-      <c r="X661" s="4"/>
-      <c r="Y661" s="4"/>
     </row>
     <row r="662">
       <c r="A662" s="4"/>
@@ -19075,8 +17836,6 @@
       <c r="U662" s="4"/>
       <c r="V662" s="4"/>
       <c r="W662" s="4"/>
-      <c r="X662" s="4"/>
-      <c r="Y662" s="4"/>
     </row>
     <row r="663">
       <c r="A663" s="4"/>
@@ -19102,8 +17861,6 @@
       <c r="U663" s="4"/>
       <c r="V663" s="4"/>
       <c r="W663" s="4"/>
-      <c r="X663" s="4"/>
-      <c r="Y663" s="4"/>
     </row>
     <row r="664">
       <c r="A664" s="4"/>
@@ -19129,8 +17886,6 @@
       <c r="U664" s="4"/>
       <c r="V664" s="4"/>
       <c r="W664" s="4"/>
-      <c r="X664" s="4"/>
-      <c r="Y664" s="4"/>
     </row>
     <row r="665">
       <c r="A665" s="4"/>
@@ -19156,8 +17911,6 @@
       <c r="U665" s="4"/>
       <c r="V665" s="4"/>
       <c r="W665" s="4"/>
-      <c r="X665" s="4"/>
-      <c r="Y665" s="4"/>
     </row>
     <row r="666">
       <c r="A666" s="4"/>
@@ -19183,8 +17936,6 @@
       <c r="U666" s="4"/>
       <c r="V666" s="4"/>
       <c r="W666" s="4"/>
-      <c r="X666" s="4"/>
-      <c r="Y666" s="4"/>
     </row>
     <row r="667">
       <c r="A667" s="4"/>
@@ -19210,8 +17961,6 @@
       <c r="U667" s="4"/>
       <c r="V667" s="4"/>
       <c r="W667" s="4"/>
-      <c r="X667" s="4"/>
-      <c r="Y667" s="4"/>
     </row>
     <row r="668">
       <c r="A668" s="4"/>
@@ -19237,8 +17986,6 @@
       <c r="U668" s="4"/>
       <c r="V668" s="4"/>
       <c r="W668" s="4"/>
-      <c r="X668" s="4"/>
-      <c r="Y668" s="4"/>
     </row>
     <row r="669">
       <c r="A669" s="4"/>
@@ -19264,8 +18011,6 @@
       <c r="U669" s="4"/>
       <c r="V669" s="4"/>
       <c r="W669" s="4"/>
-      <c r="X669" s="4"/>
-      <c r="Y669" s="4"/>
     </row>
     <row r="670">
       <c r="A670" s="4"/>
@@ -19291,8 +18036,6 @@
       <c r="U670" s="4"/>
       <c r="V670" s="4"/>
       <c r="W670" s="4"/>
-      <c r="X670" s="4"/>
-      <c r="Y670" s="4"/>
     </row>
     <row r="671">
       <c r="A671" s="4"/>
@@ -19318,8 +18061,6 @@
       <c r="U671" s="4"/>
       <c r="V671" s="4"/>
       <c r="W671" s="4"/>
-      <c r="X671" s="4"/>
-      <c r="Y671" s="4"/>
     </row>
     <row r="672">
       <c r="A672" s="4"/>
@@ -19345,8 +18086,6 @@
       <c r="U672" s="4"/>
       <c r="V672" s="4"/>
       <c r="W672" s="4"/>
-      <c r="X672" s="4"/>
-      <c r="Y672" s="4"/>
     </row>
     <row r="673">
       <c r="A673" s="4"/>
@@ -19372,8 +18111,6 @@
       <c r="U673" s="4"/>
       <c r="V673" s="4"/>
       <c r="W673" s="4"/>
-      <c r="X673" s="4"/>
-      <c r="Y673" s="4"/>
     </row>
     <row r="674">
       <c r="A674" s="4"/>
@@ -19399,8 +18136,6 @@
       <c r="U674" s="4"/>
       <c r="V674" s="4"/>
       <c r="W674" s="4"/>
-      <c r="X674" s="4"/>
-      <c r="Y674" s="4"/>
     </row>
     <row r="675">
       <c r="A675" s="4"/>
@@ -19426,8 +18161,6 @@
       <c r="U675" s="4"/>
       <c r="V675" s="4"/>
       <c r="W675" s="4"/>
-      <c r="X675" s="4"/>
-      <c r="Y675" s="4"/>
     </row>
     <row r="676">
       <c r="A676" s="4"/>
@@ -19453,8 +18186,6 @@
       <c r="U676" s="4"/>
       <c r="V676" s="4"/>
       <c r="W676" s="4"/>
-      <c r="X676" s="4"/>
-      <c r="Y676" s="4"/>
     </row>
     <row r="677">
       <c r="A677" s="4"/>
@@ -19480,8 +18211,6 @@
       <c r="U677" s="4"/>
       <c r="V677" s="4"/>
       <c r="W677" s="4"/>
-      <c r="X677" s="4"/>
-      <c r="Y677" s="4"/>
     </row>
     <row r="678">
       <c r="A678" s="4"/>
@@ -19507,8 +18236,6 @@
       <c r="U678" s="4"/>
       <c r="V678" s="4"/>
       <c r="W678" s="4"/>
-      <c r="X678" s="4"/>
-      <c r="Y678" s="4"/>
     </row>
     <row r="679">
       <c r="A679" s="4"/>
@@ -19534,8 +18261,6 @@
       <c r="U679" s="4"/>
       <c r="V679" s="4"/>
       <c r="W679" s="4"/>
-      <c r="X679" s="4"/>
-      <c r="Y679" s="4"/>
     </row>
     <row r="680">
       <c r="A680" s="4"/>
@@ -19561,8 +18286,6 @@
       <c r="U680" s="4"/>
       <c r="V680" s="4"/>
       <c r="W680" s="4"/>
-      <c r="X680" s="4"/>
-      <c r="Y680" s="4"/>
     </row>
     <row r="681">
       <c r="A681" s="4"/>
@@ -19588,8 +18311,6 @@
       <c r="U681" s="4"/>
       <c r="V681" s="4"/>
       <c r="W681" s="4"/>
-      <c r="X681" s="4"/>
-      <c r="Y681" s="4"/>
     </row>
     <row r="682">
       <c r="A682" s="4"/>
@@ -19615,8 +18336,6 @@
       <c r="U682" s="4"/>
       <c r="V682" s="4"/>
       <c r="W682" s="4"/>
-      <c r="X682" s="4"/>
-      <c r="Y682" s="4"/>
     </row>
     <row r="683">
       <c r="A683" s="4"/>
@@ -19642,8 +18361,6 @@
       <c r="U683" s="4"/>
       <c r="V683" s="4"/>
       <c r="W683" s="4"/>
-      <c r="X683" s="4"/>
-      <c r="Y683" s="4"/>
     </row>
     <row r="684">
       <c r="A684" s="4"/>
@@ -19669,8 +18386,6 @@
       <c r="U684" s="4"/>
       <c r="V684" s="4"/>
       <c r="W684" s="4"/>
-      <c r="X684" s="4"/>
-      <c r="Y684" s="4"/>
     </row>
     <row r="685">
       <c r="A685" s="4"/>
@@ -19696,8 +18411,6 @@
       <c r="U685" s="4"/>
       <c r="V685" s="4"/>
       <c r="W685" s="4"/>
-      <c r="X685" s="4"/>
-      <c r="Y685" s="4"/>
     </row>
     <row r="686">
       <c r="A686" s="4"/>
@@ -19723,8 +18436,6 @@
       <c r="U686" s="4"/>
       <c r="V686" s="4"/>
       <c r="W686" s="4"/>
-      <c r="X686" s="4"/>
-      <c r="Y686" s="4"/>
     </row>
     <row r="687">
       <c r="A687" s="4"/>
@@ -19750,8 +18461,6 @@
       <c r="U687" s="4"/>
       <c r="V687" s="4"/>
       <c r="W687" s="4"/>
-      <c r="X687" s="4"/>
-      <c r="Y687" s="4"/>
     </row>
     <row r="688">
       <c r="A688" s="4"/>
@@ -19777,8 +18486,6 @@
       <c r="U688" s="4"/>
       <c r="V688" s="4"/>
       <c r="W688" s="4"/>
-      <c r="X688" s="4"/>
-      <c r="Y688" s="4"/>
     </row>
     <row r="689">
       <c r="A689" s="4"/>
@@ -19804,8 +18511,6 @@
       <c r="U689" s="4"/>
       <c r="V689" s="4"/>
       <c r="W689" s="4"/>
-      <c r="X689" s="4"/>
-      <c r="Y689" s="4"/>
     </row>
     <row r="690">
       <c r="A690" s="4"/>
@@ -19831,8 +18536,6 @@
       <c r="U690" s="4"/>
       <c r="V690" s="4"/>
       <c r="W690" s="4"/>
-      <c r="X690" s="4"/>
-      <c r="Y690" s="4"/>
     </row>
     <row r="691">
       <c r="A691" s="4"/>
@@ -19858,8 +18561,6 @@
       <c r="U691" s="4"/>
       <c r="V691" s="4"/>
       <c r="W691" s="4"/>
-      <c r="X691" s="4"/>
-      <c r="Y691" s="4"/>
     </row>
     <row r="692">
       <c r="A692" s="4"/>
@@ -19885,8 +18586,6 @@
       <c r="U692" s="4"/>
       <c r="V692" s="4"/>
       <c r="W692" s="4"/>
-      <c r="X692" s="4"/>
-      <c r="Y692" s="4"/>
     </row>
     <row r="693">
       <c r="A693" s="4"/>
@@ -19912,8 +18611,6 @@
       <c r="U693" s="4"/>
       <c r="V693" s="4"/>
       <c r="W693" s="4"/>
-      <c r="X693" s="4"/>
-      <c r="Y693" s="4"/>
     </row>
     <row r="694">
       <c r="A694" s="4"/>
@@ -19939,8 +18636,6 @@
       <c r="U694" s="4"/>
       <c r="V694" s="4"/>
       <c r="W694" s="4"/>
-      <c r="X694" s="4"/>
-      <c r="Y694" s="4"/>
     </row>
     <row r="695">
       <c r="A695" s="4"/>
@@ -19966,8 +18661,6 @@
       <c r="U695" s="4"/>
       <c r="V695" s="4"/>
       <c r="W695" s="4"/>
-      <c r="X695" s="4"/>
-      <c r="Y695" s="4"/>
     </row>
     <row r="696">
       <c r="A696" s="4"/>
@@ -19993,8 +18686,6 @@
       <c r="U696" s="4"/>
       <c r="V696" s="4"/>
       <c r="W696" s="4"/>
-      <c r="X696" s="4"/>
-      <c r="Y696" s="4"/>
     </row>
     <row r="697">
       <c r="A697" s="4"/>
@@ -20020,8 +18711,6 @@
       <c r="U697" s="4"/>
       <c r="V697" s="4"/>
       <c r="W697" s="4"/>
-      <c r="X697" s="4"/>
-      <c r="Y697" s="4"/>
     </row>
     <row r="698">
       <c r="A698" s="4"/>
@@ -20047,8 +18736,6 @@
       <c r="U698" s="4"/>
       <c r="V698" s="4"/>
       <c r="W698" s="4"/>
-      <c r="X698" s="4"/>
-      <c r="Y698" s="4"/>
     </row>
     <row r="699">
       <c r="A699" s="4"/>
@@ -20074,8 +18761,6 @@
       <c r="U699" s="4"/>
       <c r="V699" s="4"/>
       <c r="W699" s="4"/>
-      <c r="X699" s="4"/>
-      <c r="Y699" s="4"/>
     </row>
     <row r="700">
       <c r="A700" s="4"/>
@@ -20101,8 +18786,6 @@
       <c r="U700" s="4"/>
       <c r="V700" s="4"/>
       <c r="W700" s="4"/>
-      <c r="X700" s="4"/>
-      <c r="Y700" s="4"/>
     </row>
     <row r="701">
       <c r="A701" s="4"/>
@@ -20128,8 +18811,6 @@
       <c r="U701" s="4"/>
       <c r="V701" s="4"/>
       <c r="W701" s="4"/>
-      <c r="X701" s="4"/>
-      <c r="Y701" s="4"/>
     </row>
     <row r="702">
       <c r="A702" s="4"/>
@@ -20155,8 +18836,6 @@
       <c r="U702" s="4"/>
       <c r="V702" s="4"/>
       <c r="W702" s="4"/>
-      <c r="X702" s="4"/>
-      <c r="Y702" s="4"/>
     </row>
     <row r="703">
       <c r="A703" s="4"/>
@@ -20182,8 +18861,6 @@
       <c r="U703" s="4"/>
       <c r="V703" s="4"/>
       <c r="W703" s="4"/>
-      <c r="X703" s="4"/>
-      <c r="Y703" s="4"/>
     </row>
     <row r="704">
       <c r="A704" s="4"/>
@@ -20209,8 +18886,6 @@
       <c r="U704" s="4"/>
       <c r="V704" s="4"/>
       <c r="W704" s="4"/>
-      <c r="X704" s="4"/>
-      <c r="Y704" s="4"/>
     </row>
     <row r="705">
       <c r="A705" s="4"/>
@@ -20236,8 +18911,6 @@
       <c r="U705" s="4"/>
       <c r="V705" s="4"/>
       <c r="W705" s="4"/>
-      <c r="X705" s="4"/>
-      <c r="Y705" s="4"/>
     </row>
     <row r="706">
       <c r="A706" s="4"/>
@@ -20263,8 +18936,6 @@
       <c r="U706" s="4"/>
       <c r="V706" s="4"/>
       <c r="W706" s="4"/>
-      <c r="X706" s="4"/>
-      <c r="Y706" s="4"/>
     </row>
     <row r="707">
       <c r="A707" s="4"/>
@@ -20290,8 +18961,6 @@
       <c r="U707" s="4"/>
       <c r="V707" s="4"/>
       <c r="W707" s="4"/>
-      <c r="X707" s="4"/>
-      <c r="Y707" s="4"/>
     </row>
     <row r="708">
       <c r="A708" s="4"/>
@@ -20317,8 +18986,6 @@
       <c r="U708" s="4"/>
       <c r="V708" s="4"/>
       <c r="W708" s="4"/>
-      <c r="X708" s="4"/>
-      <c r="Y708" s="4"/>
     </row>
     <row r="709">
       <c r="A709" s="4"/>
@@ -20344,8 +19011,6 @@
       <c r="U709" s="4"/>
       <c r="V709" s="4"/>
       <c r="W709" s="4"/>
-      <c r="X709" s="4"/>
-      <c r="Y709" s="4"/>
     </row>
     <row r="710">
       <c r="A710" s="4"/>
@@ -20371,8 +19036,6 @@
       <c r="U710" s="4"/>
       <c r="V710" s="4"/>
       <c r="W710" s="4"/>
-      <c r="X710" s="4"/>
-      <c r="Y710" s="4"/>
     </row>
     <row r="711">
       <c r="A711" s="4"/>
@@ -20398,8 +19061,6 @@
       <c r="U711" s="4"/>
       <c r="V711" s="4"/>
       <c r="W711" s="4"/>
-      <c r="X711" s="4"/>
-      <c r="Y711" s="4"/>
     </row>
     <row r="712">
       <c r="A712" s="4"/>
@@ -20425,8 +19086,6 @@
       <c r="U712" s="4"/>
       <c r="V712" s="4"/>
       <c r="W712" s="4"/>
-      <c r="X712" s="4"/>
-      <c r="Y712" s="4"/>
     </row>
     <row r="713">
       <c r="A713" s="4"/>
@@ -20452,8 +19111,6 @@
       <c r="U713" s="4"/>
       <c r="V713" s="4"/>
       <c r="W713" s="4"/>
-      <c r="X713" s="4"/>
-      <c r="Y713" s="4"/>
     </row>
     <row r="714">
       <c r="A714" s="4"/>
@@ -20479,8 +19136,6 @@
       <c r="U714" s="4"/>
       <c r="V714" s="4"/>
       <c r="W714" s="4"/>
-      <c r="X714" s="4"/>
-      <c r="Y714" s="4"/>
     </row>
     <row r="715">
       <c r="A715" s="4"/>
@@ -20506,8 +19161,6 @@
       <c r="U715" s="4"/>
       <c r="V715" s="4"/>
       <c r="W715" s="4"/>
-      <c r="X715" s="4"/>
-      <c r="Y715" s="4"/>
     </row>
     <row r="716">
       <c r="A716" s="4"/>
@@ -20533,8 +19186,6 @@
       <c r="U716" s="4"/>
       <c r="V716" s="4"/>
       <c r="W716" s="4"/>
-      <c r="X716" s="4"/>
-      <c r="Y716" s="4"/>
     </row>
     <row r="717">
       <c r="A717" s="4"/>
@@ -20560,8 +19211,6 @@
       <c r="U717" s="4"/>
       <c r="V717" s="4"/>
       <c r="W717" s="4"/>
-      <c r="X717" s="4"/>
-      <c r="Y717" s="4"/>
     </row>
     <row r="718">
       <c r="A718" s="4"/>
@@ -20587,8 +19236,6 @@
       <c r="U718" s="4"/>
       <c r="V718" s="4"/>
       <c r="W718" s="4"/>
-      <c r="X718" s="4"/>
-      <c r="Y718" s="4"/>
     </row>
     <row r="719">
       <c r="A719" s="4"/>
@@ -20614,8 +19261,6 @@
       <c r="U719" s="4"/>
       <c r="V719" s="4"/>
       <c r="W719" s="4"/>
-      <c r="X719" s="4"/>
-      <c r="Y719" s="4"/>
     </row>
     <row r="720">
       <c r="A720" s="4"/>
@@ -20641,8 +19286,6 @@
       <c r="U720" s="4"/>
       <c r="V720" s="4"/>
       <c r="W720" s="4"/>
-      <c r="X720" s="4"/>
-      <c r="Y720" s="4"/>
     </row>
     <row r="721">
       <c r="A721" s="4"/>
@@ -20668,8 +19311,6 @@
       <c r="U721" s="4"/>
       <c r="V721" s="4"/>
       <c r="W721" s="4"/>
-      <c r="X721" s="4"/>
-      <c r="Y721" s="4"/>
     </row>
     <row r="722">
       <c r="A722" s="4"/>
@@ -20695,8 +19336,6 @@
       <c r="U722" s="4"/>
       <c r="V722" s="4"/>
       <c r="W722" s="4"/>
-      <c r="X722" s="4"/>
-      <c r="Y722" s="4"/>
     </row>
     <row r="723">
       <c r="A723" s="4"/>
@@ -20722,8 +19361,6 @@
       <c r="U723" s="4"/>
       <c r="V723" s="4"/>
       <c r="W723" s="4"/>
-      <c r="X723" s="4"/>
-      <c r="Y723" s="4"/>
     </row>
     <row r="724">
       <c r="A724" s="4"/>
@@ -20749,8 +19386,6 @@
       <c r="U724" s="4"/>
       <c r="V724" s="4"/>
       <c r="W724" s="4"/>
-      <c r="X724" s="4"/>
-      <c r="Y724" s="4"/>
     </row>
     <row r="725">
       <c r="A725" s="4"/>
@@ -20776,8 +19411,6 @@
       <c r="U725" s="4"/>
       <c r="V725" s="4"/>
       <c r="W725" s="4"/>
-      <c r="X725" s="4"/>
-      <c r="Y725" s="4"/>
     </row>
     <row r="726">
       <c r="A726" s="4"/>
@@ -20803,8 +19436,6 @@
       <c r="U726" s="4"/>
       <c r="V726" s="4"/>
       <c r="W726" s="4"/>
-      <c r="X726" s="4"/>
-      <c r="Y726" s="4"/>
     </row>
     <row r="727">
       <c r="A727" s="4"/>
@@ -20830,8 +19461,6 @@
       <c r="U727" s="4"/>
       <c r="V727" s="4"/>
       <c r="W727" s="4"/>
-      <c r="X727" s="4"/>
-      <c r="Y727" s="4"/>
     </row>
     <row r="728">
       <c r="A728" s="4"/>
@@ -20857,8 +19486,6 @@
       <c r="U728" s="4"/>
       <c r="V728" s="4"/>
       <c r="W728" s="4"/>
-      <c r="X728" s="4"/>
-      <c r="Y728" s="4"/>
     </row>
     <row r="729">
       <c r="A729" s="4"/>
@@ -20884,8 +19511,6 @@
       <c r="U729" s="4"/>
       <c r="V729" s="4"/>
       <c r="W729" s="4"/>
-      <c r="X729" s="4"/>
-      <c r="Y729" s="4"/>
     </row>
     <row r="730">
       <c r="A730" s="4"/>
@@ -20911,8 +19536,6 @@
       <c r="U730" s="4"/>
       <c r="V730" s="4"/>
       <c r="W730" s="4"/>
-      <c r="X730" s="4"/>
-      <c r="Y730" s="4"/>
     </row>
     <row r="731">
       <c r="A731" s="4"/>
@@ -20938,8 +19561,6 @@
       <c r="U731" s="4"/>
       <c r="V731" s="4"/>
       <c r="W731" s="4"/>
-      <c r="X731" s="4"/>
-      <c r="Y731" s="4"/>
     </row>
     <row r="732">
       <c r="A732" s="4"/>
@@ -20965,8 +19586,6 @@
       <c r="U732" s="4"/>
       <c r="V732" s="4"/>
       <c r="W732" s="4"/>
-      <c r="X732" s="4"/>
-      <c r="Y732" s="4"/>
     </row>
     <row r="733">
       <c r="A733" s="4"/>
@@ -20992,8 +19611,6 @@
       <c r="U733" s="4"/>
       <c r="V733" s="4"/>
       <c r="W733" s="4"/>
-      <c r="X733" s="4"/>
-      <c r="Y733" s="4"/>
     </row>
     <row r="734">
       <c r="A734" s="4"/>
@@ -21019,8 +19636,6 @@
       <c r="U734" s="4"/>
       <c r="V734" s="4"/>
       <c r="W734" s="4"/>
-      <c r="X734" s="4"/>
-      <c r="Y734" s="4"/>
     </row>
     <row r="735">
       <c r="A735" s="4"/>
@@ -21046,8 +19661,6 @@
       <c r="U735" s="4"/>
       <c r="V735" s="4"/>
       <c r="W735" s="4"/>
-      <c r="X735" s="4"/>
-      <c r="Y735" s="4"/>
     </row>
     <row r="736">
       <c r="A736" s="4"/>
@@ -21073,8 +19686,6 @@
       <c r="U736" s="4"/>
       <c r="V736" s="4"/>
       <c r="W736" s="4"/>
-      <c r="X736" s="4"/>
-      <c r="Y736" s="4"/>
     </row>
     <row r="737">
       <c r="A737" s="4"/>
@@ -21100,8 +19711,6 @@
       <c r="U737" s="4"/>
       <c r="V737" s="4"/>
       <c r="W737" s="4"/>
-      <c r="X737" s="4"/>
-      <c r="Y737" s="4"/>
     </row>
     <row r="738">
       <c r="A738" s="4"/>
@@ -21127,8 +19736,6 @@
       <c r="U738" s="4"/>
       <c r="V738" s="4"/>
       <c r="W738" s="4"/>
-      <c r="X738" s="4"/>
-      <c r="Y738" s="4"/>
     </row>
     <row r="739">
       <c r="A739" s="4"/>
@@ -21154,8 +19761,6 @@
       <c r="U739" s="4"/>
       <c r="V739" s="4"/>
       <c r="W739" s="4"/>
-      <c r="X739" s="4"/>
-      <c r="Y739" s="4"/>
     </row>
     <row r="740">
       <c r="A740" s="4"/>
@@ -21181,8 +19786,6 @@
       <c r="U740" s="4"/>
       <c r="V740" s="4"/>
       <c r="W740" s="4"/>
-      <c r="X740" s="4"/>
-      <c r="Y740" s="4"/>
     </row>
     <row r="741">
       <c r="A741" s="4"/>
@@ -21208,8 +19811,6 @@
       <c r="U741" s="4"/>
       <c r="V741" s="4"/>
       <c r="W741" s="4"/>
-      <c r="X741" s="4"/>
-      <c r="Y741" s="4"/>
     </row>
     <row r="742">
       <c r="A742" s="4"/>
@@ -21235,8 +19836,6 @@
       <c r="U742" s="4"/>
       <c r="V742" s="4"/>
       <c r="W742" s="4"/>
-      <c r="X742" s="4"/>
-      <c r="Y742" s="4"/>
     </row>
     <row r="743">
       <c r="A743" s="4"/>
@@ -21262,8 +19861,6 @@
       <c r="U743" s="4"/>
       <c r="V743" s="4"/>
       <c r="W743" s="4"/>
-      <c r="X743" s="4"/>
-      <c r="Y743" s="4"/>
     </row>
     <row r="744">
       <c r="A744" s="4"/>
@@ -21289,8 +19886,6 @@
       <c r="U744" s="4"/>
       <c r="V744" s="4"/>
       <c r="W744" s="4"/>
-      <c r="X744" s="4"/>
-      <c r="Y744" s="4"/>
     </row>
     <row r="745">
       <c r="A745" s="4"/>
@@ -21316,8 +19911,6 @@
       <c r="U745" s="4"/>
       <c r="V745" s="4"/>
       <c r="W745" s="4"/>
-      <c r="X745" s="4"/>
-      <c r="Y745" s="4"/>
     </row>
     <row r="746">
       <c r="A746" s="4"/>
@@ -21343,8 +19936,6 @@
       <c r="U746" s="4"/>
       <c r="V746" s="4"/>
       <c r="W746" s="4"/>
-      <c r="X746" s="4"/>
-      <c r="Y746" s="4"/>
     </row>
     <row r="747">
       <c r="A747" s="4"/>
@@ -21370,8 +19961,6 @@
       <c r="U747" s="4"/>
       <c r="V747" s="4"/>
       <c r="W747" s="4"/>
-      <c r="X747" s="4"/>
-      <c r="Y747" s="4"/>
     </row>
     <row r="748">
       <c r="A748" s="4"/>
@@ -21397,8 +19986,6 @@
       <c r="U748" s="4"/>
       <c r="V748" s="4"/>
       <c r="W748" s="4"/>
-      <c r="X748" s="4"/>
-      <c r="Y748" s="4"/>
     </row>
     <row r="749">
       <c r="A749" s="4"/>
@@ -21424,8 +20011,6 @@
       <c r="U749" s="4"/>
       <c r="V749" s="4"/>
       <c r="W749" s="4"/>
-      <c r="X749" s="4"/>
-      <c r="Y749" s="4"/>
     </row>
     <row r="750">
       <c r="A750" s="4"/>
@@ -21451,8 +20036,6 @@
       <c r="U750" s="4"/>
       <c r="V750" s="4"/>
       <c r="W750" s="4"/>
-      <c r="X750" s="4"/>
-      <c r="Y750" s="4"/>
     </row>
     <row r="751">
       <c r="A751" s="4"/>
@@ -21478,8 +20061,6 @@
       <c r="U751" s="4"/>
       <c r="V751" s="4"/>
       <c r="W751" s="4"/>
-      <c r="X751" s="4"/>
-      <c r="Y751" s="4"/>
     </row>
     <row r="752">
       <c r="A752" s="4"/>
@@ -21505,8 +20086,6 @@
       <c r="U752" s="4"/>
       <c r="V752" s="4"/>
       <c r="W752" s="4"/>
-      <c r="X752" s="4"/>
-      <c r="Y752" s="4"/>
     </row>
     <row r="753">
       <c r="A753" s="4"/>
@@ -21532,8 +20111,6 @@
       <c r="U753" s="4"/>
       <c r="V753" s="4"/>
       <c r="W753" s="4"/>
-      <c r="X753" s="4"/>
-      <c r="Y753" s="4"/>
     </row>
     <row r="754">
       <c r="A754" s="4"/>
@@ -21559,8 +20136,6 @@
       <c r="U754" s="4"/>
       <c r="V754" s="4"/>
       <c r="W754" s="4"/>
-      <c r="X754" s="4"/>
-      <c r="Y754" s="4"/>
     </row>
     <row r="755">
       <c r="A755" s="4"/>
@@ -21586,8 +20161,6 @@
       <c r="U755" s="4"/>
       <c r="V755" s="4"/>
       <c r="W755" s="4"/>
-      <c r="X755" s="4"/>
-      <c r="Y755" s="4"/>
     </row>
     <row r="756">
       <c r="A756" s="4"/>
@@ -21613,8 +20186,6 @@
       <c r="U756" s="4"/>
       <c r="V756" s="4"/>
       <c r="W756" s="4"/>
-      <c r="X756" s="4"/>
-      <c r="Y756" s="4"/>
     </row>
     <row r="757">
       <c r="A757" s="4"/>
@@ -21640,8 +20211,6 @@
       <c r="U757" s="4"/>
       <c r="V757" s="4"/>
       <c r="W757" s="4"/>
-      <c r="X757" s="4"/>
-      <c r="Y757" s="4"/>
     </row>
     <row r="758">
       <c r="A758" s="4"/>
@@ -21667,8 +20236,6 @@
       <c r="U758" s="4"/>
       <c r="V758" s="4"/>
       <c r="W758" s="4"/>
-      <c r="X758" s="4"/>
-      <c r="Y758" s="4"/>
     </row>
     <row r="759">
       <c r="A759" s="4"/>
@@ -21694,8 +20261,6 @@
       <c r="U759" s="4"/>
       <c r="V759" s="4"/>
       <c r="W759" s="4"/>
-      <c r="X759" s="4"/>
-      <c r="Y759" s="4"/>
     </row>
     <row r="760">
       <c r="A760" s="4"/>
@@ -21721,8 +20286,6 @@
       <c r="U760" s="4"/>
       <c r="V760" s="4"/>
       <c r="W760" s="4"/>
-      <c r="X760" s="4"/>
-      <c r="Y760" s="4"/>
     </row>
     <row r="761">
       <c r="A761" s="4"/>
@@ -21748,8 +20311,6 @@
       <c r="U761" s="4"/>
       <c r="V761" s="4"/>
       <c r="W761" s="4"/>
-      <c r="X761" s="4"/>
-      <c r="Y761" s="4"/>
     </row>
     <row r="762">
       <c r="A762" s="4"/>
@@ -21775,8 +20336,6 @@
       <c r="U762" s="4"/>
       <c r="V762" s="4"/>
       <c r="W762" s="4"/>
-      <c r="X762" s="4"/>
-      <c r="Y762" s="4"/>
     </row>
     <row r="763">
       <c r="A763" s="4"/>
@@ -21802,8 +20361,6 @@
       <c r="U763" s="4"/>
       <c r="V763" s="4"/>
       <c r="W763" s="4"/>
-      <c r="X763" s="4"/>
-      <c r="Y763" s="4"/>
     </row>
     <row r="764">
       <c r="A764" s="4"/>
@@ -21829,8 +20386,6 @@
       <c r="U764" s="4"/>
       <c r="V764" s="4"/>
       <c r="W764" s="4"/>
-      <c r="X764" s="4"/>
-      <c r="Y764" s="4"/>
     </row>
     <row r="765">
       <c r="A765" s="4"/>
@@ -21856,8 +20411,6 @@
       <c r="U765" s="4"/>
       <c r="V765" s="4"/>
       <c r="W765" s="4"/>
-      <c r="X765" s="4"/>
-      <c r="Y765" s="4"/>
     </row>
     <row r="766">
       <c r="A766" s="4"/>
@@ -21883,8 +20436,6 @@
       <c r="U766" s="4"/>
       <c r="V766" s="4"/>
       <c r="W766" s="4"/>
-      <c r="X766" s="4"/>
-      <c r="Y766" s="4"/>
     </row>
     <row r="767">
       <c r="A767" s="4"/>
@@ -21910,8 +20461,6 @@
       <c r="U767" s="4"/>
       <c r="V767" s="4"/>
       <c r="W767" s="4"/>
-      <c r="X767" s="4"/>
-      <c r="Y767" s="4"/>
     </row>
     <row r="768">
       <c r="A768" s="4"/>
@@ -21937,8 +20486,6 @@
       <c r="U768" s="4"/>
       <c r="V768" s="4"/>
       <c r="W768" s="4"/>
-      <c r="X768" s="4"/>
-      <c r="Y768" s="4"/>
     </row>
     <row r="769">
       <c r="A769" s="4"/>
@@ -21964,8 +20511,6 @@
       <c r="U769" s="4"/>
       <c r="V769" s="4"/>
       <c r="W769" s="4"/>
-      <c r="X769" s="4"/>
-      <c r="Y769" s="4"/>
     </row>
     <row r="770">
       <c r="A770" s="4"/>
@@ -21991,8 +20536,6 @@
       <c r="U770" s="4"/>
       <c r="V770" s="4"/>
       <c r="W770" s="4"/>
-      <c r="X770" s="4"/>
-      <c r="Y770" s="4"/>
     </row>
     <row r="771">
       <c r="A771" s="4"/>
@@ -22018,8 +20561,6 @@
       <c r="U771" s="4"/>
       <c r="V771" s="4"/>
       <c r="W771" s="4"/>
-      <c r="X771" s="4"/>
-      <c r="Y771" s="4"/>
     </row>
     <row r="772">
       <c r="A772" s="4"/>
@@ -22045,8 +20586,6 @@
       <c r="U772" s="4"/>
       <c r="V772" s="4"/>
       <c r="W772" s="4"/>
-      <c r="X772" s="4"/>
-      <c r="Y772" s="4"/>
     </row>
     <row r="773">
       <c r="A773" s="4"/>
@@ -22072,8 +20611,6 @@
       <c r="U773" s="4"/>
       <c r="V773" s="4"/>
       <c r="W773" s="4"/>
-      <c r="X773" s="4"/>
-      <c r="Y773" s="4"/>
     </row>
     <row r="774">
       <c r="A774" s="4"/>
@@ -22099,8 +20636,6 @@
       <c r="U774" s="4"/>
       <c r="V774" s="4"/>
       <c r="W774" s="4"/>
-      <c r="X774" s="4"/>
-      <c r="Y774" s="4"/>
     </row>
     <row r="775">
       <c r="A775" s="4"/>
@@ -22126,8 +20661,6 @@
       <c r="U775" s="4"/>
       <c r="V775" s="4"/>
       <c r="W775" s="4"/>
-      <c r="X775" s="4"/>
-      <c r="Y775" s="4"/>
     </row>
     <row r="776">
       <c r="A776" s="4"/>
@@ -22153,8 +20686,6 @@
       <c r="U776" s="4"/>
       <c r="V776" s="4"/>
       <c r="W776" s="4"/>
-      <c r="X776" s="4"/>
-      <c r="Y776" s="4"/>
     </row>
     <row r="777">
       <c r="A777" s="4"/>
@@ -22180,8 +20711,6 @@
       <c r="U777" s="4"/>
       <c r="V777" s="4"/>
       <c r="W777" s="4"/>
-      <c r="X777" s="4"/>
-      <c r="Y777" s="4"/>
     </row>
     <row r="778">
       <c r="A778" s="4"/>
@@ -22207,8 +20736,6 @@
       <c r="U778" s="4"/>
       <c r="V778" s="4"/>
       <c r="W778" s="4"/>
-      <c r="X778" s="4"/>
-      <c r="Y778" s="4"/>
     </row>
     <row r="779">
       <c r="A779" s="4"/>
@@ -22234,8 +20761,6 @@
       <c r="U779" s="4"/>
       <c r="V779" s="4"/>
       <c r="W779" s="4"/>
-      <c r="X779" s="4"/>
-      <c r="Y779" s="4"/>
     </row>
     <row r="780">
       <c r="A780" s="4"/>
@@ -22261,8 +20786,6 @@
       <c r="U780" s="4"/>
       <c r="V780" s="4"/>
       <c r="W780" s="4"/>
-      <c r="X780" s="4"/>
-      <c r="Y780" s="4"/>
     </row>
     <row r="781">
       <c r="A781" s="4"/>
@@ -22288,8 +20811,6 @@
       <c r="U781" s="4"/>
       <c r="V781" s="4"/>
       <c r="W781" s="4"/>
-      <c r="X781" s="4"/>
-      <c r="Y781" s="4"/>
     </row>
     <row r="782">
       <c r="A782" s="4"/>
@@ -22315,8 +20836,6 @@
       <c r="U782" s="4"/>
       <c r="V782" s="4"/>
       <c r="W782" s="4"/>
-      <c r="X782" s="4"/>
-      <c r="Y782" s="4"/>
     </row>
     <row r="783">
       <c r="A783" s="4"/>
@@ -22342,8 +20861,6 @@
       <c r="U783" s="4"/>
       <c r="V783" s="4"/>
       <c r="W783" s="4"/>
-      <c r="X783" s="4"/>
-      <c r="Y783" s="4"/>
     </row>
     <row r="784">
       <c r="A784" s="4"/>
@@ -22369,8 +20886,6 @@
       <c r="U784" s="4"/>
       <c r="V784" s="4"/>
       <c r="W784" s="4"/>
-      <c r="X784" s="4"/>
-      <c r="Y784" s="4"/>
     </row>
     <row r="785">
       <c r="A785" s="4"/>
@@ -22396,8 +20911,6 @@
       <c r="U785" s="4"/>
       <c r="V785" s="4"/>
       <c r="W785" s="4"/>
-      <c r="X785" s="4"/>
-      <c r="Y785" s="4"/>
     </row>
     <row r="786">
       <c r="A786" s="4"/>
@@ -22423,8 +20936,6 @@
       <c r="U786" s="4"/>
       <c r="V786" s="4"/>
       <c r="W786" s="4"/>
-      <c r="X786" s="4"/>
-      <c r="Y786" s="4"/>
     </row>
     <row r="787">
       <c r="A787" s="4"/>
@@ -22450,8 +20961,6 @@
       <c r="U787" s="4"/>
       <c r="V787" s="4"/>
       <c r="W787" s="4"/>
-      <c r="X787" s="4"/>
-      <c r="Y787" s="4"/>
     </row>
     <row r="788">
       <c r="A788" s="4"/>
@@ -22477,8 +20986,6 @@
       <c r="U788" s="4"/>
       <c r="V788" s="4"/>
       <c r="W788" s="4"/>
-      <c r="X788" s="4"/>
-      <c r="Y788" s="4"/>
     </row>
     <row r="789">
       <c r="A789" s="4"/>
@@ -22504,8 +21011,6 @@
       <c r="U789" s="4"/>
       <c r="V789" s="4"/>
       <c r="W789" s="4"/>
-      <c r="X789" s="4"/>
-      <c r="Y789" s="4"/>
     </row>
     <row r="790">
       <c r="A790" s="4"/>
@@ -22531,8 +21036,6 @@
       <c r="U790" s="4"/>
       <c r="V790" s="4"/>
       <c r="W790" s="4"/>
-      <c r="X790" s="4"/>
-      <c r="Y790" s="4"/>
     </row>
     <row r="791">
       <c r="A791" s="4"/>
@@ -22558,8 +21061,6 @@
       <c r="U791" s="4"/>
       <c r="V791" s="4"/>
       <c r="W791" s="4"/>
-      <c r="X791" s="4"/>
-      <c r="Y791" s="4"/>
     </row>
     <row r="792">
       <c r="A792" s="4"/>
@@ -22585,8 +21086,6 @@
       <c r="U792" s="4"/>
       <c r="V792" s="4"/>
       <c r="W792" s="4"/>
-      <c r="X792" s="4"/>
-      <c r="Y792" s="4"/>
     </row>
     <row r="793">
       <c r="A793" s="4"/>
@@ -22612,8 +21111,6 @@
       <c r="U793" s="4"/>
       <c r="V793" s="4"/>
       <c r="W793" s="4"/>
-      <c r="X793" s="4"/>
-      <c r="Y793" s="4"/>
     </row>
     <row r="794">
       <c r="A794" s="4"/>
@@ -22639,8 +21136,6 @@
       <c r="U794" s="4"/>
       <c r="V794" s="4"/>
       <c r="W794" s="4"/>
-      <c r="X794" s="4"/>
-      <c r="Y794" s="4"/>
     </row>
     <row r="795">
       <c r="A795" s="4"/>
@@ -22666,8 +21161,6 @@
       <c r="U795" s="4"/>
       <c r="V795" s="4"/>
       <c r="W795" s="4"/>
-      <c r="X795" s="4"/>
-      <c r="Y795" s="4"/>
     </row>
     <row r="796">
       <c r="A796" s="4"/>
@@ -22693,8 +21186,6 @@
       <c r="U796" s="4"/>
       <c r="V796" s="4"/>
       <c r="W796" s="4"/>
-      <c r="X796" s="4"/>
-      <c r="Y796" s="4"/>
     </row>
     <row r="797">
       <c r="A797" s="4"/>
@@ -22720,8 +21211,6 @@
       <c r="U797" s="4"/>
       <c r="V797" s="4"/>
       <c r="W797" s="4"/>
-      <c r="X797" s="4"/>
-      <c r="Y797" s="4"/>
     </row>
     <row r="798">
       <c r="A798" s="4"/>
@@ -22747,8 +21236,6 @@
       <c r="U798" s="4"/>
       <c r="V798" s="4"/>
       <c r="W798" s="4"/>
-      <c r="X798" s="4"/>
-      <c r="Y798" s="4"/>
     </row>
     <row r="799">
       <c r="A799" s="4"/>
@@ -22774,8 +21261,6 @@
       <c r="U799" s="4"/>
       <c r="V799" s="4"/>
       <c r="W799" s="4"/>
-      <c r="X799" s="4"/>
-      <c r="Y799" s="4"/>
     </row>
     <row r="800">
       <c r="A800" s="4"/>
@@ -22801,8 +21286,6 @@
       <c r="U800" s="4"/>
       <c r="V800" s="4"/>
       <c r="W800" s="4"/>
-      <c r="X800" s="4"/>
-      <c r="Y800" s="4"/>
     </row>
     <row r="801">
       <c r="A801" s="4"/>
@@ -22828,8 +21311,6 @@
       <c r="U801" s="4"/>
       <c r="V801" s="4"/>
       <c r="W801" s="4"/>
-      <c r="X801" s="4"/>
-      <c r="Y801" s="4"/>
     </row>
     <row r="802">
       <c r="A802" s="4"/>
@@ -22855,8 +21336,6 @@
       <c r="U802" s="4"/>
       <c r="V802" s="4"/>
       <c r="W802" s="4"/>
-      <c r="X802" s="4"/>
-      <c r="Y802" s="4"/>
     </row>
     <row r="803">
       <c r="A803" s="4"/>
@@ -22882,8 +21361,6 @@
       <c r="U803" s="4"/>
       <c r="V803" s="4"/>
       <c r="W803" s="4"/>
-      <c r="X803" s="4"/>
-      <c r="Y803" s="4"/>
     </row>
     <row r="804">
       <c r="A804" s="4"/>
@@ -22909,8 +21386,6 @@
       <c r="U804" s="4"/>
       <c r="V804" s="4"/>
       <c r="W804" s="4"/>
-      <c r="X804" s="4"/>
-      <c r="Y804" s="4"/>
     </row>
     <row r="805">
       <c r="A805" s="4"/>
@@ -22936,8 +21411,6 @@
       <c r="U805" s="4"/>
       <c r="V805" s="4"/>
       <c r="W805" s="4"/>
-      <c r="X805" s="4"/>
-      <c r="Y805" s="4"/>
     </row>
     <row r="806">
       <c r="A806" s="4"/>
@@ -22963,8 +21436,6 @@
       <c r="U806" s="4"/>
       <c r="V806" s="4"/>
       <c r="W806" s="4"/>
-      <c r="X806" s="4"/>
-      <c r="Y806" s="4"/>
     </row>
     <row r="807">
       <c r="A807" s="4"/>
@@ -22990,8 +21461,6 @@
       <c r="U807" s="4"/>
       <c r="V807" s="4"/>
       <c r="W807" s="4"/>
-      <c r="X807" s="4"/>
-      <c r="Y807" s="4"/>
     </row>
     <row r="808">
       <c r="A808" s="4"/>
@@ -23017,8 +21486,6 @@
       <c r="U808" s="4"/>
       <c r="V808" s="4"/>
       <c r="W808" s="4"/>
-      <c r="X808" s="4"/>
-      <c r="Y808" s="4"/>
     </row>
     <row r="809">
       <c r="A809" s="4"/>
@@ -23044,8 +21511,6 @@
       <c r="U809" s="4"/>
       <c r="V809" s="4"/>
       <c r="W809" s="4"/>
-      <c r="X809" s="4"/>
-      <c r="Y809" s="4"/>
     </row>
     <row r="810">
       <c r="A810" s="4"/>
@@ -23071,8 +21536,6 @@
       <c r="U810" s="4"/>
       <c r="V810" s="4"/>
       <c r="W810" s="4"/>
-      <c r="X810" s="4"/>
-      <c r="Y810" s="4"/>
     </row>
     <row r="811">
       <c r="A811" s="4"/>
@@ -23098,8 +21561,6 @@
       <c r="U811" s="4"/>
       <c r="V811" s="4"/>
       <c r="W811" s="4"/>
-      <c r="X811" s="4"/>
-      <c r="Y811" s="4"/>
     </row>
     <row r="812">
       <c r="A812" s="4"/>
@@ -23125,8 +21586,6 @@
       <c r="U812" s="4"/>
       <c r="V812" s="4"/>
       <c r="W812" s="4"/>
-      <c r="X812" s="4"/>
-      <c r="Y812" s="4"/>
     </row>
     <row r="813">
       <c r="A813" s="4"/>
@@ -23152,8 +21611,6 @@
       <c r="U813" s="4"/>
       <c r="V813" s="4"/>
       <c r="W813" s="4"/>
-      <c r="X813" s="4"/>
-      <c r="Y813" s="4"/>
     </row>
     <row r="814">
       <c r="A814" s="4"/>
@@ -23179,8 +21636,6 @@
       <c r="U814" s="4"/>
       <c r="V814" s="4"/>
       <c r="W814" s="4"/>
-      <c r="X814" s="4"/>
-      <c r="Y814" s="4"/>
     </row>
     <row r="815">
       <c r="A815" s="4"/>
@@ -23206,8 +21661,6 @@
       <c r="U815" s="4"/>
       <c r="V815" s="4"/>
       <c r="W815" s="4"/>
-      <c r="X815" s="4"/>
-      <c r="Y815" s="4"/>
     </row>
     <row r="816">
       <c r="A816" s="4"/>
@@ -23233,8 +21686,6 @@
       <c r="U816" s="4"/>
       <c r="V816" s="4"/>
       <c r="W816" s="4"/>
-      <c r="X816" s="4"/>
-      <c r="Y816" s="4"/>
     </row>
     <row r="817">
       <c r="A817" s="4"/>
@@ -23260,8 +21711,6 @@
       <c r="U817" s="4"/>
       <c r="V817" s="4"/>
       <c r="W817" s="4"/>
-      <c r="X817" s="4"/>
-      <c r="Y817" s="4"/>
     </row>
     <row r="818">
       <c r="A818" s="4"/>
@@ -23287,8 +21736,6 @@
       <c r="U818" s="4"/>
       <c r="V818" s="4"/>
       <c r="W818" s="4"/>
-      <c r="X818" s="4"/>
-      <c r="Y818" s="4"/>
     </row>
     <row r="819">
       <c r="A819" s="4"/>
@@ -23314,8 +21761,6 @@
       <c r="U819" s="4"/>
       <c r="V819" s="4"/>
       <c r="W819" s="4"/>
-      <c r="X819" s="4"/>
-      <c r="Y819" s="4"/>
     </row>
     <row r="820">
       <c r="A820" s="4"/>
@@ -23341,8 +21786,6 @@
       <c r="U820" s="4"/>
       <c r="V820" s="4"/>
       <c r="W820" s="4"/>
-      <c r="X820" s="4"/>
-      <c r="Y820" s="4"/>
     </row>
     <row r="821">
       <c r="A821" s="4"/>
@@ -23368,8 +21811,6 @@
       <c r="U821" s="4"/>
       <c r="V821" s="4"/>
       <c r="W821" s="4"/>
-      <c r="X821" s="4"/>
-      <c r="Y821" s="4"/>
     </row>
     <row r="822">
       <c r="A822" s="4"/>
@@ -23395,8 +21836,6 @@
       <c r="U822" s="4"/>
       <c r="V822" s="4"/>
       <c r="W822" s="4"/>
-      <c r="X822" s="4"/>
-      <c r="Y822" s="4"/>
     </row>
     <row r="823">
       <c r="A823" s="4"/>
@@ -23422,8 +21861,6 @@
       <c r="U823" s="4"/>
       <c r="V823" s="4"/>
       <c r="W823" s="4"/>
-      <c r="X823" s="4"/>
-      <c r="Y823" s="4"/>
     </row>
     <row r="824">
       <c r="A824" s="4"/>
@@ -23449,8 +21886,6 @@
       <c r="U824" s="4"/>
       <c r="V824" s="4"/>
       <c r="W824" s="4"/>
-      <c r="X824" s="4"/>
-      <c r="Y824" s="4"/>
     </row>
     <row r="825">
       <c r="A825" s="4"/>
@@ -23476,8 +21911,6 @@
       <c r="U825" s="4"/>
       <c r="V825" s="4"/>
       <c r="W825" s="4"/>
-      <c r="X825" s="4"/>
-      <c r="Y825" s="4"/>
     </row>
     <row r="826">
       <c r="A826" s="4"/>
@@ -23503,8 +21936,6 @@
       <c r="U826" s="4"/>
       <c r="V826" s="4"/>
       <c r="W826" s="4"/>
-      <c r="X826" s="4"/>
-      <c r="Y826" s="4"/>
     </row>
     <row r="827">
       <c r="A827" s="4"/>
@@ -23530,8 +21961,6 @@
       <c r="U827" s="4"/>
       <c r="V827" s="4"/>
       <c r="W827" s="4"/>
-      <c r="X827" s="4"/>
-      <c r="Y827" s="4"/>
     </row>
     <row r="828">
       <c r="A828" s="4"/>
@@ -23557,8 +21986,6 @@
       <c r="U828" s="4"/>
       <c r="V828" s="4"/>
       <c r="W828" s="4"/>
-      <c r="X828" s="4"/>
-      <c r="Y828" s="4"/>
     </row>
     <row r="829">
       <c r="A829" s="4"/>
@@ -23584,8 +22011,6 @@
       <c r="U829" s="4"/>
       <c r="V829" s="4"/>
       <c r="W829" s="4"/>
-      <c r="X829" s="4"/>
-      <c r="Y829" s="4"/>
     </row>
     <row r="830">
       <c r="A830" s="4"/>
@@ -23611,8 +22036,6 @@
       <c r="U830" s="4"/>
       <c r="V830" s="4"/>
       <c r="W830" s="4"/>
-      <c r="X830" s="4"/>
-      <c r="Y830" s="4"/>
     </row>
     <row r="831">
       <c r="A831" s="4"/>
@@ -23638,8 +22061,6 @@
       <c r="U831" s="4"/>
       <c r="V831" s="4"/>
       <c r="W831" s="4"/>
-      <c r="X831" s="4"/>
-      <c r="Y831" s="4"/>
     </row>
     <row r="832">
       <c r="A832" s="4"/>
@@ -23665,8 +22086,6 @@
       <c r="U832" s="4"/>
       <c r="V832" s="4"/>
       <c r="W832" s="4"/>
-      <c r="X832" s="4"/>
-      <c r="Y832" s="4"/>
     </row>
     <row r="833">
       <c r="A833" s="4"/>
@@ -23692,8 +22111,6 @@
       <c r="U833" s="4"/>
       <c r="V833" s="4"/>
       <c r="W833" s="4"/>
-      <c r="X833" s="4"/>
-      <c r="Y833" s="4"/>
     </row>
     <row r="834">
       <c r="A834" s="4"/>
@@ -23719,8 +22136,6 @@
       <c r="U834" s="4"/>
       <c r="V834" s="4"/>
       <c r="W834" s="4"/>
-      <c r="X834" s="4"/>
-      <c r="Y834" s="4"/>
     </row>
     <row r="835">
       <c r="A835" s="4"/>
@@ -23746,8 +22161,6 @@
       <c r="U835" s="4"/>
       <c r="V835" s="4"/>
       <c r="W835" s="4"/>
-      <c r="X835" s="4"/>
-      <c r="Y835" s="4"/>
     </row>
     <row r="836">
       <c r="A836" s="4"/>
@@ -23773,8 +22186,6 @@
       <c r="U836" s="4"/>
       <c r="V836" s="4"/>
       <c r="W836" s="4"/>
-      <c r="X836" s="4"/>
-      <c r="Y836" s="4"/>
     </row>
     <row r="837">
       <c r="A837" s="4"/>
@@ -23800,8 +22211,6 @@
       <c r="U837" s="4"/>
       <c r="V837" s="4"/>
       <c r="W837" s="4"/>
-      <c r="X837" s="4"/>
-      <c r="Y837" s="4"/>
     </row>
     <row r="838">
       <c r="A838" s="4"/>
@@ -23827,8 +22236,6 @@
       <c r="U838" s="4"/>
       <c r="V838" s="4"/>
       <c r="W838" s="4"/>
-      <c r="X838" s="4"/>
-      <c r="Y838" s="4"/>
     </row>
     <row r="839">
       <c r="A839" s="4"/>
@@ -23854,8 +22261,6 @@
       <c r="U839" s="4"/>
       <c r="V839" s="4"/>
       <c r="W839" s="4"/>
-      <c r="X839" s="4"/>
-      <c r="Y839" s="4"/>
     </row>
     <row r="840">
       <c r="A840" s="4"/>
@@ -23881,8 +22286,6 @@
       <c r="U840" s="4"/>
       <c r="V840" s="4"/>
       <c r="W840" s="4"/>
-      <c r="X840" s="4"/>
-      <c r="Y840" s="4"/>
     </row>
     <row r="841">
       <c r="A841" s="4"/>
@@ -23908,8 +22311,6 @@
       <c r="U841" s="4"/>
       <c r="V841" s="4"/>
       <c r="W841" s="4"/>
-      <c r="X841" s="4"/>
-      <c r="Y841" s="4"/>
     </row>
     <row r="842">
       <c r="A842" s="4"/>
@@ -23935,8 +22336,6 @@
       <c r="U842" s="4"/>
       <c r="V842" s="4"/>
       <c r="W842" s="4"/>
-      <c r="X842" s="4"/>
-      <c r="Y842" s="4"/>
     </row>
     <row r="843">
       <c r="A843" s="4"/>
@@ -23962,8 +22361,6 @@
       <c r="U843" s="4"/>
       <c r="V843" s="4"/>
       <c r="W843" s="4"/>
-      <c r="X843" s="4"/>
-      <c r="Y843" s="4"/>
     </row>
     <row r="844">
       <c r="A844" s="4"/>
@@ -23989,8 +22386,6 @@
       <c r="U844" s="4"/>
       <c r="V844" s="4"/>
       <c r="W844" s="4"/>
-      <c r="X844" s="4"/>
-      <c r="Y844" s="4"/>
     </row>
     <row r="845">
       <c r="A845" s="4"/>
@@ -24016,8 +22411,6 @@
       <c r="U845" s="4"/>
       <c r="V845" s="4"/>
       <c r="W845" s="4"/>
-      <c r="X845" s="4"/>
-      <c r="Y845" s="4"/>
     </row>
     <row r="846">
       <c r="A846" s="4"/>
@@ -24043,8 +22436,6 @@
       <c r="U846" s="4"/>
       <c r="V846" s="4"/>
       <c r="W846" s="4"/>
-      <c r="X846" s="4"/>
-      <c r="Y846" s="4"/>
     </row>
     <row r="847">
       <c r="A847" s="4"/>
@@ -24070,8 +22461,6 @@
       <c r="U847" s="4"/>
       <c r="V847" s="4"/>
       <c r="W847" s="4"/>
-      <c r="X847" s="4"/>
-      <c r="Y847" s="4"/>
     </row>
     <row r="848">
       <c r="A848" s="4"/>
@@ -24097,8 +22486,6 @@
       <c r="U848" s="4"/>
       <c r="V848" s="4"/>
       <c r="W848" s="4"/>
-      <c r="X848" s="4"/>
-      <c r="Y848" s="4"/>
     </row>
     <row r="849">
       <c r="A849" s="4"/>
@@ -24124,8 +22511,6 @@
       <c r="U849" s="4"/>
       <c r="V849" s="4"/>
       <c r="W849" s="4"/>
-      <c r="X849" s="4"/>
-      <c r="Y849" s="4"/>
     </row>
     <row r="850">
       <c r="A850" s="4"/>
@@ -24151,8 +22536,6 @@
       <c r="U850" s="4"/>
       <c r="V850" s="4"/>
       <c r="W850" s="4"/>
-      <c r="X850" s="4"/>
-      <c r="Y850" s="4"/>
     </row>
     <row r="851">
       <c r="A851" s="4"/>
@@ -24178,8 +22561,6 @@
       <c r="U851" s="4"/>
       <c r="V851" s="4"/>
       <c r="W851" s="4"/>
-      <c r="X851" s="4"/>
-      <c r="Y851" s="4"/>
     </row>
     <row r="852">
       <c r="A852" s="4"/>
@@ -24205,8 +22586,6 @@
       <c r="U852" s="4"/>
       <c r="V852" s="4"/>
       <c r="W852" s="4"/>
-      <c r="X852" s="4"/>
-      <c r="Y852" s="4"/>
     </row>
     <row r="853">
       <c r="A853" s="4"/>
@@ -24232,8 +22611,6 @@
       <c r="U853" s="4"/>
       <c r="V853" s="4"/>
       <c r="W853" s="4"/>
-      <c r="X853" s="4"/>
-      <c r="Y853" s="4"/>
     </row>
     <row r="854">
       <c r="A854" s="4"/>
@@ -24259,8 +22636,6 @@
       <c r="U854" s="4"/>
       <c r="V854" s="4"/>
       <c r="W854" s="4"/>
-      <c r="X854" s="4"/>
-      <c r="Y854" s="4"/>
     </row>
     <row r="855">
       <c r="A855" s="4"/>
@@ -24286,8 +22661,6 @@
       <c r="U855" s="4"/>
       <c r="V855" s="4"/>
       <c r="W855" s="4"/>
-      <c r="X855" s="4"/>
-      <c r="Y855" s="4"/>
     </row>
     <row r="856">
       <c r="A856" s="4"/>
@@ -24313,8 +22686,6 @@
       <c r="U856" s="4"/>
       <c r="V856" s="4"/>
       <c r="W856" s="4"/>
-      <c r="X856" s="4"/>
-      <c r="Y856" s="4"/>
     </row>
     <row r="857">
       <c r="A857" s="4"/>
@@ -24340,8 +22711,6 @@
       <c r="U857" s="4"/>
       <c r="V857" s="4"/>
       <c r="W857" s="4"/>
-      <c r="X857" s="4"/>
-      <c r="Y857" s="4"/>
     </row>
     <row r="858">
       <c r="A858" s="4"/>
@@ -24367,8 +22736,6 @@
       <c r="U858" s="4"/>
       <c r="V858" s="4"/>
       <c r="W858" s="4"/>
-      <c r="X858" s="4"/>
-      <c r="Y858" s="4"/>
     </row>
     <row r="859">
       <c r="A859" s="4"/>
@@ -24394,8 +22761,6 @@
       <c r="U859" s="4"/>
       <c r="V859" s="4"/>
       <c r="W859" s="4"/>
-      <c r="X859" s="4"/>
-      <c r="Y859" s="4"/>
     </row>
     <row r="860">
       <c r="A860" s="4"/>
@@ -24421,8 +22786,6 @@
       <c r="U860" s="4"/>
       <c r="V860" s="4"/>
       <c r="W860" s="4"/>
-      <c r="X860" s="4"/>
-      <c r="Y860" s="4"/>
     </row>
     <row r="861">
       <c r="A861" s="4"/>
@@ -24448,8 +22811,6 @@
       <c r="U861" s="4"/>
       <c r="V861" s="4"/>
       <c r="W861" s="4"/>
-      <c r="X861" s="4"/>
-      <c r="Y861" s="4"/>
     </row>
     <row r="862">
       <c r="A862" s="4"/>
@@ -24475,8 +22836,6 @@
       <c r="U862" s="4"/>
       <c r="V862" s="4"/>
       <c r="W862" s="4"/>
-      <c r="X862" s="4"/>
-      <c r="Y862" s="4"/>
     </row>
     <row r="863">
       <c r="A863" s="4"/>
@@ -24502,8 +22861,6 @@
       <c r="U863" s="4"/>
       <c r="V863" s="4"/>
       <c r="W863" s="4"/>
-      <c r="X863" s="4"/>
-      <c r="Y863" s="4"/>
     </row>
     <row r="864">
       <c r="A864" s="4"/>
@@ -24529,8 +22886,6 @@
       <c r="U864" s="4"/>
       <c r="V864" s="4"/>
       <c r="W864" s="4"/>
-      <c r="X864" s="4"/>
-      <c r="Y864" s="4"/>
     </row>
     <row r="865">
       <c r="A865" s="4"/>
@@ -24556,8 +22911,6 @@
       <c r="U865" s="4"/>
       <c r="V865" s="4"/>
       <c r="W865" s="4"/>
-      <c r="X865" s="4"/>
-      <c r="Y865" s="4"/>
     </row>
     <row r="866">
       <c r="A866" s="4"/>
@@ -24583,8 +22936,6 @@
       <c r="U866" s="4"/>
       <c r="V866" s="4"/>
       <c r="W866" s="4"/>
-      <c r="X866" s="4"/>
-      <c r="Y866" s="4"/>
     </row>
     <row r="867">
       <c r="A867" s="4"/>
@@ -24610,8 +22961,6 @@
       <c r="U867" s="4"/>
       <c r="V867" s="4"/>
       <c r="W867" s="4"/>
-      <c r="X867" s="4"/>
-      <c r="Y867" s="4"/>
     </row>
     <row r="868">
       <c r="A868" s="4"/>
@@ -24637,8 +22986,6 @@
       <c r="U868" s="4"/>
       <c r="V868" s="4"/>
       <c r="W868" s="4"/>
-      <c r="X868" s="4"/>
-      <c r="Y868" s="4"/>
     </row>
     <row r="869">
       <c r="A869" s="4"/>
@@ -24664,8 +23011,6 @@
       <c r="U869" s="4"/>
       <c r="V869" s="4"/>
       <c r="W869" s="4"/>
-      <c r="X869" s="4"/>
-      <c r="Y869" s="4"/>
     </row>
     <row r="870">
       <c r="A870" s="4"/>
@@ -24691,8 +23036,6 @@
       <c r="U870" s="4"/>
       <c r="V870" s="4"/>
       <c r="W870" s="4"/>
-      <c r="X870" s="4"/>
-      <c r="Y870" s="4"/>
     </row>
     <row r="871">
       <c r="A871" s="4"/>
@@ -24718,8 +23061,6 @@
       <c r="U871" s="4"/>
       <c r="V871" s="4"/>
       <c r="W871" s="4"/>
-      <c r="X871" s="4"/>
-      <c r="Y871" s="4"/>
     </row>
     <row r="872">
       <c r="A872" s="4"/>
@@ -24745,8 +23086,6 @@
       <c r="U872" s="4"/>
       <c r="V872" s="4"/>
       <c r="W872" s="4"/>
-      <c r="X872" s="4"/>
-      <c r="Y872" s="4"/>
     </row>
     <row r="873">
       <c r="A873" s="4"/>
@@ -24772,8 +23111,6 @@
       <c r="U873" s="4"/>
       <c r="V873" s="4"/>
       <c r="W873" s="4"/>
-      <c r="X873" s="4"/>
-      <c r="Y873" s="4"/>
     </row>
     <row r="874">
       <c r="A874" s="4"/>
@@ -24799,8 +23136,6 @@
       <c r="U874" s="4"/>
       <c r="V874" s="4"/>
       <c r="W874" s="4"/>
-      <c r="X874" s="4"/>
-      <c r="Y874" s="4"/>
     </row>
     <row r="875">
       <c r="A875" s="4"/>
@@ -24826,8 +23161,6 @@
       <c r="U875" s="4"/>
       <c r="V875" s="4"/>
       <c r="W875" s="4"/>
-      <c r="X875" s="4"/>
-      <c r="Y875" s="4"/>
     </row>
     <row r="876">
       <c r="A876" s="4"/>
@@ -24853,8 +23186,6 @@
       <c r="U876" s="4"/>
       <c r="V876" s="4"/>
       <c r="W876" s="4"/>
-      <c r="X876" s="4"/>
-      <c r="Y876" s="4"/>
     </row>
     <row r="877">
       <c r="A877" s="4"/>
@@ -24880,8 +23211,6 @@
       <c r="U877" s="4"/>
       <c r="V877" s="4"/>
       <c r="W877" s="4"/>
-      <c r="X877" s="4"/>
-      <c r="Y877" s="4"/>
     </row>
     <row r="878">
       <c r="A878" s="4"/>
@@ -24907,8 +23236,6 @@
       <c r="U878" s="4"/>
       <c r="V878" s="4"/>
       <c r="W878" s="4"/>
-      <c r="X878" s="4"/>
-      <c r="Y878" s="4"/>
     </row>
     <row r="879">
       <c r="A879" s="4"/>
@@ -24934,8 +23261,6 @@
       <c r="U879" s="4"/>
       <c r="V879" s="4"/>
       <c r="W879" s="4"/>
-      <c r="X879" s="4"/>
-      <c r="Y879" s="4"/>
     </row>
     <row r="880">
       <c r="A880" s="4"/>
@@ -24961,8 +23286,6 @@
       <c r="U880" s="4"/>
       <c r="V880" s="4"/>
       <c r="W880" s="4"/>
-      <c r="X880" s="4"/>
-      <c r="Y880" s="4"/>
     </row>
     <row r="881">
       <c r="A881" s="4"/>
@@ -24988,8 +23311,6 @@
       <c r="U881" s="4"/>
       <c r="V881" s="4"/>
       <c r="W881" s="4"/>
-      <c r="X881" s="4"/>
-      <c r="Y881" s="4"/>
     </row>
     <row r="882">
       <c r="A882" s="4"/>
@@ -25015,8 +23336,6 @@
       <c r="U882" s="4"/>
       <c r="V882" s="4"/>
       <c r="W882" s="4"/>
-      <c r="X882" s="4"/>
-      <c r="Y882" s="4"/>
     </row>
     <row r="883">
       <c r="A883" s="4"/>
@@ -25042,8 +23361,6 @@
       <c r="U883" s="4"/>
       <c r="V883" s="4"/>
       <c r="W883" s="4"/>
-      <c r="X883" s="4"/>
-      <c r="Y883" s="4"/>
     </row>
     <row r="884">
       <c r="A884" s="4"/>
@@ -25069,8 +23386,6 @@
       <c r="U884" s="4"/>
       <c r="V884" s="4"/>
       <c r="W884" s="4"/>
-      <c r="X884" s="4"/>
-      <c r="Y884" s="4"/>
     </row>
     <row r="885">
       <c r="A885" s="4"/>
@@ -25096,8 +23411,6 @@
       <c r="U885" s="4"/>
       <c r="V885" s="4"/>
       <c r="W885" s="4"/>
-      <c r="X885" s="4"/>
-      <c r="Y885" s="4"/>
     </row>
     <row r="886">
       <c r="A886" s="4"/>
@@ -25123,8 +23436,6 @@
       <c r="U886" s="4"/>
       <c r="V886" s="4"/>
       <c r="W886" s="4"/>
-      <c r="X886" s="4"/>
-      <c r="Y886" s="4"/>
     </row>
     <row r="887">
       <c r="A887" s="4"/>
@@ -25150,8 +23461,6 @@
       <c r="U887" s="4"/>
       <c r="V887" s="4"/>
       <c r="W887" s="4"/>
-      <c r="X887" s="4"/>
-      <c r="Y887" s="4"/>
     </row>
     <row r="888">
       <c r="A888" s="4"/>
@@ -25177,8 +23486,6 @@
       <c r="U888" s="4"/>
       <c r="V888" s="4"/>
       <c r="W888" s="4"/>
-      <c r="X888" s="4"/>
-      <c r="Y888" s="4"/>
     </row>
     <row r="889">
       <c r="A889" s="4"/>
@@ -25204,8 +23511,6 @@
       <c r="U889" s="4"/>
       <c r="V889" s="4"/>
       <c r="W889" s="4"/>
-      <c r="X889" s="4"/>
-      <c r="Y889" s="4"/>
     </row>
     <row r="890">
       <c r="A890" s="4"/>
@@ -25231,8 +23536,6 @@
       <c r="U890" s="4"/>
       <c r="V890" s="4"/>
       <c r="W890" s="4"/>
-      <c r="X890" s="4"/>
-      <c r="Y890" s="4"/>
     </row>
     <row r="891">
       <c r="A891" s="4"/>
@@ -25258,8 +23561,6 @@
       <c r="U891" s="4"/>
       <c r="V891" s="4"/>
       <c r="W891" s="4"/>
-      <c r="X891" s="4"/>
-      <c r="Y891" s="4"/>
     </row>
     <row r="892">
       <c r="A892" s="4"/>
@@ -25285,8 +23586,6 @@
       <c r="U892" s="4"/>
       <c r="V892" s="4"/>
       <c r="W892" s="4"/>
-      <c r="X892" s="4"/>
-      <c r="Y892" s="4"/>
     </row>
     <row r="893">
       <c r="A893" s="4"/>
@@ -25312,8 +23611,6 @@
       <c r="U893" s="4"/>
       <c r="V893" s="4"/>
       <c r="W893" s="4"/>
-      <c r="X893" s="4"/>
-      <c r="Y893" s="4"/>
     </row>
     <row r="894">
       <c r="A894" s="4"/>
@@ -25339,8 +23636,6 @@
       <c r="U894" s="4"/>
       <c r="V894" s="4"/>
       <c r="W894" s="4"/>
-      <c r="X894" s="4"/>
-      <c r="Y894" s="4"/>
     </row>
     <row r="895">
       <c r="A895" s="4"/>
@@ -25366,8 +23661,6 @@
       <c r="U895" s="4"/>
       <c r="V895" s="4"/>
       <c r="W895" s="4"/>
-      <c r="X895" s="4"/>
-      <c r="Y895" s="4"/>
     </row>
     <row r="896">
       <c r="A896" s="4"/>
@@ -25393,8 +23686,6 @@
       <c r="U896" s="4"/>
       <c r="V896" s="4"/>
       <c r="W896" s="4"/>
-      <c r="X896" s="4"/>
-      <c r="Y896" s="4"/>
     </row>
     <row r="897">
       <c r="A897" s="4"/>
@@ -25420,8 +23711,6 @@
       <c r="U897" s="4"/>
       <c r="V897" s="4"/>
       <c r="W897" s="4"/>
-      <c r="X897" s="4"/>
-      <c r="Y897" s="4"/>
     </row>
     <row r="898">
       <c r="A898" s="4"/>
@@ -25447,8 +23736,6 @@
       <c r="U898" s="4"/>
       <c r="V898" s="4"/>
       <c r="W898" s="4"/>
-      <c r="X898" s="4"/>
-      <c r="Y898" s="4"/>
     </row>
     <row r="899">
       <c r="A899" s="4"/>
@@ -25474,8 +23761,6 @@
       <c r="U899" s="4"/>
       <c r="V899" s="4"/>
       <c r="W899" s="4"/>
-      <c r="X899" s="4"/>
-      <c r="Y899" s="4"/>
     </row>
     <row r="900">
       <c r="A900" s="4"/>
@@ -25501,8 +23786,6 @@
       <c r="U900" s="4"/>
       <c r="V900" s="4"/>
       <c r="W900" s="4"/>
-      <c r="X900" s="4"/>
-      <c r="Y900" s="4"/>
     </row>
     <row r="901">
       <c r="A901" s="4"/>
@@ -25528,8 +23811,6 @@
       <c r="U901" s="4"/>
       <c r="V901" s="4"/>
       <c r="W901" s="4"/>
-      <c r="X901" s="4"/>
-      <c r="Y901" s="4"/>
     </row>
     <row r="902">
       <c r="A902" s="4"/>
@@ -25555,8 +23836,6 @@
       <c r="U902" s="4"/>
       <c r="V902" s="4"/>
       <c r="W902" s="4"/>
-      <c r="X902" s="4"/>
-      <c r="Y902" s="4"/>
     </row>
     <row r="903">
       <c r="A903" s="4"/>
@@ -25582,8 +23861,6 @@
       <c r="U903" s="4"/>
       <c r="V903" s="4"/>
       <c r="W903" s="4"/>
-      <c r="X903" s="4"/>
-      <c r="Y903" s="4"/>
     </row>
     <row r="904">
       <c r="A904" s="4"/>
@@ -25609,8 +23886,6 @@
       <c r="U904" s="4"/>
       <c r="V904" s="4"/>
       <c r="W904" s="4"/>
-      <c r="X904" s="4"/>
-      <c r="Y904" s="4"/>
     </row>
     <row r="905">
       <c r="A905" s="4"/>
@@ -25636,8 +23911,6 @@
       <c r="U905" s="4"/>
       <c r="V905" s="4"/>
       <c r="W905" s="4"/>
-      <c r="X905" s="4"/>
-      <c r="Y905" s="4"/>
     </row>
     <row r="906">
       <c r="A906" s="4"/>
@@ -25663,8 +23936,6 @@
       <c r="U906" s="4"/>
       <c r="V906" s="4"/>
       <c r="W906" s="4"/>
-      <c r="X906" s="4"/>
-      <c r="Y906" s="4"/>
     </row>
     <row r="907">
       <c r="A907" s="4"/>
@@ -25690,8 +23961,6 @@
       <c r="U907" s="4"/>
       <c r="V907" s="4"/>
       <c r="W907" s="4"/>
-      <c r="X907" s="4"/>
-      <c r="Y907" s="4"/>
     </row>
     <row r="908">
       <c r="A908" s="4"/>
@@ -25717,8 +23986,6 @@
       <c r="U908" s="4"/>
       <c r="V908" s="4"/>
       <c r="W908" s="4"/>
-      <c r="X908" s="4"/>
-      <c r="Y908" s="4"/>
     </row>
     <row r="909">
       <c r="A909" s="4"/>
@@ -25744,8 +24011,6 @@
       <c r="U909" s="4"/>
       <c r="V909" s="4"/>
       <c r="W909" s="4"/>
-      <c r="X909" s="4"/>
-      <c r="Y909" s="4"/>
     </row>
     <row r="910">
       <c r="A910" s="4"/>
@@ -25771,8 +24036,6 @@
       <c r="U910" s="4"/>
       <c r="V910" s="4"/>
       <c r="W910" s="4"/>
-      <c r="X910" s="4"/>
-      <c r="Y910" s="4"/>
     </row>
     <row r="911">
       <c r="A911" s="4"/>
@@ -25798,8 +24061,6 @@
       <c r="U911" s="4"/>
       <c r="V911" s="4"/>
       <c r="W911" s="4"/>
-      <c r="X911" s="4"/>
-      <c r="Y911" s="4"/>
     </row>
     <row r="912">
       <c r="A912" s="4"/>
@@ -25825,8 +24086,6 @@
       <c r="U912" s="4"/>
       <c r="V912" s="4"/>
       <c r="W912" s="4"/>
-      <c r="X912" s="4"/>
-      <c r="Y912" s="4"/>
     </row>
     <row r="913">
       <c r="A913" s="4"/>
@@ -25852,8 +24111,6 @@
       <c r="U913" s="4"/>
       <c r="V913" s="4"/>
       <c r="W913" s="4"/>
-      <c r="X913" s="4"/>
-      <c r="Y913" s="4"/>
     </row>
     <row r="914">
       <c r="A914" s="4"/>
@@ -25879,8 +24136,6 @@
       <c r="U914" s="4"/>
       <c r="V914" s="4"/>
       <c r="W914" s="4"/>
-      <c r="X914" s="4"/>
-      <c r="Y914" s="4"/>
     </row>
     <row r="915">
       <c r="A915" s="4"/>
@@ -25906,8 +24161,6 @@
       <c r="U915" s="4"/>
       <c r="V915" s="4"/>
       <c r="W915" s="4"/>
-      <c r="X915" s="4"/>
-      <c r="Y915" s="4"/>
     </row>
     <row r="916">
       <c r="A916" s="4"/>
@@ -25933,8 +24186,6 @@
       <c r="U916" s="4"/>
       <c r="V916" s="4"/>
       <c r="W916" s="4"/>
-      <c r="X916" s="4"/>
-      <c r="Y916" s="4"/>
     </row>
     <row r="917">
       <c r="A917" s="4"/>
@@ -25960,8 +24211,6 @@
       <c r="U917" s="4"/>
       <c r="V917" s="4"/>
       <c r="W917" s="4"/>
-      <c r="X917" s="4"/>
-      <c r="Y917" s="4"/>
     </row>
     <row r="918">
       <c r="A918" s="4"/>
@@ -25987,8 +24236,6 @@
       <c r="U918" s="4"/>
       <c r="V918" s="4"/>
       <c r="W918" s="4"/>
-      <c r="X918" s="4"/>
-      <c r="Y918" s="4"/>
     </row>
     <row r="919">
       <c r="A919" s="4"/>
@@ -26014,8 +24261,6 @@
       <c r="U919" s="4"/>
       <c r="V919" s="4"/>
       <c r="W919" s="4"/>
-      <c r="X919" s="4"/>
-      <c r="Y919" s="4"/>
     </row>
     <row r="920">
       <c r="A920" s="4"/>
@@ -26041,8 +24286,6 @@
       <c r="U920" s="4"/>
       <c r="V920" s="4"/>
       <c r="W920" s="4"/>
-      <c r="X920" s="4"/>
-      <c r="Y920" s="4"/>
     </row>
     <row r="921">
       <c r="A921" s="4"/>
@@ -26068,8 +24311,6 @@
       <c r="U921" s="4"/>
       <c r="V921" s="4"/>
       <c r="W921" s="4"/>
-      <c r="X921" s="4"/>
-      <c r="Y921" s="4"/>
     </row>
     <row r="922">
       <c r="A922" s="4"/>
@@ -26095,8 +24336,6 @@
       <c r="U922" s="4"/>
       <c r="V922" s="4"/>
       <c r="W922" s="4"/>
-      <c r="X922" s="4"/>
-      <c r="Y922" s="4"/>
     </row>
     <row r="923">
       <c r="A923" s="4"/>
@@ -26122,8 +24361,6 @@
       <c r="U923" s="4"/>
       <c r="V923" s="4"/>
       <c r="W923" s="4"/>
-      <c r="X923" s="4"/>
-      <c r="Y923" s="4"/>
     </row>
     <row r="924">
       <c r="A924" s="4"/>
@@ -26149,8 +24386,6 @@
       <c r="U924" s="4"/>
       <c r="V924" s="4"/>
       <c r="W924" s="4"/>
-      <c r="X924" s="4"/>
-      <c r="Y924" s="4"/>
     </row>
     <row r="925">
       <c r="A925" s="4"/>
@@ -26176,8 +24411,6 @@
       <c r="U925" s="4"/>
       <c r="V925" s="4"/>
       <c r="W925" s="4"/>
-      <c r="X925" s="4"/>
-      <c r="Y925" s="4"/>
     </row>
     <row r="926">
       <c r="A926" s="4"/>
@@ -26203,8 +24436,6 @@
       <c r="U926" s="4"/>
       <c r="V926" s="4"/>
       <c r="W926" s="4"/>
-      <c r="X926" s="4"/>
-      <c r="Y926" s="4"/>
     </row>
     <row r="927">
       <c r="A927" s="4"/>
@@ -26230,8 +24461,6 @@
       <c r="U927" s="4"/>
       <c r="V927" s="4"/>
       <c r="W927" s="4"/>
-      <c r="X927" s="4"/>
-      <c r="Y927" s="4"/>
     </row>
     <row r="928">
       <c r="A928" s="4"/>
@@ -26257,8 +24486,6 @@
       <c r="U928" s="4"/>
       <c r="V928" s="4"/>
       <c r="W928" s="4"/>
-      <c r="X928" s="4"/>
-      <c r="Y928" s="4"/>
     </row>
     <row r="929">
       <c r="A929" s="4"/>
@@ -26284,8 +24511,6 @@
       <c r="U929" s="4"/>
       <c r="V929" s="4"/>
       <c r="W929" s="4"/>
-      <c r="X929" s="4"/>
-      <c r="Y929" s="4"/>
     </row>
     <row r="930">
       <c r="A930" s="4"/>
@@ -26311,8 +24536,6 @@
       <c r="U930" s="4"/>
       <c r="V930" s="4"/>
       <c r="W930" s="4"/>
-      <c r="X930" s="4"/>
-      <c r="Y930" s="4"/>
     </row>
     <row r="931">
       <c r="A931" s="4"/>
@@ -26338,8 +24561,6 @@
       <c r="U931" s="4"/>
       <c r="V931" s="4"/>
       <c r="W931" s="4"/>
-      <c r="X931" s="4"/>
-      <c r="Y931" s="4"/>
     </row>
     <row r="932">
       <c r="A932" s="4"/>
@@ -26365,8 +24586,6 @@
       <c r="U932" s="4"/>
       <c r="V932" s="4"/>
       <c r="W932" s="4"/>
-      <c r="X932" s="4"/>
-      <c r="Y932" s="4"/>
     </row>
     <row r="933">
       <c r="A933" s="4"/>
@@ -26392,8 +24611,6 @@
       <c r="U933" s="4"/>
       <c r="V933" s="4"/>
       <c r="W933" s="4"/>
-      <c r="X933" s="4"/>
-      <c r="Y933" s="4"/>
     </row>
     <row r="934">
       <c r="A934" s="4"/>
@@ -26419,8 +24636,6 @@
       <c r="U934" s="4"/>
       <c r="V934" s="4"/>
       <c r="W934" s="4"/>
-      <c r="X934" s="4"/>
-      <c r="Y934" s="4"/>
     </row>
     <row r="935">
       <c r="A935" s="4"/>
@@ -26446,8 +24661,6 @@
       <c r="U935" s="4"/>
       <c r="V935" s="4"/>
       <c r="W935" s="4"/>
-      <c r="X935" s="4"/>
-      <c r="Y935" s="4"/>
     </row>
     <row r="936">
       <c r="A936" s="4"/>
@@ -26473,8 +24686,6 @@
       <c r="U936" s="4"/>
       <c r="V936" s="4"/>
       <c r="W936" s="4"/>
-      <c r="X936" s="4"/>
-      <c r="Y936" s="4"/>
     </row>
     <row r="937">
       <c r="A937" s="4"/>
@@ -26500,8 +24711,6 @@
       <c r="U937" s="4"/>
       <c r="V937" s="4"/>
       <c r="W937" s="4"/>
-      <c r="X937" s="4"/>
-      <c r="Y937" s="4"/>
     </row>
     <row r="938">
       <c r="A938" s="4"/>
@@ -26527,8 +24736,6 @@
       <c r="U938" s="4"/>
       <c r="V938" s="4"/>
       <c r="W938" s="4"/>
-      <c r="X938" s="4"/>
-      <c r="Y938" s="4"/>
     </row>
     <row r="939">
       <c r="A939" s="4"/>
@@ -26554,8 +24761,6 @@
       <c r="U939" s="4"/>
       <c r="V939" s="4"/>
       <c r="W939" s="4"/>
-      <c r="X939" s="4"/>
-      <c r="Y939" s="4"/>
     </row>
     <row r="940">
       <c r="A940" s="4"/>
@@ -26581,8 +24786,6 @@
       <c r="U940" s="4"/>
       <c r="V940" s="4"/>
       <c r="W940" s="4"/>
-      <c r="X940" s="4"/>
-      <c r="Y940" s="4"/>
     </row>
     <row r="941">
       <c r="A941" s="4"/>
@@ -26608,8 +24811,6 @@
       <c r="U941" s="4"/>
       <c r="V941" s="4"/>
       <c r="W941" s="4"/>
-      <c r="X941" s="4"/>
-      <c r="Y941" s="4"/>
     </row>
     <row r="942">
       <c r="A942" s="4"/>
@@ -26635,8 +24836,6 @@
       <c r="U942" s="4"/>
       <c r="V942" s="4"/>
       <c r="W942" s="4"/>
-      <c r="X942" s="4"/>
-      <c r="Y942" s="4"/>
     </row>
     <row r="943">
       <c r="A943" s="4"/>
@@ -26662,8 +24861,6 @@
       <c r="U943" s="4"/>
       <c r="V943" s="4"/>
       <c r="W943" s="4"/>
-      <c r="X943" s="4"/>
-      <c r="Y943" s="4"/>
     </row>
     <row r="944">
       <c r="A944" s="4"/>
@@ -26689,8 +24886,6 @@
       <c r="U944" s="4"/>
       <c r="V944" s="4"/>
       <c r="W944" s="4"/>
-      <c r="X944" s="4"/>
-      <c r="Y944" s="4"/>
     </row>
     <row r="945">
       <c r="A945" s="4"/>
@@ -26716,8 +24911,6 @@
       <c r="U945" s="4"/>
       <c r="V945" s="4"/>
       <c r="W945" s="4"/>
-      <c r="X945" s="4"/>
-      <c r="Y945" s="4"/>
     </row>
     <row r="946">
       <c r="A946" s="4"/>
@@ -26743,8 +24936,6 @@
       <c r="U946" s="4"/>
       <c r="V946" s="4"/>
       <c r="W946" s="4"/>
-      <c r="X946" s="4"/>
-      <c r="Y946" s="4"/>
     </row>
     <row r="947">
       <c r="A947" s="4"/>
@@ -26770,8 +24961,6 @@
       <c r="U947" s="4"/>
       <c r="V947" s="4"/>
       <c r="W947" s="4"/>
-      <c r="X947" s="4"/>
-      <c r="Y947" s="4"/>
     </row>
     <row r="948">
       <c r="A948" s="4"/>
@@ -26797,8 +24986,6 @@
       <c r="U948" s="4"/>
       <c r="V948" s="4"/>
       <c r="W948" s="4"/>
-      <c r="X948" s="4"/>
-      <c r="Y948" s="4"/>
     </row>
     <row r="949">
       <c r="A949" s="4"/>
@@ -26824,8 +25011,6 @@
       <c r="U949" s="4"/>
       <c r="V949" s="4"/>
       <c r="W949" s="4"/>
-      <c r="X949" s="4"/>
-      <c r="Y949" s="4"/>
     </row>
     <row r="950">
       <c r="A950" s="4"/>
@@ -26851,8 +25036,6 @@
       <c r="U950" s="4"/>
       <c r="V950" s="4"/>
       <c r="W950" s="4"/>
-      <c r="X950" s="4"/>
-      <c r="Y950" s="4"/>
     </row>
     <row r="951">
       <c r="A951" s="4"/>
@@ -26878,8 +25061,6 @@
       <c r="U951" s="4"/>
       <c r="V951" s="4"/>
       <c r="W951" s="4"/>
-      <c r="X951" s="4"/>
-      <c r="Y951" s="4"/>
     </row>
     <row r="952">
       <c r="A952" s="4"/>
@@ -26905,8 +25086,6 @@
       <c r="U952" s="4"/>
       <c r="V952" s="4"/>
       <c r="W952" s="4"/>
-      <c r="X952" s="4"/>
-      <c r="Y952" s="4"/>
     </row>
     <row r="953">
       <c r="A953" s="4"/>
@@ -26932,8 +25111,6 @@
       <c r="U953" s="4"/>
       <c r="V953" s="4"/>
       <c r="W953" s="4"/>
-      <c r="X953" s="4"/>
-      <c r="Y953" s="4"/>
     </row>
     <row r="954">
       <c r="A954" s="4"/>
@@ -26959,8 +25136,6 @@
       <c r="U954" s="4"/>
       <c r="V954" s="4"/>
       <c r="W954" s="4"/>
-      <c r="X954" s="4"/>
-      <c r="Y954" s="4"/>
     </row>
     <row r="955">
       <c r="A955" s="4"/>
@@ -26986,8 +25161,6 @@
       <c r="U955" s="4"/>
       <c r="V955" s="4"/>
       <c r="W955" s="4"/>
-      <c r="X955" s="4"/>
-      <c r="Y955" s="4"/>
     </row>
     <row r="956">
       <c r="A956" s="4"/>
@@ -27013,8 +25186,6 @@
       <c r="U956" s="4"/>
       <c r="V956" s="4"/>
       <c r="W956" s="4"/>
-      <c r="X956" s="4"/>
-      <c r="Y956" s="4"/>
     </row>
     <row r="957">
       <c r="A957" s="4"/>
@@ -27040,8 +25211,6 @@
       <c r="U957" s="4"/>
       <c r="V957" s="4"/>
       <c r="W957" s="4"/>
-      <c r="X957" s="4"/>
-      <c r="Y957" s="4"/>
     </row>
     <row r="958">
       <c r="A958" s="4"/>
@@ -27067,8 +25236,6 @@
       <c r="U958" s="4"/>
       <c r="V958" s="4"/>
       <c r="W958" s="4"/>
-      <c r="X958" s="4"/>
-      <c r="Y958" s="4"/>
     </row>
     <row r="959">
       <c r="A959" s="4"/>
@@ -27094,8 +25261,6 @@
       <c r="U959" s="4"/>
       <c r="V959" s="4"/>
       <c r="W959" s="4"/>
-      <c r="X959" s="4"/>
-      <c r="Y959" s="4"/>
     </row>
     <row r="960">
       <c r="A960" s="4"/>
@@ -27121,8 +25286,6 @@
       <c r="U960" s="4"/>
       <c r="V960" s="4"/>
       <c r="W960" s="4"/>
-      <c r="X960" s="4"/>
-      <c r="Y960" s="4"/>
     </row>
     <row r="961">
       <c r="A961" s="4"/>
@@ -27148,8 +25311,6 @@
       <c r="U961" s="4"/>
       <c r="V961" s="4"/>
       <c r="W961" s="4"/>
-      <c r="X961" s="4"/>
-      <c r="Y961" s="4"/>
     </row>
     <row r="962">
       <c r="A962" s="4"/>
@@ -27175,8 +25336,6 @@
       <c r="U962" s="4"/>
       <c r="V962" s="4"/>
       <c r="W962" s="4"/>
-      <c r="X962" s="4"/>
-      <c r="Y962" s="4"/>
     </row>
     <row r="963">
       <c r="A963" s="4"/>
@@ -27202,8 +25361,6 @@
       <c r="U963" s="4"/>
       <c r="V963" s="4"/>
       <c r="W963" s="4"/>
-      <c r="X963" s="4"/>
-      <c r="Y963" s="4"/>
     </row>
     <row r="964">
       <c r="A964" s="4"/>
@@ -27229,8 +25386,6 @@
       <c r="U964" s="4"/>
       <c r="V964" s="4"/>
       <c r="W964" s="4"/>
-      <c r="X964" s="4"/>
-      <c r="Y964" s="4"/>
     </row>
     <row r="965">
       <c r="A965" s="4"/>
@@ -27256,8 +25411,6 @@
       <c r="U965" s="4"/>
       <c r="V965" s="4"/>
       <c r="W965" s="4"/>
-      <c r="X965" s="4"/>
-      <c r="Y965" s="4"/>
     </row>
     <row r="966">
       <c r="A966" s="4"/>
@@ -27283,8 +25436,6 @@
       <c r="U966" s="4"/>
       <c r="V966" s="4"/>
       <c r="W966" s="4"/>
-      <c r="X966" s="4"/>
-      <c r="Y966" s="4"/>
     </row>
     <row r="967">
       <c r="A967" s="4"/>
@@ -27310,8 +25461,6 @@
       <c r="U967" s="4"/>
       <c r="V967" s="4"/>
       <c r="W967" s="4"/>
-      <c r="X967" s="4"/>
-      <c r="Y967" s="4"/>
     </row>
     <row r="968">
       <c r="A968" s="4"/>
@@ -27337,8 +25486,6 @@
       <c r="U968" s="4"/>
       <c r="V968" s="4"/>
       <c r="W968" s="4"/>
-      <c r="X968" s="4"/>
-      <c r="Y968" s="4"/>
     </row>
     <row r="969">
       <c r="A969" s="4"/>
@@ -27364,8 +25511,6 @@
       <c r="U969" s="4"/>
       <c r="V969" s="4"/>
       <c r="W969" s="4"/>
-      <c r="X969" s="4"/>
-      <c r="Y969" s="4"/>
     </row>
     <row r="970">
       <c r="A970" s="4"/>
@@ -27391,13 +25536,61 @@
       <c r="U970" s="4"/>
       <c r="V970" s="4"/>
       <c r="W970" s="4"/>
-      <c r="X970" s="4"/>
-      <c r="Y970" s="4"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="4"/>
+      <c r="B971" s="4"/>
+      <c r="C971" s="4"/>
+      <c r="D971" s="4"/>
+      <c r="E971" s="4"/>
+      <c r="F971" s="4"/>
+      <c r="G971" s="4"/>
+      <c r="H971" s="4"/>
+      <c r="I971" s="4"/>
+      <c r="J971" s="4"/>
+      <c r="K971" s="4"/>
+      <c r="L971" s="4"/>
+      <c r="M971" s="4"/>
+      <c r="N971" s="4"/>
+      <c r="O971" s="4"/>
+      <c r="P971" s="4"/>
+      <c r="Q971" s="4"/>
+      <c r="R971" s="4"/>
+      <c r="S971" s="4"/>
+      <c r="T971" s="4"/>
+      <c r="U971" s="4"/>
+      <c r="V971" s="4"/>
+      <c r="W971" s="4"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="4"/>
+      <c r="B972" s="4"/>
+      <c r="C972" s="4"/>
+      <c r="D972" s="4"/>
+      <c r="E972" s="4"/>
+      <c r="F972" s="4"/>
+      <c r="G972" s="4"/>
+      <c r="H972" s="4"/>
+      <c r="I972" s="4"/>
+      <c r="J972" s="4"/>
+      <c r="K972" s="4"/>
+      <c r="L972" s="4"/>
+      <c r="M972" s="4"/>
+      <c r="N972" s="4"/>
+      <c r="O972" s="4"/>
+      <c r="P972" s="4"/>
+      <c r="Q972" s="4"/>
+      <c r="R972" s="4"/>
+      <c r="S972" s="4"/>
+      <c r="T972" s="4"/>
+      <c r="U972" s="4"/>
+      <c r="V972" s="4"/>
+      <c r="W972" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B4"/>
-    <hyperlink r:id="rId2" ref="B9"/>
+    <hyperlink r:id="rId2" ref="B10"/>
   </hyperlinks>
   <drawing r:id="rId3"/>
 </worksheet>
